--- a/resources/terkep_adatok_2.xlsx
+++ b/resources/terkep_adatok_2.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="adatok" sheetId="1" r:id="rId1"/>
-    <sheet name="Munka1" sheetId="2" r:id="rId2"/>
+    <sheet name="segédtbl" sheetId="3" r:id="rId2"/>
+    <sheet name="Munka1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="239">
   <si>
     <t>Koordináta</t>
   </si>
@@ -731,6 +732,12 @@
   </si>
   <si>
     <t>Lasgun</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -1056,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M218"/>
+  <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1067,7 +1074,7 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1127,7 +1134,9 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2">
         <v>0</v>
@@ -1144,8 +1153,13 @@
       <c r="M2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O2">
+        <f>(F2-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L2,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1164,7 +1178,9 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3">
         <v>0</v>
@@ -1181,8 +1197,13 @@
       <c r="M3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <f>(F3-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L3,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1202,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1222,8 +1243,13 @@
       <c r="M4" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O4">
+        <f>(F4-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L4,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1242,7 +1268,9 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5">
         <v>0</v>
@@ -1259,8 +1287,13 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <f>(F5-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L5,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1279,7 +1312,9 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6">
         <v>0</v>
@@ -1296,8 +1331,13 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <f>(F6-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L6,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +1356,9 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7">
         <v>0</v>
@@ -1333,8 +1375,13 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O7">
+        <f>(F7-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L7,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1354,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1374,8 +1421,13 @@
       <c r="M8" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <f>(F8-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L8,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1394,7 +1446,9 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9">
         <v>0</v>
@@ -1411,8 +1465,13 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <f>(F9-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L9,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1490,9 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10">
         <v>0</v>
@@ -1448,8 +1509,13 @@
       <c r="M10" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O10">
+        <f>(F10-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L10,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1468,7 +1534,9 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11">
         <v>0</v>
@@ -1485,8 +1553,13 @@
       <c r="M11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <f>(F11-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L11,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1506,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1526,8 +1599,13 @@
       <c r="M12" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O12">
+        <f>(F12-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L12,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1547,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="1">
         <v>1</v>
@@ -1567,8 +1645,13 @@
       <c r="M13" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O13">
+        <f>(F13-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L13,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1588,7 +1671,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H14" s="1">
         <v>1</v>
@@ -1608,8 +1691,13 @@
       <c r="M14" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O14">
+        <f>(F14-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L14,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1629,7 +1717,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1649,8 +1737,13 @@
       <c r="M15" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O15">
+        <f>(F15-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L15,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1670,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -1690,8 +1783,13 @@
       <c r="M16" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O16">
+        <f>(F16-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L16,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="1">
         <v>1</v>
@@ -1731,8 +1829,13 @@
       <c r="M17" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O17">
+        <f>(F17-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L17,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1752,7 +1855,7 @@
         <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -1772,8 +1875,13 @@
       <c r="M18" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O18">
+        <f>(F18-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L18,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1793,7 +1901,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H19" s="1">
         <v>0</v>
@@ -1813,8 +1921,13 @@
       <c r="M19" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O19">
+        <f>(F19-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L19,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1833,7 +1946,9 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20">
         <v>0</v>
@@ -1850,8 +1965,13 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O20">
+        <f>(F20-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L20,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1871,7 +1991,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -1891,8 +2011,13 @@
       <c r="M21" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O21">
+        <f>(F21-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L21,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1912,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="1">
         <v>1</v>
@@ -1932,8 +2057,13 @@
       <c r="M22" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O22">
+        <f>(F22-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L22,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +2083,7 @@
         <v>3</v>
       </c>
       <c r="G23" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H23" s="1">
         <v>2</v>
@@ -1973,8 +2103,13 @@
       <c r="M23" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O23">
+        <f>(F23-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L23,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1994,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="G24" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -2014,8 +2149,13 @@
       <c r="M24" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O24">
+        <f>(F24-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L24,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2035,7 +2175,7 @@
         <v>3</v>
       </c>
       <c r="G25" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25" s="1">
         <v>0</v>
@@ -2055,8 +2195,13 @@
       <c r="M25" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O25">
+        <f>(F25-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L25,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2076,7 +2221,7 @@
         <v>3</v>
       </c>
       <c r="G26" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H26" s="1">
         <v>0</v>
@@ -2096,8 +2241,13 @@
       <c r="M26" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O26">
+        <f>(F26-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L26,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2117,7 +2267,7 @@
         <v>3</v>
       </c>
       <c r="G27" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H27" s="1">
         <v>0</v>
@@ -2137,8 +2287,13 @@
       <c r="M27" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O27">
+        <f>(F27-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L27,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2158,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H28" s="1">
         <v>2</v>
@@ -2178,8 +2333,13 @@
       <c r="M28" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O28">
+        <f>(F28-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L28,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2199,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H29" s="1">
         <v>2</v>
@@ -2219,8 +2379,13 @@
       <c r="M29" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O29">
+        <f>(F29-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L29,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2240,7 +2405,7 @@
         <v>2</v>
       </c>
       <c r="G30" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -2260,8 +2425,13 @@
       <c r="M30" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O30">
+        <f>(F30-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L30,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2281,7 +2451,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2301,8 +2471,13 @@
       <c r="M31" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O31">
+        <f>(F31-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L31,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2321,7 +2496,9 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32">
         <v>0</v>
@@ -2338,8 +2515,13 @@
       <c r="M32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O32">
+        <f>(F32-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L32,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2359,7 +2541,7 @@
         <v>2</v>
       </c>
       <c r="G33" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="1">
         <v>1</v>
@@ -2379,8 +2561,13 @@
       <c r="M33" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O33">
+        <f>(F33-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L33,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2400,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H34" s="1">
         <v>2</v>
@@ -2420,8 +2607,13 @@
       <c r="M34" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O34">
+        <f>(F34-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L34,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2441,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="G35" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H35" s="1">
         <v>5</v>
@@ -2461,8 +2653,13 @@
       <c r="M35" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O35">
+        <f>(F35-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L35,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2482,7 +2679,7 @@
         <v>4</v>
       </c>
       <c r="G36" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H36" s="1">
         <v>5</v>
@@ -2502,8 +2699,13 @@
       <c r="M36" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O36">
+        <f>(F36-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L36,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2523,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="G37" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H37" s="1">
         <v>0</v>
@@ -2543,8 +2745,13 @@
       <c r="M37" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O37">
+        <f>(F37-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L37,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2564,7 +2771,7 @@
         <v>4</v>
       </c>
       <c r="G38" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" s="1">
         <v>0</v>
@@ -2584,8 +2791,13 @@
       <c r="M38" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O38">
+        <f>(F38-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L38,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2605,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="G39" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H39" s="1">
         <v>5</v>
@@ -2625,8 +2837,13 @@
       <c r="M39" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O39">
+        <f>(F39-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L39,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2646,7 +2863,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H40" s="1">
         <v>5</v>
@@ -2666,8 +2883,13 @@
       <c r="M40" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O40">
+        <f>(F40-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L40,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2687,7 +2909,7 @@
         <v>3</v>
       </c>
       <c r="G41" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H41" s="1">
         <v>2</v>
@@ -2707,8 +2929,13 @@
       <c r="M41" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O41">
+        <f>(F41-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L41,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2728,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="G42" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="1">
         <v>1</v>
@@ -2748,8 +2975,13 @@
       <c r="M42" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O42">
+        <f>(F42-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L42,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -2768,7 +3000,9 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1">
+        <v>0</v>
+      </c>
       <c r="H43" s="1"/>
       <c r="I43">
         <v>0</v>
@@ -2785,8 +3019,13 @@
       <c r="M43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O43">
+        <f>(F43-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L43,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -2805,7 +3044,9 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1">
+        <v>0</v>
+      </c>
       <c r="H44" s="1"/>
       <c r="I44">
         <v>0</v>
@@ -2822,8 +3063,13 @@
       <c r="M44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O44">
+        <f>(F44-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L44,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -2843,7 +3089,7 @@
         <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -2863,8 +3109,13 @@
       <c r="M45" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O45">
+        <f>(F45-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L45,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -2884,7 +3135,7 @@
         <v>3</v>
       </c>
       <c r="G46" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2904,8 +3155,13 @@
       <c r="M46" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O46">
+        <f>(F46-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L46,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -2925,7 +3181,7 @@
         <v>4</v>
       </c>
       <c r="G47" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H47" s="1">
         <v>5</v>
@@ -2945,8 +3201,13 @@
       <c r="M47" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O47">
+        <f>(F47-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L47,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -2966,7 +3227,7 @@
         <v>5</v>
       </c>
       <c r="G48" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H48" s="1">
         <v>11</v>
@@ -2986,8 +3247,13 @@
       <c r="M48" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O48">
+        <f>(F48-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L48,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3007,7 +3273,7 @@
         <v>5</v>
       </c>
       <c r="G49" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H49" s="1">
         <v>11</v>
@@ -3027,8 +3293,13 @@
       <c r="M49" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O49">
+        <f>(F49-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L49,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3048,7 +3319,7 @@
         <v>5</v>
       </c>
       <c r="G50" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H50" s="1">
         <v>11</v>
@@ -3068,8 +3339,13 @@
       <c r="M50" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O50">
+        <f>(F50-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L50,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3089,7 +3365,7 @@
         <v>5</v>
       </c>
       <c r="G51" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H51" s="1">
         <v>11</v>
@@ -3109,8 +3385,13 @@
       <c r="M51" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O51">
+        <f>(F51-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L51,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3130,7 +3411,7 @@
         <v>5</v>
       </c>
       <c r="G52" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H52" s="1">
         <v>11</v>
@@ -3150,8 +3431,13 @@
       <c r="M52" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O52">
+        <f>(F52-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L52,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3171,7 +3457,7 @@
         <v>4</v>
       </c>
       <c r="G53" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H53" s="1">
         <v>5</v>
@@ -3191,8 +3477,13 @@
       <c r="M53" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O53">
+        <f>(F53-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L53,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3212,7 +3503,7 @@
         <v>3</v>
       </c>
       <c r="G54" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H54" s="1">
         <v>0</v>
@@ -3232,8 +3523,13 @@
       <c r="M54" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O54">
+        <f>(F54-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L54,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3253,7 +3549,7 @@
         <v>2</v>
       </c>
       <c r="G55" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H55" s="1">
         <v>1</v>
@@ -3273,8 +3569,13 @@
       <c r="M55" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O55">
+        <f>(F55-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L55,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3293,7 +3594,9 @@
       <c r="F56">
         <v>1</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56">
         <v>0</v>
@@ -3310,8 +3613,13 @@
       <c r="M56" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O56">
+        <f>(F56-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L56,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3330,7 +3638,9 @@
       <c r="F57">
         <v>1</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57">
         <v>0</v>
@@ -3347,8 +3657,13 @@
       <c r="M57" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O57">
+        <f>(F57-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L57,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3368,7 +3683,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H58" s="1">
         <v>1</v>
@@ -3388,8 +3703,13 @@
       <c r="M58" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O58">
+        <f>(F58-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L58,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -3409,7 +3729,7 @@
         <v>3</v>
       </c>
       <c r="G59" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3429,8 +3749,13 @@
       <c r="M59" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O59">
+        <f>(F59-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L59,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3450,7 +3775,7 @@
         <v>4</v>
       </c>
       <c r="G60" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -3470,8 +3795,13 @@
       <c r="M60" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O60">
+        <f>(F60-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L60,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3491,7 +3821,7 @@
         <v>5</v>
       </c>
       <c r="G61" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H61" s="1">
         <v>11</v>
@@ -3511,8 +3841,13 @@
       <c r="M61" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O61">
+        <f>(F61-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L61,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3532,7 +3867,7 @@
         <v>6</v>
       </c>
       <c r="G62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H62" s="1">
         <v>0</v>
@@ -3552,8 +3887,13 @@
       <c r="M62" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O62">
+        <f>(F62-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L62,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3573,7 +3913,7 @@
         <v>6</v>
       </c>
       <c r="G63" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H63" s="1">
         <v>19</v>
@@ -3593,8 +3933,13 @@
       <c r="M63" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O63">
+        <f>(F63-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L63,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3614,7 +3959,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H64" s="1">
         <v>19</v>
@@ -3634,8 +3979,13 @@
       <c r="M64" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O64">
+        <f>(F64-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L64,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -3655,7 +4005,7 @@
         <v>6</v>
       </c>
       <c r="G65" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H65" s="1">
         <v>0</v>
@@ -3675,8 +4025,13 @@
       <c r="M65" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O65">
+        <f>(F65-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L65,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -3696,7 +4051,7 @@
         <v>5</v>
       </c>
       <c r="G66" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H66" s="1">
         <v>11</v>
@@ -3716,8 +4071,13 @@
       <c r="M66" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O66">
+        <f>(F66-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L66,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -3737,7 +4097,7 @@
         <v>4</v>
       </c>
       <c r="G67" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3757,8 +4117,13 @@
       <c r="M67" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O67">
+        <f>(F67-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L67,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -3778,7 +4143,7 @@
         <v>3</v>
       </c>
       <c r="G68" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -3798,8 +4163,13 @@
       <c r="M68" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O68">
+        <f>(F68-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L68,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -3819,7 +4189,7 @@
         <v>2</v>
       </c>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H69" s="1">
         <v>1</v>
@@ -3839,8 +4209,13 @@
       <c r="M69" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O69">
+        <f>(F69-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L69,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -3859,7 +4234,9 @@
       <c r="F70">
         <v>1</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70">
         <v>0</v>
@@ -3876,8 +4253,13 @@
       <c r="M70" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O70">
+        <f>(F70-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L70,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -3897,7 +4279,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -3917,8 +4299,13 @@
       <c r="M71" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O71">
+        <f>(F71-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L71,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -3938,7 +4325,7 @@
         <v>2</v>
       </c>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H72" s="1">
         <v>1</v>
@@ -3958,8 +4345,13 @@
       <c r="M72" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O72">
+        <f>(F72-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L72,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -3979,7 +4371,7 @@
         <v>3</v>
       </c>
       <c r="G73" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H73" s="1">
         <v>0</v>
@@ -3999,8 +4391,13 @@
       <c r="M73" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O73">
+        <f>(F73-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L73,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4020,7 +4417,7 @@
         <v>4</v>
       </c>
       <c r="G74" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -4040,8 +4437,13 @@
       <c r="M74" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O74">
+        <f>(F74-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L74,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4061,7 +4463,7 @@
         <v>5</v>
       </c>
       <c r="G75" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H75" s="1">
         <v>11</v>
@@ -4081,8 +4483,13 @@
       <c r="M75" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O75">
+        <f>(F75-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L75,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4102,7 +4509,7 @@
         <v>6</v>
       </c>
       <c r="G76" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H76" s="1">
         <v>19</v>
@@ -4122,8 +4529,13 @@
       <c r="M76" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O76">
+        <f>(F76-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L76,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4143,7 +4555,7 @@
         <v>7</v>
       </c>
       <c r="G77" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H77" s="1">
         <v>29</v>
@@ -4163,8 +4575,13 @@
       <c r="M77" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O77">
+        <f>(F77-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L77,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4184,7 +4601,7 @@
         <v>7</v>
       </c>
       <c r="G78" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H78" s="1">
         <v>29</v>
@@ -4204,8 +4621,13 @@
       <c r="M78" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O78">
+        <f>(F78-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L78,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4225,7 +4647,7 @@
         <v>7</v>
       </c>
       <c r="G79" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H79" s="1">
         <v>29</v>
@@ -4245,8 +4667,13 @@
       <c r="M79" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O79">
+        <f>(F79-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L79,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4266,7 +4693,7 @@
         <v>6</v>
       </c>
       <c r="G80" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H80" s="1">
         <v>19</v>
@@ -4286,8 +4713,13 @@
       <c r="M80" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O80">
+        <f>(F80-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L80,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4307,7 +4739,7 @@
         <v>5</v>
       </c>
       <c r="G81" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H81" s="1">
         <v>11</v>
@@ -4327,8 +4759,13 @@
       <c r="M81" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O81">
+        <f>(F81-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L81,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4348,7 +4785,7 @@
         <v>4</v>
       </c>
       <c r="G82" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H82" s="1">
         <v>0</v>
@@ -4368,8 +4805,13 @@
       <c r="M82" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O82">
+        <f>(F82-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L82,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4389,7 +4831,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H83" s="1">
         <v>0</v>
@@ -4409,8 +4851,13 @@
       <c r="M83" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O83">
+        <f>(F83-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L83,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4430,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="G84" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H84" s="1">
         <v>1</v>
@@ -4450,8 +4897,13 @@
       <c r="M84" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O84">
+        <f>(F84-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L84,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4471,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -4491,8 +4943,13 @@
       <c r="M85" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O85">
+        <f>(F85-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L85,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4511,7 +4968,9 @@
       <c r="F86">
         <v>1</v>
       </c>
-      <c r="G86" s="1"/>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
       <c r="H86" s="1"/>
       <c r="I86">
         <v>0</v>
@@ -4528,8 +4987,13 @@
       <c r="M86" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O86">
+        <f>(F86-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L86,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4549,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H87" s="1">
         <v>1</v>
@@ -4569,8 +5033,13 @@
       <c r="M87" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O87">
+        <f>(F87-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L87,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4590,7 +5059,7 @@
         <v>3</v>
       </c>
       <c r="G88" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H88" s="1">
         <v>2</v>
@@ -4610,8 +5079,13 @@
       <c r="M88" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O88">
+        <f>(F88-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L88,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4631,7 +5105,7 @@
         <v>4</v>
       </c>
       <c r="G89" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H89" s="1">
         <v>5</v>
@@ -4651,8 +5125,13 @@
       <c r="M89" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O89">
+        <f>(F89-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L89,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4672,7 +5151,7 @@
         <v>5</v>
       </c>
       <c r="G90" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H90" s="1">
         <v>11</v>
@@ -4692,8 +5171,13 @@
       <c r="M90" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O90">
+        <f>(F90-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L90,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4713,7 +5197,7 @@
         <v>6</v>
       </c>
       <c r="G91" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H91" s="1">
         <v>19</v>
@@ -4733,8 +5217,13 @@
       <c r="M91" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O91">
+        <f>(F91-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L91,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4754,7 +5243,7 @@
         <v>7</v>
       </c>
       <c r="G92" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H92" s="1">
         <v>29</v>
@@ -4774,8 +5263,13 @@
       <c r="M92" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O92">
+        <f>(F92-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L92,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4795,7 +5289,7 @@
         <v>8</v>
       </c>
       <c r="G93" s="1">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H93" s="1">
         <v>37</v>
@@ -4815,8 +5309,13 @@
       <c r="M93" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O93">
+        <f>(F93-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L93,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-7</v>
+      </c>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4836,7 +5335,7 @@
         <v>8</v>
       </c>
       <c r="G94" s="1">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H94" s="1">
         <v>37</v>
@@ -4856,8 +5355,13 @@
       <c r="M94" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O94">
+        <f>(F94-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L94,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-7</v>
+      </c>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4877,7 +5381,7 @@
         <v>7</v>
       </c>
       <c r="G95" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H95" s="1">
         <v>29</v>
@@ -4897,8 +5401,13 @@
       <c r="M95" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O95">
+        <f>(F95-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L95,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4918,7 +5427,7 @@
         <v>6</v>
       </c>
       <c r="G96" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H96" s="1">
         <v>19</v>
@@ -4938,8 +5447,13 @@
       <c r="M96" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O96">
+        <f>(F96-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L96,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q96" s="1"/>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4959,7 +5473,7 @@
         <v>5</v>
       </c>
       <c r="G97" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H97" s="1">
         <v>11</v>
@@ -4979,8 +5493,13 @@
       <c r="M97" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O97">
+        <f>(F97-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L97,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q97" s="1"/>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5000,7 +5519,7 @@
         <v>4</v>
       </c>
       <c r="G98" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H98" s="1">
         <v>5</v>
@@ -5020,8 +5539,13 @@
       <c r="M98" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O98">
+        <f>(F98-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L98,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q98" s="1"/>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5041,7 +5565,7 @@
         <v>3</v>
       </c>
       <c r="G99" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H99" s="1">
         <v>2</v>
@@ -5061,8 +5585,13 @@
       <c r="M99" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O99">
+        <f>(F99-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L99,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q99" s="1"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5082,7 +5611,7 @@
         <v>2</v>
       </c>
       <c r="G100" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H100" s="1">
         <v>1</v>
@@ -5102,8 +5631,13 @@
       <c r="M100" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O100">
+        <f>(F100-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L100,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q100" s="1"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5122,7 +5656,9 @@
       <c r="F101">
         <v>1</v>
       </c>
-      <c r="G101" s="1"/>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
       <c r="H101" s="1"/>
       <c r="I101">
         <v>0</v>
@@ -5139,8 +5675,13 @@
       <c r="M101" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O101">
+        <f>(F101-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L101,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q101" s="1"/>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5159,7 +5700,9 @@
       <c r="F102">
         <v>1</v>
       </c>
-      <c r="G102" s="1"/>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
       <c r="H102" s="1"/>
       <c r="I102">
         <v>0</v>
@@ -5176,8 +5719,13 @@
       <c r="M102" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O102">
+        <f>(F102-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L102,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1"/>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5197,7 +5745,7 @@
         <v>2</v>
       </c>
       <c r="G103" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -5217,8 +5765,13 @@
       <c r="M103" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O103">
+        <f>(F103-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L103,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Q103" s="1"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5238,7 +5791,7 @@
         <v>3</v>
       </c>
       <c r="G104" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H104" s="1">
         <v>2</v>
@@ -5258,8 +5811,13 @@
       <c r="M104" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O104">
+        <f>(F104-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L104,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q104" s="1"/>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5279,7 +5837,7 @@
         <v>4</v>
       </c>
       <c r="G105" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H105" s="1">
         <v>5</v>
@@ -5299,8 +5857,13 @@
       <c r="M105" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O105">
+        <f>(F105-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L105,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q105" s="1"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5320,7 +5883,7 @@
         <v>5</v>
       </c>
       <c r="G106" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H106" s="1">
         <v>11</v>
@@ -5340,8 +5903,13 @@
       <c r="M106" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O106">
+        <f>(F106-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L106,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q106" s="1"/>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5361,7 +5929,7 @@
         <v>6</v>
       </c>
       <c r="G107" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H107" s="1">
         <v>0</v>
@@ -5381,8 +5949,13 @@
       <c r="M107" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O107">
+        <f>(F107-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L107,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Q107" s="1"/>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -5402,7 +5975,7 @@
         <v>7</v>
       </c>
       <c r="G108" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H108" s="1">
         <v>29</v>
@@ -5422,8 +5995,13 @@
       <c r="M108" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O108">
+        <f>(F108-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L108,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q108" s="1"/>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -5443,7 +6021,7 @@
         <v>8</v>
       </c>
       <c r="G109" s="1">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H109" s="1">
         <v>37</v>
@@ -5463,8 +6041,13 @@
       <c r="M109" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O109">
+        <f>(F109-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L109,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-7</v>
+      </c>
+      <c r="Q109" s="1"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -5484,7 +6067,7 @@
         <v>9</v>
       </c>
       <c r="G110" s="1">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="H110" s="1">
         <v>40</v>
@@ -5504,8 +6087,13 @@
       <c r="M110" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O110">
+        <f>(F110-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L110,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-8</v>
+      </c>
+      <c r="Q110" s="1"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -5525,7 +6113,7 @@
         <v>8</v>
       </c>
       <c r="G111" s="1">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H111" s="1">
         <v>37</v>
@@ -5545,8 +6133,13 @@
       <c r="M111" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O111">
+        <f>(F111-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L111,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-7</v>
+      </c>
+      <c r="Q111" s="1"/>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -5566,7 +6159,7 @@
         <v>7</v>
       </c>
       <c r="G112" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H112" s="1">
         <v>29</v>
@@ -5586,8 +6179,13 @@
       <c r="M112" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O112">
+        <f>(F112-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L112,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q112" s="1"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -5607,7 +6205,7 @@
         <v>6</v>
       </c>
       <c r="G113" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -5627,8 +6225,13 @@
       <c r="M113" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O113">
+        <f>(F113-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L113,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Q113" s="1"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -5648,7 +6251,7 @@
         <v>5</v>
       </c>
       <c r="G114" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H114" s="1">
         <v>11</v>
@@ -5668,8 +6271,13 @@
       <c r="M114" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O114">
+        <f>(F114-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L114,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q114" s="1"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -5689,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="G115" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H115" s="1">
         <v>5</v>
@@ -5709,8 +6317,13 @@
       <c r="M115" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O115">
+        <f>(F115-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L115,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q115" s="1"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5730,7 +6343,7 @@
         <v>3</v>
       </c>
       <c r="G116" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H116" s="1">
         <v>2</v>
@@ -5750,8 +6363,13 @@
       <c r="M116" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O116">
+        <f>(F116-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L116,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q116" s="1"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5771,7 +6389,7 @@
         <v>2</v>
       </c>
       <c r="G117" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H117" s="1">
         <v>0</v>
@@ -5791,8 +6409,13 @@
       <c r="M117" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O117">
+        <f>(F117-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L117,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Q117" s="1"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5811,7 +6434,9 @@
       <c r="F118">
         <v>1</v>
       </c>
-      <c r="G118" s="1"/>
+      <c r="G118" s="1">
+        <v>0</v>
+      </c>
       <c r="H118" s="1"/>
       <c r="I118">
         <v>0</v>
@@ -5828,8 +6453,13 @@
       <c r="M118" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O118">
+        <f>(F118-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L118,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q118" s="1"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5848,7 +6478,9 @@
       <c r="F119">
         <v>1</v>
       </c>
-      <c r="G119" s="1"/>
+      <c r="G119" s="1">
+        <v>0</v>
+      </c>
       <c r="H119" s="1"/>
       <c r="I119">
         <v>0</v>
@@ -5865,8 +6497,13 @@
       <c r="M119" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O119">
+        <f>(F119-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L119,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5886,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="G120" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H120" s="1">
         <v>1</v>
@@ -5906,8 +6543,13 @@
       <c r="M120" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O120">
+        <f>(F120-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L120,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5927,7 +6569,7 @@
         <v>3</v>
       </c>
       <c r="G121" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H121" s="1">
         <v>2</v>
@@ -5947,8 +6589,13 @@
       <c r="M121" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O121">
+        <f>(F121-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L121,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5968,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="G122" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H122" s="1">
         <v>5</v>
@@ -5988,8 +6635,13 @@
       <c r="M122" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O122">
+        <f>(F122-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L122,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -6009,7 +6661,7 @@
         <v>5</v>
       </c>
       <c r="G123" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H123" s="1">
         <v>11</v>
@@ -6029,8 +6681,13 @@
       <c r="M123" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O123">
+        <f>(F123-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L123,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -6050,7 +6707,7 @@
         <v>6</v>
       </c>
       <c r="G124" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H124" s="1">
         <v>19</v>
@@ -6070,8 +6727,13 @@
       <c r="M124" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O124">
+        <f>(F124-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L124,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -6091,7 +6753,7 @@
         <v>7</v>
       </c>
       <c r="G125" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H125" s="1">
         <v>29</v>
@@ -6111,8 +6773,13 @@
       <c r="M125" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O125">
+        <f>(F125-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L125,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -6132,7 +6799,7 @@
         <v>8</v>
       </c>
       <c r="G126" s="1">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H126" s="1">
         <v>37</v>
@@ -6152,8 +6819,13 @@
       <c r="M126" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O126">
+        <f>(F126-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L126,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-7</v>
+      </c>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -6173,7 +6845,7 @@
         <v>8</v>
       </c>
       <c r="G127" s="1">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="H127" s="1">
         <v>37</v>
@@ -6193,8 +6865,13 @@
       <c r="M127" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O127">
+        <f>(F127-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L127,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-7</v>
+      </c>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -6214,7 +6891,7 @@
         <v>7</v>
       </c>
       <c r="G128" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H128" s="1">
         <v>29</v>
@@ -6234,8 +6911,13 @@
       <c r="M128" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O128">
+        <f>(F128-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L128,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -6255,7 +6937,7 @@
         <v>6</v>
       </c>
       <c r="G129" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H129" s="1">
         <v>19</v>
@@ -6275,8 +6957,13 @@
       <c r="M129" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O129">
+        <f>(F129-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L129,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -6296,7 +6983,7 @@
         <v>5</v>
       </c>
       <c r="G130" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H130" s="1">
         <v>11</v>
@@ -6316,8 +7003,13 @@
       <c r="M130" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O130">
+        <f>(F130-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L130,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -6337,7 +7029,7 @@
         <v>4</v>
       </c>
       <c r="G131" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H131" s="1">
         <v>5</v>
@@ -6357,8 +7049,13 @@
       <c r="M131" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O131">
+        <f>(F131-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L131,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -6378,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="G132" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H132" s="1">
         <v>2</v>
@@ -6398,8 +7095,13 @@
       <c r="M132" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O132">
+        <f>(F132-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L132,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -6419,7 +7121,7 @@
         <v>2</v>
       </c>
       <c r="G133" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H133" s="1">
         <v>1</v>
@@ -6439,8 +7141,13 @@
       <c r="M133" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O133">
+        <f>(F133-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L133,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -6459,7 +7166,9 @@
       <c r="F134">
         <v>1</v>
       </c>
-      <c r="G134" s="1"/>
+      <c r="G134" s="1">
+        <v>0</v>
+      </c>
       <c r="H134" s="1"/>
       <c r="I134">
         <v>0</v>
@@ -6476,8 +7185,13 @@
       <c r="M134" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O134">
+        <f>(F134-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L134,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -6497,7 +7211,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H135" s="1">
         <v>0</v>
@@ -6517,8 +7231,13 @@
       <c r="M135" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O135">
+        <f>(F135-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L135,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q135" s="1"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -6538,7 +7257,7 @@
         <v>2</v>
       </c>
       <c r="G136" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H136" s="1">
         <v>1</v>
@@ -6558,8 +7277,13 @@
       <c r="M136" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O136">
+        <f>(F136-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L136,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -6579,7 +7303,7 @@
         <v>3</v>
       </c>
       <c r="G137" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H137" s="1">
         <v>0</v>
@@ -6599,8 +7323,13 @@
       <c r="M137" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O137">
+        <f>(F137-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L137,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -6620,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="G138" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H138" s="1">
         <v>0</v>
@@ -6640,8 +7369,13 @@
       <c r="M138" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O138">
+        <f>(F138-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L138,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -6661,7 +7395,7 @@
         <v>5</v>
       </c>
       <c r="G139" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H139" s="1">
         <v>11</v>
@@ -6681,8 +7415,13 @@
       <c r="M139" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O139">
+        <f>(F139-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L139,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -6702,7 +7441,7 @@
         <v>6</v>
       </c>
       <c r="G140" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H140" s="1">
         <v>19</v>
@@ -6722,8 +7461,13 @@
       <c r="M140" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O140">
+        <f>(F140-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L140,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -6743,7 +7487,7 @@
         <v>7</v>
       </c>
       <c r="G141" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H141" s="1">
         <v>29</v>
@@ -6763,8 +7507,13 @@
       <c r="M141" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O141">
+        <f>(F141-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L141,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q141" s="1"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -6784,7 +7533,7 @@
         <v>7</v>
       </c>
       <c r="G142" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H142" s="1">
         <v>29</v>
@@ -6804,8 +7553,13 @@
       <c r="M142" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O142">
+        <f>(F142-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L142,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -6825,7 +7579,7 @@
         <v>7</v>
       </c>
       <c r="G143" s="1">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="H143" s="1">
         <v>29</v>
@@ -6845,8 +7599,13 @@
       <c r="M143" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O143">
+        <f>(F143-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L143,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-6</v>
+      </c>
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -6866,7 +7625,7 @@
         <v>6</v>
       </c>
       <c r="G144" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H144" s="1">
         <v>19</v>
@@ -6886,8 +7645,13 @@
       <c r="M144" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O144">
+        <f>(F144-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L144,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -6907,7 +7671,7 @@
         <v>5</v>
       </c>
       <c r="G145" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H145" s="1">
         <v>11</v>
@@ -6927,8 +7691,13 @@
       <c r="M145" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O145">
+        <f>(F145-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L145,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -6948,7 +7717,7 @@
         <v>4</v>
       </c>
       <c r="G146" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H146" s="1">
         <v>0</v>
@@ -6968,8 +7737,13 @@
       <c r="M146" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O146">
+        <f>(F146-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L146,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -6989,7 +7763,7 @@
         <v>3</v>
       </c>
       <c r="G147" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H147" s="1">
         <v>0</v>
@@ -7009,8 +7783,13 @@
       <c r="M147" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O147">
+        <f>(F147-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L147,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -7030,7 +7809,7 @@
         <v>2</v>
       </c>
       <c r="G148" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H148" s="1">
         <v>1</v>
@@ -7050,8 +7829,13 @@
       <c r="M148" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O148">
+        <f>(F148-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L148,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -7071,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H149" s="1">
         <v>0</v>
@@ -7091,8 +7875,13 @@
       <c r="M149" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O149">
+        <f>(F149-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L149,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -7111,7 +7900,9 @@
       <c r="F150">
         <v>1</v>
       </c>
-      <c r="G150" s="1"/>
+      <c r="G150" s="1">
+        <v>0</v>
+      </c>
       <c r="H150" s="1"/>
       <c r="I150">
         <v>0</v>
@@ -7128,8 +7919,13 @@
       <c r="M150" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O150">
+        <f>(F150-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L150,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -7149,7 +7945,7 @@
         <v>2</v>
       </c>
       <c r="G151" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H151" s="1">
         <v>1</v>
@@ -7169,8 +7965,13 @@
       <c r="M151" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O151">
+        <f>(F151-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L151,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q151" s="1"/>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -7190,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="G152" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
@@ -7210,8 +8011,13 @@
       <c r="M152" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O152">
+        <f>(F152-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L152,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q152" s="1"/>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -7231,7 +8037,7 @@
         <v>4</v>
       </c>
       <c r="G153" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H153" s="1">
         <v>0</v>
@@ -7251,8 +8057,13 @@
       <c r="M153" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O153">
+        <f>(F153-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L153,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q153" s="1"/>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -7272,7 +8083,7 @@
         <v>5</v>
       </c>
       <c r="G154" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H154" s="1">
         <v>11</v>
@@ -7292,8 +8103,13 @@
       <c r="M154" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O154">
+        <f>(F154-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L154,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q154" s="1"/>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -7313,7 +8129,7 @@
         <v>6</v>
       </c>
       <c r="G155" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H155" s="1">
         <v>0</v>
@@ -7333,8 +8149,13 @@
       <c r="M155" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O155">
+        <f>(F155-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L155,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Q155" s="1"/>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -7354,7 +8175,7 @@
         <v>6</v>
       </c>
       <c r="G156" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H156" s="1">
         <v>19</v>
@@ -7374,8 +8195,13 @@
       <c r="M156" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O156">
+        <f>(F156-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L156,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q156" s="1"/>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -7395,7 +8221,7 @@
         <v>6</v>
       </c>
       <c r="G157" s="1">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="H157" s="1">
         <v>19</v>
@@ -7415,8 +8241,13 @@
       <c r="M157" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O157">
+        <f>(F157-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L157,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-5</v>
+      </c>
+      <c r="Q157" s="1"/>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -7436,7 +8267,7 @@
         <v>6</v>
       </c>
       <c r="G158" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H158" s="1">
         <v>0</v>
@@ -7456,8 +8287,13 @@
       <c r="M158" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O158">
+        <f>(F158-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L158,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="Q158" s="1"/>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -7477,7 +8313,7 @@
         <v>5</v>
       </c>
       <c r="G159" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H159" s="1">
         <v>11</v>
@@ -7497,8 +8333,13 @@
       <c r="M159" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O159">
+        <f>(F159-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L159,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q159" s="1"/>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -7518,7 +8359,7 @@
         <v>4</v>
       </c>
       <c r="G160" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H160" s="1">
         <v>0</v>
@@ -7538,8 +8379,13 @@
       <c r="M160" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O160">
+        <f>(F160-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L160,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q160" s="1"/>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -7559,7 +8405,7 @@
         <v>3</v>
       </c>
       <c r="G161" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H161" s="1">
         <v>0</v>
@@ -7579,8 +8425,13 @@
       <c r="M161" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O161">
+        <f>(F161-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L161,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q161" s="1"/>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -7600,7 +8451,7 @@
         <v>2</v>
       </c>
       <c r="G162" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H162" s="1">
         <v>1</v>
@@ -7620,8 +8471,13 @@
       <c r="M162" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O162">
+        <f>(F162-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L162,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q162" s="1"/>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -7640,7 +8496,9 @@
       <c r="F163">
         <v>1</v>
       </c>
-      <c r="G163" s="1"/>
+      <c r="G163" s="1">
+        <v>0</v>
+      </c>
       <c r="H163" s="1"/>
       <c r="I163">
         <v>0</v>
@@ -7657,8 +8515,13 @@
       <c r="M163" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O163">
+        <f>(F163-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L163,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q163" s="1"/>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -7677,7 +8540,9 @@
       <c r="F164">
         <v>1</v>
       </c>
-      <c r="G164" s="1"/>
+      <c r="G164" s="1">
+        <v>0</v>
+      </c>
       <c r="H164" s="1"/>
       <c r="I164">
         <v>0</v>
@@ -7694,8 +8559,13 @@
       <c r="M164" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O164">
+        <f>(F164-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L164,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q164" s="1"/>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -7715,7 +8585,7 @@
         <v>2</v>
       </c>
       <c r="G165" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H165" s="1">
         <v>1</v>
@@ -7735,8 +8605,13 @@
       <c r="M165" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O165">
+        <f>(F165-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L165,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q165" s="1"/>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -7756,7 +8631,7 @@
         <v>3</v>
       </c>
       <c r="G166" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H166" s="1">
         <v>0</v>
@@ -7776,8 +8651,13 @@
       <c r="M166" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O166">
+        <f>(F166-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L166,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q166" s="1"/>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -7797,7 +8677,7 @@
         <v>4</v>
       </c>
       <c r="G167" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H167" s="1">
         <v>5</v>
@@ -7817,8 +8697,13 @@
       <c r="M167" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O167">
+        <f>(F167-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L167,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q167" s="1"/>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -7838,7 +8723,7 @@
         <v>5</v>
       </c>
       <c r="G168" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H168" s="1">
         <v>11</v>
@@ -7858,8 +8743,13 @@
       <c r="M168" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O168">
+        <f>(F168-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L168,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q168" s="1"/>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -7879,7 +8769,7 @@
         <v>5</v>
       </c>
       <c r="G169" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H169" s="1">
         <v>11</v>
@@ -7899,8 +8789,13 @@
       <c r="M169" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O169">
+        <f>(F169-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L169,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q169" s="1"/>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -7920,7 +8815,7 @@
         <v>5</v>
       </c>
       <c r="G170" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H170" s="1">
         <v>11</v>
@@ -7940,8 +8835,13 @@
       <c r="M170" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O170">
+        <f>(F170-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L170,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q170" s="1"/>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -7961,7 +8861,7 @@
         <v>5</v>
       </c>
       <c r="G171" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H171" s="1">
         <v>11</v>
@@ -7981,8 +8881,13 @@
       <c r="M171" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O171">
+        <f>(F171-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L171,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q171" s="1"/>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -8002,7 +8907,7 @@
         <v>5</v>
       </c>
       <c r="G172" s="1">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="H172" s="1">
         <v>11</v>
@@ -8022,8 +8927,13 @@
       <c r="M172" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O172">
+        <f>(F172-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L172,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-4</v>
+      </c>
+      <c r="Q172" s="1"/>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -8043,7 +8953,7 @@
         <v>4</v>
       </c>
       <c r="G173" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H173" s="1">
         <v>5</v>
@@ -8063,8 +8973,13 @@
       <c r="M173" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O173">
+        <f>(F173-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L173,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q173" s="1"/>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -8084,7 +8999,7 @@
         <v>3</v>
       </c>
       <c r="G174" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H174" s="1">
         <v>0</v>
@@ -8104,8 +9019,13 @@
       <c r="M174" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O174">
+        <f>(F174-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L174,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q174" s="1"/>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -8125,7 +9045,7 @@
         <v>2</v>
       </c>
       <c r="G175" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H175" s="1">
         <v>1</v>
@@ -8145,8 +9065,13 @@
       <c r="M175" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O175">
+        <f>(F175-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L175,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q175" s="1"/>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -8165,7 +9090,9 @@
       <c r="F176">
         <v>1</v>
       </c>
-      <c r="G176" s="1"/>
+      <c r="G176" s="1">
+        <v>0</v>
+      </c>
       <c r="H176" s="1"/>
       <c r="I176">
         <v>0</v>
@@ -8182,8 +9109,13 @@
       <c r="M176" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O176">
+        <f>(F176-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L176,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q176" s="1"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -8202,7 +9134,9 @@
       <c r="F177">
         <v>1</v>
       </c>
-      <c r="G177" s="1"/>
+      <c r="G177" s="1">
+        <v>0</v>
+      </c>
       <c r="H177" s="1"/>
       <c r="I177">
         <v>0</v>
@@ -8219,8 +9153,13 @@
       <c r="M177" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O177">
+        <f>(F177-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L177,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q177" s="1"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -8240,7 +9179,7 @@
         <v>2</v>
       </c>
       <c r="G178" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H178" s="1">
         <v>1</v>
@@ -8260,8 +9199,13 @@
       <c r="M178" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O178">
+        <f>(F178-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L178,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q178" s="1"/>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>192</v>
       </c>
@@ -8281,7 +9225,7 @@
         <v>3</v>
       </c>
       <c r="G179" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H179" s="1">
         <v>2</v>
@@ -8301,8 +9245,13 @@
       <c r="M179" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O179">
+        <f>(F179-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L179,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q179" s="1"/>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -8322,7 +9271,7 @@
         <v>4</v>
       </c>
       <c r="G180" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H180" s="1">
         <v>5</v>
@@ -8342,8 +9291,13 @@
       <c r="M180" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O180">
+        <f>(F180-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L180,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q180" s="1"/>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>194</v>
       </c>
@@ -8363,7 +9317,7 @@
         <v>4</v>
       </c>
       <c r="G181" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H181" s="1">
         <v>5</v>
@@ -8383,8 +9337,13 @@
       <c r="M181" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O181">
+        <f>(F181-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L181,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q181" s="1"/>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>195</v>
       </c>
@@ -8404,7 +9363,7 @@
         <v>4</v>
       </c>
       <c r="G182" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H182" s="1">
         <v>0</v>
@@ -8424,8 +9383,13 @@
       <c r="M182" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O182">
+        <f>(F182-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L182,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q182" s="1"/>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>196</v>
       </c>
@@ -8445,7 +9409,7 @@
         <v>4</v>
       </c>
       <c r="G183" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H183" s="1">
         <v>0</v>
@@ -8465,8 +9429,13 @@
       <c r="M183" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O183">
+        <f>(F183-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L183,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="Q183" s="1"/>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>197</v>
       </c>
@@ -8486,7 +9455,7 @@
         <v>4</v>
       </c>
       <c r="G184" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H184" s="1">
         <v>5</v>
@@ -8506,8 +9475,13 @@
       <c r="M184" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O184">
+        <f>(F184-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L184,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q184" s="1"/>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -8527,7 +9501,7 @@
         <v>4</v>
       </c>
       <c r="G185" s="1">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="H185" s="1">
         <v>5</v>
@@ -8547,8 +9521,13 @@
       <c r="M185" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O185">
+        <f>(F185-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L185,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-3</v>
+      </c>
+      <c r="Q185" s="1"/>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>199</v>
       </c>
@@ -8568,7 +9547,7 @@
         <v>3</v>
       </c>
       <c r="G186" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H186" s="1">
         <v>2</v>
@@ -8588,8 +9567,13 @@
       <c r="M186" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O186">
+        <f>(F186-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L186,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q186" s="1"/>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -8609,7 +9593,7 @@
         <v>2</v>
       </c>
       <c r="G187" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H187" s="1">
         <v>1</v>
@@ -8629,8 +9613,13 @@
       <c r="M187" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O187">
+        <f>(F187-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L187,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q187" s="1"/>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -8649,7 +9638,9 @@
       <c r="F188">
         <v>1</v>
       </c>
-      <c r="G188" s="1"/>
+      <c r="G188" s="1">
+        <v>0</v>
+      </c>
       <c r="H188" s="1"/>
       <c r="I188">
         <v>0</v>
@@ -8666,8 +9657,13 @@
       <c r="M188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O188">
+        <f>(F188-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L188,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q188" s="1"/>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -8687,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H189" s="1">
         <v>0</v>
@@ -8707,8 +9703,13 @@
       <c r="M189" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O189">
+        <f>(F189-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L189,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q189" s="1"/>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -8728,7 +9729,7 @@
         <v>2</v>
       </c>
       <c r="G190" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H190" s="1">
         <v>1</v>
@@ -8748,8 +9749,13 @@
       <c r="M190" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O190">
+        <f>(F190-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L190,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q190" s="1"/>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -8769,7 +9775,7 @@
         <v>3</v>
       </c>
       <c r="G191" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H191" s="1">
         <v>2</v>
@@ -8789,8 +9795,13 @@
       <c r="M191" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O191">
+        <f>(F191-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L191,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q191" s="1"/>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>205</v>
       </c>
@@ -8810,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="G192" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H192" s="1">
         <v>2</v>
@@ -8830,8 +9841,13 @@
       <c r="M192" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O192">
+        <f>(F192-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L192,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q192" s="1"/>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>206</v>
       </c>
@@ -8851,7 +9867,7 @@
         <v>3</v>
       </c>
       <c r="G193" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H193" s="1">
         <v>0</v>
@@ -8871,8 +9887,13 @@
       <c r="M193" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O193">
+        <f>(F193-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L193,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q193" s="1"/>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -8892,7 +9913,7 @@
         <v>3</v>
       </c>
       <c r="G194" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H194" s="1">
         <v>0</v>
@@ -8912,8 +9933,13 @@
       <c r="M194" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O194">
+        <f>(F194-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L194,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q194" s="1"/>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>208</v>
       </c>
@@ -8933,7 +9959,7 @@
         <v>3</v>
       </c>
       <c r="G195" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H195" s="1">
         <v>0</v>
@@ -8953,8 +9979,13 @@
       <c r="M195" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O195">
+        <f>(F195-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L195,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="Q195" s="1"/>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -8974,7 +10005,7 @@
         <v>3</v>
       </c>
       <c r="G196" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H196" s="1">
         <v>2</v>
@@ -8994,8 +10025,13 @@
       <c r="M196" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O196">
+        <f>(F196-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L196,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q196" s="1"/>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>210</v>
       </c>
@@ -9015,7 +10051,7 @@
         <v>3</v>
       </c>
       <c r="G197" s="1">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H197" s="1">
         <v>2</v>
@@ -9035,8 +10071,13 @@
       <c r="M197" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O197">
+        <f>(F197-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L197,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-2</v>
+      </c>
+      <c r="Q197" s="1"/>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>211</v>
       </c>
@@ -9056,7 +10097,7 @@
         <v>2</v>
       </c>
       <c r="G198" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H198" s="1">
         <v>1</v>
@@ -9076,8 +10117,13 @@
       <c r="M198" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O198">
+        <f>(F198-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L198,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q198" s="1"/>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -9097,7 +10143,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H199" s="1">
         <v>0</v>
@@ -9117,8 +10163,13 @@
       <c r="M199" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O199">
+        <f>(F199-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L199,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q199" s="1"/>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -9137,7 +10188,9 @@
       <c r="F200">
         <v>1</v>
       </c>
-      <c r="G200" s="1"/>
+      <c r="G200" s="1">
+        <v>0</v>
+      </c>
       <c r="H200" s="1"/>
       <c r="I200">
         <v>0</v>
@@ -9154,8 +10207,13 @@
       <c r="M200" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O200">
+        <f>(F200-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L200,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q200" s="1"/>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>214</v>
       </c>
@@ -9175,7 +10233,7 @@
         <v>2</v>
       </c>
       <c r="G201" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H201" s="1">
         <v>0</v>
@@ -9195,8 +10253,13 @@
       <c r="M201" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O201">
+        <f>(F201-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L201,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Q201" s="1"/>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>215</v>
       </c>
@@ -9216,7 +10279,7 @@
         <v>2</v>
       </c>
       <c r="G202" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H202" s="1">
         <v>1</v>
@@ -9236,8 +10299,13 @@
       <c r="M202" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O202">
+        <f>(F202-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L202,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q202" s="1"/>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -9257,7 +10325,7 @@
         <v>2</v>
       </c>
       <c r="G203" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H203" s="1">
         <v>1</v>
@@ -9277,8 +10345,13 @@
       <c r="M203" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O203">
+        <f>(F203-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L203,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q203" s="1"/>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>217</v>
       </c>
@@ -9298,7 +10371,7 @@
         <v>2</v>
       </c>
       <c r="G204" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H204" s="1">
         <v>1</v>
@@ -9318,8 +10391,13 @@
       <c r="M204" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O204">
+        <f>(F204-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L204,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q204" s="1"/>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>218</v>
       </c>
@@ -9339,7 +10417,7 @@
         <v>2</v>
       </c>
       <c r="G205" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H205" s="1">
         <v>1</v>
@@ -9359,8 +10437,13 @@
       <c r="M205" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O205">
+        <f>(F205-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L205,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q205" s="1"/>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>219</v>
       </c>
@@ -9380,7 +10463,7 @@
         <v>2</v>
       </c>
       <c r="G206" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H206" s="1">
         <v>1</v>
@@ -9400,8 +10483,13 @@
       <c r="M206" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O206">
+        <f>(F206-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L206,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q206" s="1"/>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>220</v>
       </c>
@@ -9421,7 +10509,7 @@
         <v>2</v>
       </c>
       <c r="G207" s="1">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H207" s="1">
         <v>1</v>
@@ -9441,8 +10529,13 @@
       <c r="M207" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O207">
+        <f>(F207-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L207,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>-1</v>
+      </c>
+      <c r="Q207" s="1"/>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>221</v>
       </c>
@@ -9462,7 +10555,7 @@
         <v>2</v>
       </c>
       <c r="G208" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H208" s="1">
         <v>0</v>
@@ -9482,8 +10575,13 @@
       <c r="M208" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O208">
+        <f>(F208-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L208,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="Q208" s="1"/>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>222</v>
       </c>
@@ -9502,7 +10600,9 @@
       <c r="F209">
         <v>1</v>
       </c>
-      <c r="G209" s="1"/>
+      <c r="G209" s="1">
+        <v>0</v>
+      </c>
       <c r="H209" s="1"/>
       <c r="I209">
         <v>0</v>
@@ -9519,8 +10619,13 @@
       <c r="M209" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O209">
+        <f>(F209-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L209,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q209" s="1"/>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>223</v>
       </c>
@@ -9539,7 +10644,9 @@
       <c r="F210">
         <v>1</v>
       </c>
-      <c r="G210" s="1"/>
+      <c r="G210" s="1">
+        <v>0</v>
+      </c>
       <c r="H210" s="1"/>
       <c r="I210">
         <v>0</v>
@@ -9556,8 +10663,13 @@
       <c r="M210" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O210">
+        <f>(F210-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L210,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q210" s="1"/>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>224</v>
       </c>
@@ -9576,7 +10688,9 @@
       <c r="F211">
         <v>1</v>
       </c>
-      <c r="G211" s="1"/>
+      <c r="G211" s="1">
+        <v>0</v>
+      </c>
       <c r="H211" s="1"/>
       <c r="I211">
         <v>0</v>
@@ -9593,8 +10707,13 @@
       <c r="M211" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O211">
+        <f>(F211-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L211,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q211" s="1"/>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>225</v>
       </c>
@@ -9614,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H212" s="1">
         <v>0</v>
@@ -9634,8 +10753,13 @@
       <c r="M212" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O212">
+        <f>(F212-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L212,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q212" s="1"/>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -9654,7 +10778,9 @@
       <c r="F213">
         <v>1</v>
       </c>
-      <c r="G213" s="1"/>
+      <c r="G213" s="1">
+        <v>0</v>
+      </c>
       <c r="H213" s="1"/>
       <c r="I213">
         <v>0</v>
@@ -9671,8 +10797,13 @@
       <c r="M213" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O213">
+        <f>(F213-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L213,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q213" s="1"/>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>227</v>
       </c>
@@ -9691,7 +10822,9 @@
       <c r="F214">
         <v>1</v>
       </c>
-      <c r="G214" s="1"/>
+      <c r="G214" s="1">
+        <v>0</v>
+      </c>
       <c r="H214" s="1"/>
       <c r="I214">
         <v>0</v>
@@ -9708,8 +10841,13 @@
       <c r="M214" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O214">
+        <f>(F214-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L214,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q214" s="1"/>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>228</v>
       </c>
@@ -9728,7 +10866,9 @@
       <c r="F215">
         <v>1</v>
       </c>
-      <c r="G215" s="1"/>
+      <c r="G215" s="1">
+        <v>0</v>
+      </c>
       <c r="H215" s="1"/>
       <c r="I215">
         <v>0</v>
@@ -9745,8 +10885,13 @@
       <c r="M215" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O215">
+        <f>(F215-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L215,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q215" s="1"/>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>229</v>
       </c>
@@ -9766,7 +10911,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H216" s="1">
         <v>0</v>
@@ -9786,8 +10931,13 @@
       <c r="M216" s="1" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O216">
+        <f>(F216-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L216,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="Q216" s="1"/>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>230</v>
       </c>
@@ -9806,7 +10956,9 @@
       <c r="F217">
         <v>1</v>
       </c>
-      <c r="G217" s="1"/>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
       <c r="H217" s="1"/>
       <c r="I217">
         <v>0</v>
@@ -9823,8 +10975,13 @@
       <c r="M217" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O217">
+        <f>(F217-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L217,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q217" s="1"/>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>231</v>
       </c>
@@ -9843,7 +11000,9 @@
       <c r="F218">
         <v>1</v>
       </c>
-      <c r="G218" s="1"/>
+      <c r="G218" s="1">
+        <v>0</v>
+      </c>
       <c r="H218" s="1"/>
       <c r="I218">
         <v>0</v>
@@ -9860,6 +11019,11 @@
       <c r="M218" s="1">
         <v>0</v>
       </c>
+      <c r="O218">
+        <f>(F218-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L218,segédtbl!B$2:C$5,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q218" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9868,10 +11032,69 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F217"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F217"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/resources/terkep_adatok_2.xlsx
+++ b/resources/terkep_adatok_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="8690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="adatok" sheetId="1" r:id="rId1"/>
@@ -790,12 +790,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -814,7 +822,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -822,13 +830,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1111,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1120,7 +1149,7 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1130,10 +1159,10 @@
       <c r="C1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -1161,7 +1190,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1171,10 +1200,10 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>1</v>
       </c>
       <c r="F2">
@@ -1205,7 +1234,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1215,10 +1244,10 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>2</v>
       </c>
       <c r="F3">
@@ -1249,7 +1278,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1259,10 +1288,10 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
       <c r="F4">
@@ -1295,7 +1324,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1305,10 +1334,10 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>4</v>
       </c>
       <c r="F5">
@@ -1339,7 +1368,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1349,10 +1378,10 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>5</v>
       </c>
       <c r="F6">
@@ -1383,7 +1412,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1393,10 +1422,10 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
         <v>6</v>
       </c>
       <c r="F7">
@@ -1427,7 +1456,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1437,10 +1466,10 @@
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>7</v>
       </c>
       <c r="F8">
@@ -1473,7 +1502,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1483,10 +1512,10 @@
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
         <v>8</v>
       </c>
       <c r="F9">
@@ -1517,7 +1546,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1527,10 +1556,10 @@
       <c r="C10">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
         <v>9</v>
       </c>
       <c r="F10">
@@ -1561,7 +1590,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1571,10 +1600,10 @@
       <c r="C11">
         <v>3.5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>1</v>
       </c>
       <c r="F11">
@@ -1605,7 +1634,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1615,10 +1644,10 @@
       <c r="C12">
         <v>4.5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
       <c r="F12">
@@ -1651,7 +1680,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1661,10 +1690,10 @@
       <c r="C13">
         <v>5.5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>3</v>
       </c>
       <c r="F13">
@@ -1697,7 +1726,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1707,10 +1736,10 @@
       <c r="C14">
         <v>6.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>4</v>
       </c>
       <c r="F14">
@@ -1743,7 +1772,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1753,10 +1782,10 @@
       <c r="C15">
         <v>7.5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>2</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>5</v>
       </c>
       <c r="F15">
@@ -1789,7 +1818,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1799,10 +1828,10 @@
       <c r="C16">
         <v>8.5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>6</v>
       </c>
       <c r="F16">
@@ -1835,7 +1864,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1845,10 +1874,10 @@
       <c r="C17">
         <v>9.5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>7</v>
       </c>
       <c r="F17">
@@ -1881,7 +1910,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1891,10 +1920,10 @@
       <c r="C18">
         <v>10.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>8</v>
       </c>
       <c r="F18">
@@ -1927,7 +1956,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1937,10 +1966,10 @@
       <c r="C19">
         <v>11.5</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>9</v>
       </c>
       <c r="F19">
@@ -1973,7 +2002,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1983,10 +2012,10 @@
       <c r="C20">
         <v>12.5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="3">
         <v>10</v>
       </c>
       <c r="F20">
@@ -2017,7 +2046,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2027,10 +2056,10 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>1</v>
       </c>
       <c r="F21">
@@ -2063,7 +2092,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2073,10 +2102,10 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="3">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>2</v>
       </c>
       <c r="F22">
@@ -2109,7 +2138,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2119,10 +2148,10 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="3">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>3</v>
       </c>
       <c r="F23">
@@ -2155,7 +2184,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2165,10 +2194,10 @@
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="3">
+        <v>3</v>
+      </c>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
       <c r="F24">
@@ -2201,7 +2230,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2211,10 +2240,10 @@
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="3">
+        <v>3</v>
+      </c>
+      <c r="E25" s="3">
         <v>5</v>
       </c>
       <c r="F25">
@@ -2247,7 +2276,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2257,10 +2286,10 @@
       <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="3">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>6</v>
       </c>
       <c r="F26">
@@ -2293,7 +2322,7 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2303,10 +2332,10 @@
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="3">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>7</v>
       </c>
       <c r="F27">
@@ -2339,7 +2368,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2349,10 +2378,10 @@
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
         <v>8</v>
       </c>
       <c r="F28">
@@ -2385,7 +2414,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2395,10 +2424,10 @@
       <c r="C29">
         <v>11</v>
       </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="3">
+        <v>3</v>
+      </c>
+      <c r="E29" s="3">
         <v>9</v>
       </c>
       <c r="F29">
@@ -2431,7 +2460,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2441,10 +2470,10 @@
       <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="3">
+        <v>3</v>
+      </c>
+      <c r="E30" s="3">
         <v>10</v>
       </c>
       <c r="F30">
@@ -2477,7 +2506,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2487,10 +2516,10 @@
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
         <v>11</v>
       </c>
       <c r="F31">
@@ -2523,7 +2552,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2533,10 +2562,10 @@
       <c r="C32">
         <v>2.5</v>
       </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="3">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>1</v>
       </c>
       <c r="F32">
@@ -2567,7 +2596,7 @@
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2577,10 +2606,10 @@
       <c r="C33">
         <v>3.5</v>
       </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="3">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>2</v>
       </c>
       <c r="F33">
@@ -2613,7 +2642,7 @@
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2623,10 +2652,10 @@
       <c r="C34">
         <v>4.5</v>
       </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
         <v>3</v>
       </c>
       <c r="F34">
@@ -2659,7 +2688,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2669,10 +2698,10 @@
       <c r="C35">
         <v>5.5</v>
       </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>4</v>
       </c>
       <c r="F35">
@@ -2705,7 +2734,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2715,10 +2744,10 @@
       <c r="C36">
         <v>6.5</v>
       </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="3">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3">
         <v>5</v>
       </c>
       <c r="F36">
@@ -2751,7 +2780,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2761,10 +2790,10 @@
       <c r="C37">
         <v>7.5</v>
       </c>
-      <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="3">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
         <v>6</v>
       </c>
       <c r="F37">
@@ -2797,7 +2826,7 @@
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2807,10 +2836,10 @@
       <c r="C38">
         <v>8.5</v>
       </c>
-      <c r="D38">
-        <v>4</v>
-      </c>
-      <c r="E38">
+      <c r="D38" s="3">
+        <v>4</v>
+      </c>
+      <c r="E38" s="3">
         <v>7</v>
       </c>
       <c r="F38">
@@ -2843,7 +2872,7 @@
       </c>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2853,10 +2882,10 @@
       <c r="C39">
         <v>9.5</v>
       </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
+      <c r="D39" s="3">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
         <v>8</v>
       </c>
       <c r="F39">
@@ -2889,7 +2918,7 @@
       </c>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2899,10 +2928,10 @@
       <c r="C40">
         <v>10.5</v>
       </c>
-      <c r="D40">
-        <v>4</v>
-      </c>
-      <c r="E40">
+      <c r="D40" s="3">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3">
         <v>9</v>
       </c>
       <c r="F40">
@@ -2935,7 +2964,7 @@
       </c>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2945,10 +2974,10 @@
       <c r="C41">
         <v>11.5</v>
       </c>
-      <c r="D41">
-        <v>4</v>
-      </c>
-      <c r="E41">
+      <c r="D41" s="3">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3">
         <v>10</v>
       </c>
       <c r="F41">
@@ -2981,7 +3010,7 @@
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -2991,10 +3020,10 @@
       <c r="C42">
         <v>12.5</v>
       </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
+      <c r="D42" s="3">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
         <v>11</v>
       </c>
       <c r="F42">
@@ -3027,7 +3056,7 @@
       </c>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3037,10 +3066,10 @@
       <c r="C43">
         <v>13.5</v>
       </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
         <v>12</v>
       </c>
       <c r="F43">
@@ -3071,7 +3100,7 @@
       </c>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3081,10 +3110,10 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44">
+      <c r="D44" s="3">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3">
         <v>1</v>
       </c>
       <c r="F44">
@@ -3115,7 +3144,7 @@
       </c>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3125,10 +3154,10 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45">
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3">
         <v>2</v>
       </c>
       <c r="F45">
@@ -3161,7 +3190,7 @@
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3171,10 +3200,10 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46">
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3">
         <v>3</v>
       </c>
       <c r="F46">
@@ -3207,7 +3236,7 @@
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3217,10 +3246,10 @@
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47">
+      <c r="D47" s="3">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3">
         <v>4</v>
       </c>
       <c r="F47">
@@ -3253,7 +3282,7 @@
       </c>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3263,10 +3292,10 @@
       <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
         <v>5</v>
       </c>
       <c r="F48">
@@ -3299,7 +3328,7 @@
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3309,10 +3338,10 @@
       <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49">
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3">
         <v>6</v>
       </c>
       <c r="F49">
@@ -3345,7 +3374,7 @@
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3355,10 +3384,10 @@
       <c r="C50">
         <v>8</v>
       </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50">
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3">
         <v>7</v>
       </c>
       <c r="F50">
@@ -3391,7 +3420,7 @@
       </c>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3401,10 +3430,10 @@
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
         <v>8</v>
       </c>
       <c r="F51">
@@ -3437,7 +3466,7 @@
       </c>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3447,10 +3476,10 @@
       <c r="C52">
         <v>10</v>
       </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52">
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3">
         <v>9</v>
       </c>
       <c r="F52">
@@ -3483,7 +3512,7 @@
       </c>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3493,10 +3522,10 @@
       <c r="C53">
         <v>11</v>
       </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53">
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3">
         <v>10</v>
       </c>
       <c r="F53">
@@ -3529,7 +3558,7 @@
       </c>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3539,10 +3568,10 @@
       <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3">
         <v>11</v>
       </c>
       <c r="F54">
@@ -3575,7 +3604,7 @@
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3585,10 +3614,10 @@
       <c r="C55">
         <v>13</v>
       </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3">
         <v>12</v>
       </c>
       <c r="F55">
@@ -3621,7 +3650,7 @@
       </c>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3631,10 +3660,10 @@
       <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3">
         <v>13</v>
       </c>
       <c r="F56">
@@ -3665,7 +3694,7 @@
       </c>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3675,10 +3704,10 @@
       <c r="C57">
         <v>1.5</v>
       </c>
-      <c r="D57">
-        <v>6</v>
-      </c>
-      <c r="E57">
+      <c r="D57" s="3">
+        <v>6</v>
+      </c>
+      <c r="E57" s="3">
         <v>1</v>
       </c>
       <c r="F57">
@@ -3709,7 +3738,7 @@
       </c>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3719,10 +3748,10 @@
       <c r="C58">
         <v>2.5</v>
       </c>
-      <c r="D58">
-        <v>6</v>
-      </c>
-      <c r="E58">
+      <c r="D58" s="3">
+        <v>6</v>
+      </c>
+      <c r="E58" s="3">
         <v>2</v>
       </c>
       <c r="F58">
@@ -3755,7 +3784,7 @@
       </c>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -3765,10 +3794,10 @@
       <c r="C59">
         <v>3.5</v>
       </c>
-      <c r="D59">
-        <v>6</v>
-      </c>
-      <c r="E59">
+      <c r="D59" s="3">
+        <v>6</v>
+      </c>
+      <c r="E59" s="3">
         <v>3</v>
       </c>
       <c r="F59">
@@ -3801,7 +3830,7 @@
       </c>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3811,10 +3840,10 @@
       <c r="C60">
         <v>4.5</v>
       </c>
-      <c r="D60">
-        <v>6</v>
-      </c>
-      <c r="E60">
+      <c r="D60" s="3">
+        <v>6</v>
+      </c>
+      <c r="E60" s="3">
         <v>4</v>
       </c>
       <c r="F60">
@@ -3847,7 +3876,7 @@
       </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3857,10 +3886,10 @@
       <c r="C61">
         <v>5.5</v>
       </c>
-      <c r="D61">
-        <v>6</v>
-      </c>
-      <c r="E61">
+      <c r="D61" s="3">
+        <v>6</v>
+      </c>
+      <c r="E61" s="3">
         <v>5</v>
       </c>
       <c r="F61">
@@ -3893,7 +3922,7 @@
       </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3903,10 +3932,10 @@
       <c r="C62">
         <v>6.5</v>
       </c>
-      <c r="D62">
-        <v>6</v>
-      </c>
-      <c r="E62">
+      <c r="D62" s="3">
+        <v>6</v>
+      </c>
+      <c r="E62" s="3">
         <v>6</v>
       </c>
       <c r="F62">
@@ -3939,7 +3968,7 @@
       </c>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3949,10 +3978,10 @@
       <c r="C63">
         <v>7.5</v>
       </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
+      <c r="D63" s="3">
+        <v>6</v>
+      </c>
+      <c r="E63" s="3">
         <v>7</v>
       </c>
       <c r="F63">
@@ -3985,7 +4014,7 @@
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -3995,10 +4024,10 @@
       <c r="C64">
         <v>8.5</v>
       </c>
-      <c r="D64">
-        <v>6</v>
-      </c>
-      <c r="E64">
+      <c r="D64" s="3">
+        <v>6</v>
+      </c>
+      <c r="E64" s="3">
         <v>8</v>
       </c>
       <c r="F64">
@@ -4031,7 +4060,7 @@
       </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4041,10 +4070,10 @@
       <c r="C65">
         <v>9.5</v>
       </c>
-      <c r="D65">
-        <v>6</v>
-      </c>
-      <c r="E65">
+      <c r="D65" s="3">
+        <v>6</v>
+      </c>
+      <c r="E65" s="3">
         <v>9</v>
       </c>
       <c r="F65">
@@ -4077,7 +4106,7 @@
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4087,10 +4116,10 @@
       <c r="C66">
         <v>10.5</v>
       </c>
-      <c r="D66">
-        <v>6</v>
-      </c>
-      <c r="E66">
+      <c r="D66" s="3">
+        <v>6</v>
+      </c>
+      <c r="E66" s="3">
         <v>10</v>
       </c>
       <c r="F66">
@@ -4123,7 +4152,7 @@
       </c>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4133,10 +4162,10 @@
       <c r="C67">
         <v>11.5</v>
       </c>
-      <c r="D67">
-        <v>6</v>
-      </c>
-      <c r="E67">
+      <c r="D67" s="3">
+        <v>6</v>
+      </c>
+      <c r="E67" s="3">
         <v>11</v>
       </c>
       <c r="F67">
@@ -4169,7 +4198,7 @@
       </c>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4179,10 +4208,10 @@
       <c r="C68">
         <v>12.5</v>
       </c>
-      <c r="D68">
-        <v>6</v>
-      </c>
-      <c r="E68">
+      <c r="D68" s="3">
+        <v>6</v>
+      </c>
+      <c r="E68" s="3">
         <v>12</v>
       </c>
       <c r="F68">
@@ -4215,7 +4244,7 @@
       </c>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4225,10 +4254,10 @@
       <c r="C69">
         <v>13.5</v>
       </c>
-      <c r="D69">
-        <v>6</v>
-      </c>
-      <c r="E69">
+      <c r="D69" s="3">
+        <v>6</v>
+      </c>
+      <c r="E69" s="3">
         <v>13</v>
       </c>
       <c r="F69">
@@ -4261,7 +4290,7 @@
       </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4271,10 +4300,10 @@
       <c r="C70">
         <v>14.5</v>
       </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70">
+      <c r="D70" s="3">
+        <v>6</v>
+      </c>
+      <c r="E70" s="3">
         <v>14</v>
       </c>
       <c r="F70">
@@ -4305,7 +4334,7 @@
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4315,10 +4344,10 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
         <v>7</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="3">
         <v>1</v>
       </c>
       <c r="F71">
@@ -4351,7 +4380,7 @@
       </c>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4361,10 +4390,10 @@
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="3">
         <v>2</v>
       </c>
       <c r="F72">
@@ -4397,7 +4426,7 @@
       </c>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4407,10 +4436,10 @@
       <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
         <v>7</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="3">
         <v>3</v>
       </c>
       <c r="F73">
@@ -4443,7 +4472,7 @@
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4453,10 +4482,10 @@
       <c r="C74">
         <v>4</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
         <v>7</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="3">
         <v>4</v>
       </c>
       <c r="F74">
@@ -4489,7 +4518,7 @@
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4499,10 +4528,10 @@
       <c r="C75">
         <v>5</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
         <v>7</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3">
         <v>5</v>
       </c>
       <c r="F75">
@@ -4535,7 +4564,7 @@
       </c>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4545,10 +4574,10 @@
       <c r="C76">
         <v>6</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
         <v>7</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="3">
         <v>6</v>
       </c>
       <c r="F76">
@@ -4581,7 +4610,7 @@
       </c>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4591,10 +4620,10 @@
       <c r="C77">
         <v>7</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
         <v>7</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="3">
         <v>7</v>
       </c>
       <c r="F77">
@@ -4627,7 +4656,7 @@
       </c>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4637,10 +4666,10 @@
       <c r="C78">
         <v>8</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
         <v>7</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="3">
         <v>8</v>
       </c>
       <c r="F78">
@@ -4673,7 +4702,7 @@
       </c>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4683,10 +4712,10 @@
       <c r="C79">
         <v>9</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
         <v>7</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="3">
         <v>9</v>
       </c>
       <c r="F79">
@@ -4719,7 +4748,7 @@
       </c>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4729,10 +4758,10 @@
       <c r="C80">
         <v>10</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
         <v>7</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="3">
         <v>10</v>
       </c>
       <c r="F80">
@@ -4765,7 +4794,7 @@
       </c>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4775,10 +4804,10 @@
       <c r="C81">
         <v>11</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
         <v>7</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="3">
         <v>11</v>
       </c>
       <c r="F81">
@@ -4811,7 +4840,7 @@
       </c>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4821,10 +4850,10 @@
       <c r="C82">
         <v>12</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
         <v>7</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="3">
         <v>12</v>
       </c>
       <c r="F82">
@@ -4857,7 +4886,7 @@
       </c>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4867,10 +4896,10 @@
       <c r="C83">
         <v>13</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
         <v>7</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="3">
         <v>13</v>
       </c>
       <c r="F83">
@@ -4903,7 +4932,7 @@
       </c>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4913,10 +4942,10 @@
       <c r="C84">
         <v>14</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
         <v>7</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="3">
         <v>14</v>
       </c>
       <c r="F84">
@@ -4949,7 +4978,7 @@
       </c>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4959,10 +4988,10 @@
       <c r="C85">
         <v>15</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
         <v>7</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="3">
         <v>15</v>
       </c>
       <c r="F85">
@@ -4995,7 +5024,7 @@
       </c>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -5005,10 +5034,10 @@
       <c r="C86">
         <v>0.5</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
         <v>8</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="3">
         <v>1</v>
       </c>
       <c r="F86">
@@ -5039,7 +5068,7 @@
       </c>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -5049,10 +5078,10 @@
       <c r="C87">
         <v>1.5</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
         <v>8</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="3">
         <v>2</v>
       </c>
       <c r="F87">
@@ -5085,7 +5114,7 @@
       </c>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -5095,10 +5124,10 @@
       <c r="C88">
         <v>2.5</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
         <v>8</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="3">
         <v>3</v>
       </c>
       <c r="F88">
@@ -5131,7 +5160,7 @@
       </c>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -5141,10 +5170,10 @@
       <c r="C89">
         <v>3.5</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
         <v>8</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="3">
         <v>4</v>
       </c>
       <c r="F89">
@@ -5177,7 +5206,7 @@
       </c>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -5187,10 +5216,10 @@
       <c r="C90">
         <v>4.5</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
         <v>8</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="3">
         <v>5</v>
       </c>
       <c r="F90">
@@ -5223,7 +5252,7 @@
       </c>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -5233,10 +5262,10 @@
       <c r="C91">
         <v>5.5</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
         <v>8</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="3">
         <v>6</v>
       </c>
       <c r="F91">
@@ -5269,7 +5298,7 @@
       </c>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -5279,10 +5308,10 @@
       <c r="C92">
         <v>6.5</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
         <v>8</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="3">
         <v>7</v>
       </c>
       <c r="F92">
@@ -5315,7 +5344,7 @@
       </c>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5325,10 +5354,10 @@
       <c r="C93">
         <v>7.5</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
         <v>8</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="3">
         <v>8</v>
       </c>
       <c r="F93">
@@ -5361,7 +5390,7 @@
       </c>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5371,10 +5400,10 @@
       <c r="C94">
         <v>8.5</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
         <v>8</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="3">
         <v>9</v>
       </c>
       <c r="F94">
@@ -5407,7 +5436,7 @@
       </c>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5417,10 +5446,10 @@
       <c r="C95">
         <v>9.5</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
         <v>8</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="3">
         <v>10</v>
       </c>
       <c r="F95">
@@ -5453,7 +5482,7 @@
       </c>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5463,10 +5492,10 @@
       <c r="C96">
         <v>10.5</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
         <v>8</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="3">
         <v>11</v>
       </c>
       <c r="F96">
@@ -5499,7 +5528,7 @@
       </c>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5509,10 +5538,10 @@
       <c r="C97">
         <v>11.5</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
         <v>8</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="3">
         <v>12</v>
       </c>
       <c r="F97">
@@ -5545,7 +5574,7 @@
       </c>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5555,10 +5584,10 @@
       <c r="C98">
         <v>12.5</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
         <v>8</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="3">
         <v>13</v>
       </c>
       <c r="F98">
@@ -5591,7 +5620,7 @@
       </c>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5601,10 +5630,10 @@
       <c r="C99">
         <v>13.5</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
         <v>8</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="3">
         <v>14</v>
       </c>
       <c r="F99">
@@ -5637,7 +5666,7 @@
       </c>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5647,10 +5676,10 @@
       <c r="C100">
         <v>14.5</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
         <v>8</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="3">
         <v>15</v>
       </c>
       <c r="F100">
@@ -5683,7 +5712,7 @@
       </c>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5693,10 +5722,10 @@
       <c r="C101">
         <v>15.5</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
         <v>8</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="3">
         <v>16</v>
       </c>
       <c r="F101">
@@ -5727,7 +5756,7 @@
       </c>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5737,10 +5766,10 @@
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
         <v>9</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="3">
         <v>1</v>
       </c>
       <c r="F102">
@@ -5771,7 +5800,7 @@
       </c>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5781,10 +5810,10 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
         <v>9</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="3">
         <v>2</v>
       </c>
       <c r="F103">
@@ -5817,7 +5846,7 @@
       </c>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5827,10 +5856,10 @@
       <c r="C104">
         <v>2</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
         <v>9</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="3">
         <v>3</v>
       </c>
       <c r="F104">
@@ -5863,7 +5892,7 @@
       </c>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5873,10 +5902,10 @@
       <c r="C105">
         <v>3</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
         <v>9</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="3">
         <v>4</v>
       </c>
       <c r="F105">
@@ -5909,7 +5938,7 @@
       </c>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5919,10 +5948,10 @@
       <c r="C106">
         <v>4</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
         <v>9</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="3">
         <v>5</v>
       </c>
       <c r="F106">
@@ -5955,7 +5984,7 @@
       </c>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5965,10 +5994,10 @@
       <c r="C107">
         <v>5</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
         <v>9</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="3">
         <v>6</v>
       </c>
       <c r="F107">
@@ -6001,7 +6030,7 @@
       </c>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -6011,10 +6040,10 @@
       <c r="C108">
         <v>6</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
         <v>9</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="3">
         <v>7</v>
       </c>
       <c r="F108">
@@ -6047,7 +6076,7 @@
       </c>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6057,10 +6086,10 @@
       <c r="C109">
         <v>7</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
         <v>9</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="3">
         <v>8</v>
       </c>
       <c r="F109">
@@ -6093,7 +6122,7 @@
       </c>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -6103,10 +6132,10 @@
       <c r="C110">
         <v>8</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
         <v>9</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="3">
         <v>9</v>
       </c>
       <c r="F110">
@@ -6139,7 +6168,7 @@
       </c>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -6149,10 +6178,10 @@
       <c r="C111">
         <v>9</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
         <v>9</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="3">
         <v>10</v>
       </c>
       <c r="F111">
@@ -6185,7 +6214,7 @@
       </c>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -6195,10 +6224,10 @@
       <c r="C112">
         <v>10</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
         <v>9</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="3">
         <v>11</v>
       </c>
       <c r="F112">
@@ -6231,7 +6260,7 @@
       </c>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -6241,10 +6270,10 @@
       <c r="C113">
         <v>11</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
         <v>9</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="3">
         <v>12</v>
       </c>
       <c r="F113">
@@ -6277,7 +6306,7 @@
       </c>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -6287,10 +6316,10 @@
       <c r="C114">
         <v>12</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
         <v>9</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="3">
         <v>13</v>
       </c>
       <c r="F114">
@@ -6323,7 +6352,7 @@
       </c>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -6333,10 +6362,10 @@
       <c r="C115">
         <v>13</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
         <v>9</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="3">
         <v>14</v>
       </c>
       <c r="F115">
@@ -6369,7 +6398,7 @@
       </c>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -6379,10 +6408,10 @@
       <c r="C116">
         <v>14</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
         <v>9</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="3">
         <v>15</v>
       </c>
       <c r="F116">
@@ -6415,7 +6444,7 @@
       </c>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -6425,10 +6454,10 @@
       <c r="C117">
         <v>15</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
         <v>9</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="3">
         <v>16</v>
       </c>
       <c r="F117">
@@ -6461,7 +6490,7 @@
       </c>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -6471,10 +6500,10 @@
       <c r="C118">
         <v>16</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
         <v>9</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="3">
         <v>17</v>
       </c>
       <c r="F118">
@@ -6505,7 +6534,7 @@
       </c>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -6515,10 +6544,10 @@
       <c r="C119">
         <v>0.5</v>
       </c>
-      <c r="D119">
-        <v>10</v>
-      </c>
-      <c r="E119">
+      <c r="D119" s="3">
+        <v>8</v>
+      </c>
+      <c r="E119" s="3">
         <v>1</v>
       </c>
       <c r="F119">
@@ -6549,7 +6578,7 @@
       </c>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -6559,10 +6588,10 @@
       <c r="C120">
         <v>1.5</v>
       </c>
-      <c r="D120">
-        <v>10</v>
-      </c>
-      <c r="E120">
+      <c r="D120" s="3">
+        <v>8</v>
+      </c>
+      <c r="E120" s="3">
         <v>2</v>
       </c>
       <c r="F120">
@@ -6595,7 +6624,7 @@
       </c>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -6605,10 +6634,10 @@
       <c r="C121">
         <v>2.5</v>
       </c>
-      <c r="D121">
-        <v>10</v>
-      </c>
-      <c r="E121">
+      <c r="D121" s="3">
+        <v>8</v>
+      </c>
+      <c r="E121" s="3">
         <v>3</v>
       </c>
       <c r="F121">
@@ -6641,7 +6670,7 @@
       </c>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -6651,10 +6680,10 @@
       <c r="C122">
         <v>3.5</v>
       </c>
-      <c r="D122">
-        <v>10</v>
-      </c>
-      <c r="E122">
+      <c r="D122" s="3">
+        <v>8</v>
+      </c>
+      <c r="E122" s="3">
         <v>4</v>
       </c>
       <c r="F122">
@@ -6687,7 +6716,7 @@
       </c>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -6697,10 +6726,10 @@
       <c r="C123">
         <v>4.5</v>
       </c>
-      <c r="D123">
-        <v>10</v>
-      </c>
-      <c r="E123">
+      <c r="D123" s="3">
+        <v>8</v>
+      </c>
+      <c r="E123" s="3">
         <v>5</v>
       </c>
       <c r="F123">
@@ -6733,7 +6762,7 @@
       </c>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -6743,10 +6772,10 @@
       <c r="C124">
         <v>5.5</v>
       </c>
-      <c r="D124">
-        <v>10</v>
-      </c>
-      <c r="E124">
+      <c r="D124" s="3">
+        <v>8</v>
+      </c>
+      <c r="E124" s="3">
         <v>6</v>
       </c>
       <c r="F124">
@@ -6779,7 +6808,7 @@
       </c>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -6789,10 +6818,10 @@
       <c r="C125">
         <v>6.5</v>
       </c>
-      <c r="D125">
-        <v>10</v>
-      </c>
-      <c r="E125">
+      <c r="D125" s="3">
+        <v>8</v>
+      </c>
+      <c r="E125" s="3">
         <v>7</v>
       </c>
       <c r="F125">
@@ -6825,7 +6854,7 @@
       </c>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -6835,10 +6864,10 @@
       <c r="C126">
         <v>7.5</v>
       </c>
-      <c r="D126">
-        <v>10</v>
-      </c>
-      <c r="E126">
+      <c r="D126" s="3">
+        <v>8</v>
+      </c>
+      <c r="E126" s="3">
         <v>8</v>
       </c>
       <c r="F126">
@@ -6871,7 +6900,7 @@
       </c>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -6881,10 +6910,10 @@
       <c r="C127">
         <v>8.5</v>
       </c>
-      <c r="D127">
-        <v>10</v>
-      </c>
-      <c r="E127">
+      <c r="D127" s="3">
+        <v>8</v>
+      </c>
+      <c r="E127" s="3">
         <v>9</v>
       </c>
       <c r="F127">
@@ -6917,7 +6946,7 @@
       </c>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -6927,10 +6956,10 @@
       <c r="C128">
         <v>9.5</v>
       </c>
-      <c r="D128">
-        <v>10</v>
-      </c>
-      <c r="E128">
+      <c r="D128" s="3">
+        <v>8</v>
+      </c>
+      <c r="E128" s="3">
         <v>10</v>
       </c>
       <c r="F128">
@@ -6963,7 +6992,7 @@
       </c>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -6973,10 +7002,10 @@
       <c r="C129">
         <v>10.5</v>
       </c>
-      <c r="D129">
-        <v>10</v>
-      </c>
-      <c r="E129">
+      <c r="D129" s="3">
+        <v>8</v>
+      </c>
+      <c r="E129" s="3">
         <v>11</v>
       </c>
       <c r="F129">
@@ -7009,7 +7038,7 @@
       </c>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -7019,10 +7048,10 @@
       <c r="C130">
         <v>11.5</v>
       </c>
-      <c r="D130">
-        <v>10</v>
-      </c>
-      <c r="E130">
+      <c r="D130" s="3">
+        <v>8</v>
+      </c>
+      <c r="E130" s="3">
         <v>12</v>
       </c>
       <c r="F130">
@@ -7055,7 +7084,7 @@
       </c>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -7065,10 +7094,10 @@
       <c r="C131">
         <v>12.5</v>
       </c>
-      <c r="D131">
-        <v>10</v>
-      </c>
-      <c r="E131">
+      <c r="D131" s="3">
+        <v>8</v>
+      </c>
+      <c r="E131" s="3">
         <v>13</v>
       </c>
       <c r="F131">
@@ -7101,7 +7130,7 @@
       </c>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -7111,10 +7140,10 @@
       <c r="C132">
         <v>13.5</v>
       </c>
-      <c r="D132">
-        <v>10</v>
-      </c>
-      <c r="E132">
+      <c r="D132" s="3">
+        <v>8</v>
+      </c>
+      <c r="E132" s="3">
         <v>14</v>
       </c>
       <c r="F132">
@@ -7147,7 +7176,7 @@
       </c>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -7157,10 +7186,10 @@
       <c r="C133">
         <v>14.5</v>
       </c>
-      <c r="D133">
-        <v>10</v>
-      </c>
-      <c r="E133">
+      <c r="D133" s="3">
+        <v>8</v>
+      </c>
+      <c r="E133" s="3">
         <v>15</v>
       </c>
       <c r="F133">
@@ -7193,7 +7222,7 @@
       </c>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -7203,10 +7232,10 @@
       <c r="C134">
         <v>15.5</v>
       </c>
-      <c r="D134">
-        <v>10</v>
-      </c>
-      <c r="E134">
+      <c r="D134" s="3">
+        <v>8</v>
+      </c>
+      <c r="E134" s="3">
         <v>16</v>
       </c>
       <c r="F134">
@@ -7237,7 +7266,7 @@
       </c>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -7247,10 +7276,10 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135">
-        <v>11</v>
-      </c>
-      <c r="E135">
+      <c r="D135" s="3">
+        <v>7</v>
+      </c>
+      <c r="E135" s="3">
         <v>1</v>
       </c>
       <c r="F135">
@@ -7283,7 +7312,7 @@
       </c>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -7293,10 +7322,10 @@
       <c r="C136">
         <v>2</v>
       </c>
-      <c r="D136">
-        <v>11</v>
-      </c>
-      <c r="E136">
+      <c r="D136" s="3">
+        <v>7</v>
+      </c>
+      <c r="E136" s="3">
         <v>2</v>
       </c>
       <c r="F136">
@@ -7329,7 +7358,7 @@
       </c>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -7339,10 +7368,10 @@
       <c r="C137">
         <v>3</v>
       </c>
-      <c r="D137">
-        <v>11</v>
-      </c>
-      <c r="E137">
+      <c r="D137" s="3">
+        <v>7</v>
+      </c>
+      <c r="E137" s="3">
         <v>3</v>
       </c>
       <c r="F137">
@@ -7375,7 +7404,7 @@
       </c>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -7385,10 +7414,10 @@
       <c r="C138">
         <v>4</v>
       </c>
-      <c r="D138">
-        <v>11</v>
-      </c>
-      <c r="E138">
+      <c r="D138" s="3">
+        <v>7</v>
+      </c>
+      <c r="E138" s="3">
         <v>4</v>
       </c>
       <c r="F138">
@@ -7421,7 +7450,7 @@
       </c>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -7431,10 +7460,10 @@
       <c r="C139">
         <v>5</v>
       </c>
-      <c r="D139">
-        <v>11</v>
-      </c>
-      <c r="E139">
+      <c r="D139" s="3">
+        <v>7</v>
+      </c>
+      <c r="E139" s="3">
         <v>5</v>
       </c>
       <c r="F139">
@@ -7467,7 +7496,7 @@
       </c>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -7477,10 +7506,10 @@
       <c r="C140">
         <v>6</v>
       </c>
-      <c r="D140">
-        <v>11</v>
-      </c>
-      <c r="E140">
+      <c r="D140" s="3">
+        <v>7</v>
+      </c>
+      <c r="E140" s="3">
         <v>6</v>
       </c>
       <c r="F140">
@@ -7513,7 +7542,7 @@
       </c>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -7523,10 +7552,10 @@
       <c r="C141">
         <v>7</v>
       </c>
-      <c r="D141">
-        <v>11</v>
-      </c>
-      <c r="E141">
+      <c r="D141" s="3">
+        <v>7</v>
+      </c>
+      <c r="E141" s="3">
         <v>7</v>
       </c>
       <c r="F141">
@@ -7559,7 +7588,7 @@
       </c>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -7569,10 +7598,10 @@
       <c r="C142">
         <v>8</v>
       </c>
-      <c r="D142">
-        <v>11</v>
-      </c>
-      <c r="E142">
+      <c r="D142" s="3">
+        <v>7</v>
+      </c>
+      <c r="E142" s="3">
         <v>8</v>
       </c>
       <c r="F142">
@@ -7605,7 +7634,7 @@
       </c>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -7615,10 +7644,10 @@
       <c r="C143">
         <v>9</v>
       </c>
-      <c r="D143">
-        <v>11</v>
-      </c>
-      <c r="E143">
+      <c r="D143" s="3">
+        <v>7</v>
+      </c>
+      <c r="E143" s="3">
         <v>9</v>
       </c>
       <c r="F143">
@@ -7651,7 +7680,7 @@
       </c>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -7661,10 +7690,10 @@
       <c r="C144">
         <v>10</v>
       </c>
-      <c r="D144">
-        <v>11</v>
-      </c>
-      <c r="E144">
+      <c r="D144" s="3">
+        <v>7</v>
+      </c>
+      <c r="E144" s="3">
         <v>10</v>
       </c>
       <c r="F144">
@@ -7697,7 +7726,7 @@
       </c>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -7707,10 +7736,10 @@
       <c r="C145">
         <v>11</v>
       </c>
-      <c r="D145">
-        <v>11</v>
-      </c>
-      <c r="E145">
+      <c r="D145" s="3">
+        <v>7</v>
+      </c>
+      <c r="E145" s="3">
         <v>11</v>
       </c>
       <c r="F145">
@@ -7743,7 +7772,7 @@
       </c>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -7753,10 +7782,10 @@
       <c r="C146">
         <v>12</v>
       </c>
-      <c r="D146">
-        <v>11</v>
-      </c>
-      <c r="E146">
+      <c r="D146" s="3">
+        <v>7</v>
+      </c>
+      <c r="E146" s="3">
         <v>12</v>
       </c>
       <c r="F146">
@@ -7789,7 +7818,7 @@
       </c>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -7799,10 +7828,10 @@
       <c r="C147">
         <v>13</v>
       </c>
-      <c r="D147">
-        <v>11</v>
-      </c>
-      <c r="E147">
+      <c r="D147" s="3">
+        <v>7</v>
+      </c>
+      <c r="E147" s="3">
         <v>13</v>
       </c>
       <c r="F147">
@@ -7835,7 +7864,7 @@
       </c>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -7845,10 +7874,10 @@
       <c r="C148">
         <v>14</v>
       </c>
-      <c r="D148">
-        <v>11</v>
-      </c>
-      <c r="E148">
+      <c r="D148" s="3">
+        <v>7</v>
+      </c>
+      <c r="E148" s="3">
         <v>14</v>
       </c>
       <c r="F148">
@@ -7881,7 +7910,7 @@
       </c>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -7891,10 +7920,10 @@
       <c r="C149">
         <v>15</v>
       </c>
-      <c r="D149">
-        <v>11</v>
-      </c>
-      <c r="E149">
+      <c r="D149" s="3">
+        <v>7</v>
+      </c>
+      <c r="E149" s="3">
         <v>15</v>
       </c>
       <c r="F149">
@@ -7927,7 +7956,7 @@
       </c>
       <c r="Q149" s="1"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -7937,10 +7966,10 @@
       <c r="C150">
         <v>1.5</v>
       </c>
-      <c r="D150">
-        <v>12</v>
-      </c>
-      <c r="E150">
+      <c r="D150" s="3">
+        <v>6</v>
+      </c>
+      <c r="E150" s="3">
         <v>1</v>
       </c>
       <c r="F150">
@@ -7971,7 +8000,7 @@
       </c>
       <c r="Q150" s="1"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -7981,10 +8010,10 @@
       <c r="C151">
         <v>2.5</v>
       </c>
-      <c r="D151">
-        <v>12</v>
-      </c>
-      <c r="E151">
+      <c r="D151" s="3">
+        <v>6</v>
+      </c>
+      <c r="E151" s="3">
         <v>2</v>
       </c>
       <c r="F151">
@@ -8017,7 +8046,7 @@
       </c>
       <c r="Q151" s="1"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -8027,10 +8056,10 @@
       <c r="C152">
         <v>3.5</v>
       </c>
-      <c r="D152">
-        <v>12</v>
-      </c>
-      <c r="E152">
+      <c r="D152" s="3">
+        <v>6</v>
+      </c>
+      <c r="E152" s="3">
         <v>3</v>
       </c>
       <c r="F152">
@@ -8063,7 +8092,7 @@
       </c>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -8073,10 +8102,10 @@
       <c r="C153">
         <v>4.5</v>
       </c>
-      <c r="D153">
-        <v>12</v>
-      </c>
-      <c r="E153">
+      <c r="D153" s="3">
+        <v>6</v>
+      </c>
+      <c r="E153" s="3">
         <v>4</v>
       </c>
       <c r="F153">
@@ -8109,7 +8138,7 @@
       </c>
       <c r="Q153" s="1"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -8119,10 +8148,10 @@
       <c r="C154">
         <v>5.5</v>
       </c>
-      <c r="D154">
-        <v>12</v>
-      </c>
-      <c r="E154">
+      <c r="D154" s="3">
+        <v>6</v>
+      </c>
+      <c r="E154" s="3">
         <v>5</v>
       </c>
       <c r="F154">
@@ -8155,7 +8184,7 @@
       </c>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -8165,10 +8194,10 @@
       <c r="C155">
         <v>6.5</v>
       </c>
-      <c r="D155">
-        <v>12</v>
-      </c>
-      <c r="E155">
+      <c r="D155" s="3">
+        <v>6</v>
+      </c>
+      <c r="E155" s="3">
         <v>6</v>
       </c>
       <c r="F155">
@@ -8201,7 +8230,7 @@
       </c>
       <c r="Q155" s="1"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -8211,10 +8240,10 @@
       <c r="C156">
         <v>7.5</v>
       </c>
-      <c r="D156">
-        <v>12</v>
-      </c>
-      <c r="E156">
+      <c r="D156" s="3">
+        <v>6</v>
+      </c>
+      <c r="E156" s="3">
         <v>7</v>
       </c>
       <c r="F156">
@@ -8247,7 +8276,7 @@
       </c>
       <c r="Q156" s="1"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -8257,10 +8286,10 @@
       <c r="C157">
         <v>8.5</v>
       </c>
-      <c r="D157">
-        <v>12</v>
-      </c>
-      <c r="E157">
+      <c r="D157" s="3">
+        <v>6</v>
+      </c>
+      <c r="E157" s="3">
         <v>8</v>
       </c>
       <c r="F157">
@@ -8293,7 +8322,7 @@
       </c>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -8303,10 +8332,10 @@
       <c r="C158">
         <v>9.5</v>
       </c>
-      <c r="D158">
-        <v>12</v>
-      </c>
-      <c r="E158">
+      <c r="D158" s="3">
+        <v>6</v>
+      </c>
+      <c r="E158" s="3">
         <v>9</v>
       </c>
       <c r="F158">
@@ -8339,7 +8368,7 @@
       </c>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -8349,10 +8378,10 @@
       <c r="C159">
         <v>10.5</v>
       </c>
-      <c r="D159">
-        <v>12</v>
-      </c>
-      <c r="E159">
+      <c r="D159" s="3">
+        <v>6</v>
+      </c>
+      <c r="E159" s="3">
         <v>10</v>
       </c>
       <c r="F159">
@@ -8385,7 +8414,7 @@
       </c>
       <c r="Q159" s="1"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -8395,10 +8424,10 @@
       <c r="C160">
         <v>11.5</v>
       </c>
-      <c r="D160">
-        <v>12</v>
-      </c>
-      <c r="E160">
+      <c r="D160" s="3">
+        <v>6</v>
+      </c>
+      <c r="E160" s="3">
         <v>11</v>
       </c>
       <c r="F160">
@@ -8431,7 +8460,7 @@
       </c>
       <c r="Q160" s="1"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -8441,10 +8470,10 @@
       <c r="C161">
         <v>12.5</v>
       </c>
-      <c r="D161">
-        <v>12</v>
-      </c>
-      <c r="E161">
+      <c r="D161" s="3">
+        <v>6</v>
+      </c>
+      <c r="E161" s="3">
         <v>12</v>
       </c>
       <c r="F161">
@@ -8477,7 +8506,7 @@
       </c>
       <c r="Q161" s="1"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -8487,10 +8516,10 @@
       <c r="C162">
         <v>13.5</v>
       </c>
-      <c r="D162">
-        <v>12</v>
-      </c>
-      <c r="E162">
+      <c r="D162" s="3">
+        <v>6</v>
+      </c>
+      <c r="E162" s="3">
         <v>13</v>
       </c>
       <c r="F162">
@@ -8523,7 +8552,7 @@
       </c>
       <c r="Q162" s="1"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -8533,10 +8562,10 @@
       <c r="C163">
         <v>14.5</v>
       </c>
-      <c r="D163">
-        <v>12</v>
-      </c>
-      <c r="E163">
+      <c r="D163" s="3">
+        <v>6</v>
+      </c>
+      <c r="E163" s="3">
         <v>14</v>
       </c>
       <c r="F163">
@@ -8567,7 +8596,7 @@
       </c>
       <c r="Q163" s="1"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -8577,10 +8606,10 @@
       <c r="C164">
         <v>2</v>
       </c>
-      <c r="D164">
-        <v>13</v>
-      </c>
-      <c r="E164">
+      <c r="D164" s="3">
+        <v>5</v>
+      </c>
+      <c r="E164" s="3">
         <v>1</v>
       </c>
       <c r="F164">
@@ -8611,7 +8640,7 @@
       </c>
       <c r="Q164" s="1"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -8621,10 +8650,10 @@
       <c r="C165">
         <v>3</v>
       </c>
-      <c r="D165">
-        <v>13</v>
-      </c>
-      <c r="E165">
+      <c r="D165" s="3">
+        <v>5</v>
+      </c>
+      <c r="E165" s="3">
         <v>2</v>
       </c>
       <c r="F165">
@@ -8657,7 +8686,7 @@
       </c>
       <c r="Q165" s="1"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -8667,10 +8696,10 @@
       <c r="C166">
         <v>4</v>
       </c>
-      <c r="D166">
-        <v>13</v>
-      </c>
-      <c r="E166">
+      <c r="D166" s="3">
+        <v>5</v>
+      </c>
+      <c r="E166" s="3">
         <v>3</v>
       </c>
       <c r="F166">
@@ -8703,7 +8732,7 @@
       </c>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -8713,10 +8742,10 @@
       <c r="C167">
         <v>5</v>
       </c>
-      <c r="D167">
-        <v>13</v>
-      </c>
-      <c r="E167">
+      <c r="D167" s="3">
+        <v>5</v>
+      </c>
+      <c r="E167" s="3">
         <v>4</v>
       </c>
       <c r="F167">
@@ -8749,7 +8778,7 @@
       </c>
       <c r="Q167" s="1"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -8759,10 +8788,10 @@
       <c r="C168">
         <v>6</v>
       </c>
-      <c r="D168">
-        <v>13</v>
-      </c>
-      <c r="E168">
+      <c r="D168" s="3">
+        <v>5</v>
+      </c>
+      <c r="E168" s="3">
         <v>5</v>
       </c>
       <c r="F168">
@@ -8795,7 +8824,7 @@
       </c>
       <c r="Q168" s="1"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -8805,10 +8834,10 @@
       <c r="C169">
         <v>7</v>
       </c>
-      <c r="D169">
-        <v>13</v>
-      </c>
-      <c r="E169">
+      <c r="D169" s="3">
+        <v>5</v>
+      </c>
+      <c r="E169" s="3">
         <v>6</v>
       </c>
       <c r="F169">
@@ -8841,7 +8870,7 @@
       </c>
       <c r="Q169" s="1"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -8851,10 +8880,10 @@
       <c r="C170">
         <v>8</v>
       </c>
-      <c r="D170">
-        <v>13</v>
-      </c>
-      <c r="E170">
+      <c r="D170" s="3">
+        <v>5</v>
+      </c>
+      <c r="E170" s="3">
         <v>7</v>
       </c>
       <c r="F170">
@@ -8887,7 +8916,7 @@
       </c>
       <c r="Q170" s="1"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -8897,10 +8926,10 @@
       <c r="C171">
         <v>9</v>
       </c>
-      <c r="D171">
-        <v>13</v>
-      </c>
-      <c r="E171">
+      <c r="D171" s="3">
+        <v>5</v>
+      </c>
+      <c r="E171" s="3">
         <v>8</v>
       </c>
       <c r="F171">
@@ -8933,7 +8962,7 @@
       </c>
       <c r="Q171" s="1"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -8943,10 +8972,10 @@
       <c r="C172">
         <v>10</v>
       </c>
-      <c r="D172">
-        <v>13</v>
-      </c>
-      <c r="E172">
+      <c r="D172" s="3">
+        <v>5</v>
+      </c>
+      <c r="E172" s="3">
         <v>9</v>
       </c>
       <c r="F172">
@@ -8979,7 +9008,7 @@
       </c>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -8989,10 +9018,10 @@
       <c r="C173">
         <v>11</v>
       </c>
-      <c r="D173">
-        <v>13</v>
-      </c>
-      <c r="E173">
+      <c r="D173" s="3">
+        <v>5</v>
+      </c>
+      <c r="E173" s="3">
         <v>10</v>
       </c>
       <c r="F173">
@@ -9025,7 +9054,7 @@
       </c>
       <c r="Q173" s="1"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -9035,10 +9064,10 @@
       <c r="C174">
         <v>12</v>
       </c>
-      <c r="D174">
-        <v>13</v>
-      </c>
-      <c r="E174">
+      <c r="D174" s="3">
+        <v>5</v>
+      </c>
+      <c r="E174" s="3">
         <v>11</v>
       </c>
       <c r="F174">
@@ -9071,7 +9100,7 @@
       </c>
       <c r="Q174" s="1"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -9081,10 +9110,10 @@
       <c r="C175">
         <v>13</v>
       </c>
-      <c r="D175">
-        <v>13</v>
-      </c>
-      <c r="E175">
+      <c r="D175" s="3">
+        <v>5</v>
+      </c>
+      <c r="E175" s="3">
         <v>12</v>
       </c>
       <c r="F175">
@@ -9117,7 +9146,7 @@
       </c>
       <c r="Q175" s="1"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -9127,10 +9156,10 @@
       <c r="C176">
         <v>14</v>
       </c>
-      <c r="D176">
-        <v>13</v>
-      </c>
-      <c r="E176">
+      <c r="D176" s="3">
+        <v>5</v>
+      </c>
+      <c r="E176" s="3">
         <v>13</v>
       </c>
       <c r="F176">
@@ -9161,7 +9190,7 @@
       </c>
       <c r="Q176" s="1"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -9171,10 +9200,10 @@
       <c r="C177">
         <v>2.5</v>
       </c>
-      <c r="D177">
-        <v>14</v>
-      </c>
-      <c r="E177">
+      <c r="D177" s="3">
+        <v>4</v>
+      </c>
+      <c r="E177" s="3">
         <v>1</v>
       </c>
       <c r="F177">
@@ -9205,7 +9234,7 @@
       </c>
       <c r="Q177" s="1"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -9215,10 +9244,10 @@
       <c r="C178">
         <v>3.5</v>
       </c>
-      <c r="D178">
-        <v>14</v>
-      </c>
-      <c r="E178">
+      <c r="D178" s="3">
+        <v>4</v>
+      </c>
+      <c r="E178" s="3">
         <v>2</v>
       </c>
       <c r="F178">
@@ -9251,7 +9280,7 @@
       </c>
       <c r="Q178" s="1"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>192</v>
       </c>
@@ -9261,10 +9290,10 @@
       <c r="C179">
         <v>4.5</v>
       </c>
-      <c r="D179">
-        <v>14</v>
-      </c>
-      <c r="E179">
+      <c r="D179" s="3">
+        <v>4</v>
+      </c>
+      <c r="E179" s="3">
         <v>3</v>
       </c>
       <c r="F179">
@@ -9297,7 +9326,7 @@
       </c>
       <c r="Q179" s="1"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -9307,10 +9336,10 @@
       <c r="C180">
         <v>5.5</v>
       </c>
-      <c r="D180">
-        <v>14</v>
-      </c>
-      <c r="E180">
+      <c r="D180" s="3">
+        <v>4</v>
+      </c>
+      <c r="E180" s="3">
         <v>4</v>
       </c>
       <c r="F180">
@@ -9343,7 +9372,7 @@
       </c>
       <c r="Q180" s="1"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>194</v>
       </c>
@@ -9353,10 +9382,10 @@
       <c r="C181">
         <v>6.5</v>
       </c>
-      <c r="D181">
-        <v>14</v>
-      </c>
-      <c r="E181">
+      <c r="D181" s="3">
+        <v>4</v>
+      </c>
+      <c r="E181" s="3">
         <v>5</v>
       </c>
       <c r="F181">
@@ -9389,7 +9418,7 @@
       </c>
       <c r="Q181" s="1"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>195</v>
       </c>
@@ -9399,10 +9428,10 @@
       <c r="C182">
         <v>7.5</v>
       </c>
-      <c r="D182">
-        <v>14</v>
-      </c>
-      <c r="E182">
+      <c r="D182" s="3">
+        <v>4</v>
+      </c>
+      <c r="E182" s="3">
         <v>6</v>
       </c>
       <c r="F182">
@@ -9435,7 +9464,7 @@
       </c>
       <c r="Q182" s="1"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>196</v>
       </c>
@@ -9445,10 +9474,10 @@
       <c r="C183">
         <v>8.5</v>
       </c>
-      <c r="D183">
-        <v>14</v>
-      </c>
-      <c r="E183">
+      <c r="D183" s="3">
+        <v>4</v>
+      </c>
+      <c r="E183" s="3">
         <v>7</v>
       </c>
       <c r="F183">
@@ -9481,7 +9510,7 @@
       </c>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>197</v>
       </c>
@@ -9491,10 +9520,10 @@
       <c r="C184">
         <v>9.5</v>
       </c>
-      <c r="D184">
-        <v>14</v>
-      </c>
-      <c r="E184">
+      <c r="D184" s="3">
+        <v>4</v>
+      </c>
+      <c r="E184" s="3">
         <v>8</v>
       </c>
       <c r="F184">
@@ -9527,7 +9556,7 @@
       </c>
       <c r="Q184" s="1"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -9537,10 +9566,10 @@
       <c r="C185">
         <v>10.5</v>
       </c>
-      <c r="D185">
-        <v>14</v>
-      </c>
-      <c r="E185">
+      <c r="D185" s="3">
+        <v>4</v>
+      </c>
+      <c r="E185" s="3">
         <v>9</v>
       </c>
       <c r="F185">
@@ -9573,7 +9602,7 @@
       </c>
       <c r="Q185" s="1"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>199</v>
       </c>
@@ -9583,10 +9612,10 @@
       <c r="C186">
         <v>11.5</v>
       </c>
-      <c r="D186">
-        <v>14</v>
-      </c>
-      <c r="E186">
+      <c r="D186" s="3">
+        <v>4</v>
+      </c>
+      <c r="E186" s="3">
         <v>10</v>
       </c>
       <c r="F186">
@@ -9619,7 +9648,7 @@
       </c>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -9629,10 +9658,10 @@
       <c r="C187">
         <v>12.5</v>
       </c>
-      <c r="D187">
-        <v>14</v>
-      </c>
-      <c r="E187">
+      <c r="D187" s="3">
+        <v>4</v>
+      </c>
+      <c r="E187" s="3">
         <v>11</v>
       </c>
       <c r="F187">
@@ -9665,7 +9694,7 @@
       </c>
       <c r="Q187" s="1"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -9675,10 +9704,10 @@
       <c r="C188">
         <v>13.5</v>
       </c>
-      <c r="D188">
-        <v>14</v>
-      </c>
-      <c r="E188">
+      <c r="D188" s="3">
+        <v>4</v>
+      </c>
+      <c r="E188" s="3">
         <v>12</v>
       </c>
       <c r="F188">
@@ -9709,7 +9738,7 @@
       </c>
       <c r="Q188" s="1"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -9719,10 +9748,10 @@
       <c r="C189">
         <v>3</v>
       </c>
-      <c r="D189">
-        <v>15</v>
-      </c>
-      <c r="E189">
+      <c r="D189" s="3">
+        <v>3</v>
+      </c>
+      <c r="E189" s="3">
         <v>1</v>
       </c>
       <c r="F189">
@@ -9755,7 +9784,7 @@
       </c>
       <c r="Q189" s="1"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -9765,10 +9794,10 @@
       <c r="C190">
         <v>4</v>
       </c>
-      <c r="D190">
-        <v>15</v>
-      </c>
-      <c r="E190">
+      <c r="D190" s="3">
+        <v>3</v>
+      </c>
+      <c r="E190" s="3">
         <v>2</v>
       </c>
       <c r="F190">
@@ -9801,7 +9830,7 @@
       </c>
       <c r="Q190" s="1"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -9811,10 +9840,10 @@
       <c r="C191">
         <v>5</v>
       </c>
-      <c r="D191">
-        <v>15</v>
-      </c>
-      <c r="E191">
+      <c r="D191" s="3">
+        <v>3</v>
+      </c>
+      <c r="E191" s="3">
         <v>3</v>
       </c>
       <c r="F191">
@@ -9847,7 +9876,7 @@
       </c>
       <c r="Q191" s="1"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>205</v>
       </c>
@@ -9857,10 +9886,10 @@
       <c r="C192">
         <v>6</v>
       </c>
-      <c r="D192">
-        <v>15</v>
-      </c>
-      <c r="E192">
+      <c r="D192" s="3">
+        <v>3</v>
+      </c>
+      <c r="E192" s="3">
         <v>4</v>
       </c>
       <c r="F192">
@@ -9893,7 +9922,7 @@
       </c>
       <c r="Q192" s="1"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>206</v>
       </c>
@@ -9903,10 +9932,10 @@
       <c r="C193">
         <v>7</v>
       </c>
-      <c r="D193">
-        <v>15</v>
-      </c>
-      <c r="E193">
+      <c r="D193" s="3">
+        <v>3</v>
+      </c>
+      <c r="E193" s="3">
         <v>5</v>
       </c>
       <c r="F193">
@@ -9939,7 +9968,7 @@
       </c>
       <c r="Q193" s="1"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -9949,10 +9978,10 @@
       <c r="C194">
         <v>8</v>
       </c>
-      <c r="D194">
-        <v>15</v>
-      </c>
-      <c r="E194">
+      <c r="D194" s="3">
+        <v>3</v>
+      </c>
+      <c r="E194" s="3">
         <v>6</v>
       </c>
       <c r="F194">
@@ -9985,7 +10014,7 @@
       </c>
       <c r="Q194" s="1"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>208</v>
       </c>
@@ -9995,10 +10024,10 @@
       <c r="C195">
         <v>9</v>
       </c>
-      <c r="D195">
-        <v>15</v>
-      </c>
-      <c r="E195">
+      <c r="D195" s="3">
+        <v>3</v>
+      </c>
+      <c r="E195" s="3">
         <v>7</v>
       </c>
       <c r="F195">
@@ -10031,7 +10060,7 @@
       </c>
       <c r="Q195" s="1"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -10041,10 +10070,10 @@
       <c r="C196">
         <v>10</v>
       </c>
-      <c r="D196">
-        <v>15</v>
-      </c>
-      <c r="E196">
+      <c r="D196" s="3">
+        <v>3</v>
+      </c>
+      <c r="E196" s="3">
         <v>8</v>
       </c>
       <c r="F196">
@@ -10077,7 +10106,7 @@
       </c>
       <c r="Q196" s="1"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>210</v>
       </c>
@@ -10087,10 +10116,10 @@
       <c r="C197">
         <v>11</v>
       </c>
-      <c r="D197">
-        <v>15</v>
-      </c>
-      <c r="E197">
+      <c r="D197" s="3">
+        <v>3</v>
+      </c>
+      <c r="E197" s="3">
         <v>9</v>
       </c>
       <c r="F197">
@@ -10123,7 +10152,7 @@
       </c>
       <c r="Q197" s="1"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>211</v>
       </c>
@@ -10133,10 +10162,10 @@
       <c r="C198">
         <v>12</v>
       </c>
-      <c r="D198">
-        <v>15</v>
-      </c>
-      <c r="E198">
+      <c r="D198" s="3">
+        <v>3</v>
+      </c>
+      <c r="E198" s="3">
         <v>10</v>
       </c>
       <c r="F198">
@@ -10169,7 +10198,7 @@
       </c>
       <c r="Q198" s="1"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -10179,10 +10208,10 @@
       <c r="C199">
         <v>13</v>
       </c>
-      <c r="D199">
-        <v>15</v>
-      </c>
-      <c r="E199">
+      <c r="D199" s="3">
+        <v>3</v>
+      </c>
+      <c r="E199" s="3">
         <v>11</v>
       </c>
       <c r="F199">
@@ -10215,7 +10244,7 @@
       </c>
       <c r="Q199" s="1"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -10225,10 +10254,10 @@
       <c r="C200">
         <v>3.5</v>
       </c>
-      <c r="D200">
-        <v>16</v>
-      </c>
-      <c r="E200">
+      <c r="D200" s="3">
+        <v>2</v>
+      </c>
+      <c r="E200" s="3">
         <v>1</v>
       </c>
       <c r="F200">
@@ -10259,7 +10288,7 @@
       </c>
       <c r="Q200" s="1"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>214</v>
       </c>
@@ -10269,10 +10298,10 @@
       <c r="C201">
         <v>4.5</v>
       </c>
-      <c r="D201">
-        <v>16</v>
-      </c>
-      <c r="E201">
+      <c r="D201" s="3">
+        <v>2</v>
+      </c>
+      <c r="E201" s="3">
         <v>2</v>
       </c>
       <c r="F201">
@@ -10305,7 +10334,7 @@
       </c>
       <c r="Q201" s="1"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>215</v>
       </c>
@@ -10315,10 +10344,10 @@
       <c r="C202">
         <v>5.5</v>
       </c>
-      <c r="D202">
-        <v>16</v>
-      </c>
-      <c r="E202">
+      <c r="D202" s="3">
+        <v>2</v>
+      </c>
+      <c r="E202" s="3">
         <v>3</v>
       </c>
       <c r="F202">
@@ -10351,7 +10380,7 @@
       </c>
       <c r="Q202" s="1"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -10361,10 +10390,10 @@
       <c r="C203">
         <v>6.5</v>
       </c>
-      <c r="D203">
-        <v>16</v>
-      </c>
-      <c r="E203">
+      <c r="D203" s="3">
+        <v>2</v>
+      </c>
+      <c r="E203" s="3">
         <v>4</v>
       </c>
       <c r="F203">
@@ -10397,7 +10426,7 @@
       </c>
       <c r="Q203" s="1"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>217</v>
       </c>
@@ -10407,10 +10436,10 @@
       <c r="C204">
         <v>7.5</v>
       </c>
-      <c r="D204">
-        <v>16</v>
-      </c>
-      <c r="E204">
+      <c r="D204" s="3">
+        <v>2</v>
+      </c>
+      <c r="E204" s="3">
         <v>5</v>
       </c>
       <c r="F204">
@@ -10443,7 +10472,7 @@
       </c>
       <c r="Q204" s="1"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>218</v>
       </c>
@@ -10453,10 +10482,10 @@
       <c r="C205">
         <v>8.5</v>
       </c>
-      <c r="D205">
-        <v>16</v>
-      </c>
-      <c r="E205">
+      <c r="D205" s="3">
+        <v>2</v>
+      </c>
+      <c r="E205" s="3">
         <v>6</v>
       </c>
       <c r="F205">
@@ -10489,7 +10518,7 @@
       </c>
       <c r="Q205" s="1"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>219</v>
       </c>
@@ -10499,10 +10528,10 @@
       <c r="C206">
         <v>9.5</v>
       </c>
-      <c r="D206">
-        <v>16</v>
-      </c>
-      <c r="E206">
+      <c r="D206" s="3">
+        <v>2</v>
+      </c>
+      <c r="E206" s="3">
         <v>7</v>
       </c>
       <c r="F206">
@@ -10535,7 +10564,7 @@
       </c>
       <c r="Q206" s="1"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>220</v>
       </c>
@@ -10545,10 +10574,10 @@
       <c r="C207">
         <v>10.5</v>
       </c>
-      <c r="D207">
-        <v>16</v>
-      </c>
-      <c r="E207">
+      <c r="D207" s="3">
+        <v>2</v>
+      </c>
+      <c r="E207" s="3">
         <v>8</v>
       </c>
       <c r="F207">
@@ -10581,7 +10610,7 @@
       </c>
       <c r="Q207" s="1"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>221</v>
       </c>
@@ -10591,10 +10620,10 @@
       <c r="C208">
         <v>11.5</v>
       </c>
-      <c r="D208">
-        <v>16</v>
-      </c>
-      <c r="E208">
+      <c r="D208" s="3">
+        <v>2</v>
+      </c>
+      <c r="E208" s="3">
         <v>9</v>
       </c>
       <c r="F208">
@@ -10627,7 +10656,7 @@
       </c>
       <c r="Q208" s="1"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>222</v>
       </c>
@@ -10637,10 +10666,10 @@
       <c r="C209">
         <v>12.5</v>
       </c>
-      <c r="D209">
-        <v>16</v>
-      </c>
-      <c r="E209">
+      <c r="D209" s="3">
+        <v>2</v>
+      </c>
+      <c r="E209" s="3">
         <v>10</v>
       </c>
       <c r="F209">
@@ -10671,7 +10700,7 @@
       </c>
       <c r="Q209" s="1"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>223</v>
       </c>
@@ -10681,10 +10710,10 @@
       <c r="C210">
         <v>4</v>
       </c>
-      <c r="D210">
-        <v>17</v>
-      </c>
-      <c r="E210">
+      <c r="D210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E210" s="3">
         <v>1</v>
       </c>
       <c r="F210">
@@ -10715,7 +10744,7 @@
       </c>
       <c r="Q210" s="1"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>224</v>
       </c>
@@ -10725,10 +10754,10 @@
       <c r="C211">
         <v>5</v>
       </c>
-      <c r="D211">
-        <v>17</v>
-      </c>
-      <c r="E211">
+      <c r="D211" s="3">
+        <v>1</v>
+      </c>
+      <c r="E211" s="3">
         <v>2</v>
       </c>
       <c r="F211">
@@ -10759,7 +10788,7 @@
       </c>
       <c r="Q211" s="1"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>225</v>
       </c>
@@ -10769,10 +10798,10 @@
       <c r="C212">
         <v>6</v>
       </c>
-      <c r="D212">
-        <v>17</v>
-      </c>
-      <c r="E212">
+      <c r="D212" s="3">
+        <v>1</v>
+      </c>
+      <c r="E212" s="3">
         <v>3</v>
       </c>
       <c r="F212">
@@ -10805,7 +10834,7 @@
       </c>
       <c r="Q212" s="1"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -10815,10 +10844,10 @@
       <c r="C213">
         <v>7</v>
       </c>
-      <c r="D213">
-        <v>17</v>
-      </c>
-      <c r="E213">
+      <c r="D213" s="3">
+        <v>1</v>
+      </c>
+      <c r="E213" s="3">
         <v>4</v>
       </c>
       <c r="F213">
@@ -10849,7 +10878,7 @@
       </c>
       <c r="Q213" s="1"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>227</v>
       </c>
@@ -10859,10 +10888,10 @@
       <c r="C214">
         <v>8</v>
       </c>
-      <c r="D214">
-        <v>17</v>
-      </c>
-      <c r="E214">
+      <c r="D214" s="3">
+        <v>1</v>
+      </c>
+      <c r="E214" s="3">
         <v>5</v>
       </c>
       <c r="F214">
@@ -10893,7 +10922,7 @@
       </c>
       <c r="Q214" s="1"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>228</v>
       </c>
@@ -10903,10 +10932,10 @@
       <c r="C215">
         <v>9</v>
       </c>
-      <c r="D215">
-        <v>17</v>
-      </c>
-      <c r="E215">
+      <c r="D215" s="3">
+        <v>1</v>
+      </c>
+      <c r="E215" s="3">
         <v>6</v>
       </c>
       <c r="F215">
@@ -10937,7 +10966,7 @@
       </c>
       <c r="Q215" s="1"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>229</v>
       </c>
@@ -10947,10 +10976,10 @@
       <c r="C216">
         <v>10</v>
       </c>
-      <c r="D216">
-        <v>17</v>
-      </c>
-      <c r="E216">
+      <c r="D216" s="3">
+        <v>1</v>
+      </c>
+      <c r="E216" s="3">
         <v>7</v>
       </c>
       <c r="F216">
@@ -10983,7 +11012,7 @@
       </c>
       <c r="Q216" s="1"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>230</v>
       </c>
@@ -10993,10 +11022,10 @@
       <c r="C217">
         <v>11</v>
       </c>
-      <c r="D217">
-        <v>17</v>
-      </c>
-      <c r="E217">
+      <c r="D217" s="3">
+        <v>1</v>
+      </c>
+      <c r="E217" s="3">
         <v>8</v>
       </c>
       <c r="F217">
@@ -11027,7 +11056,7 @@
       </c>
       <c r="Q217" s="1"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>231</v>
       </c>
@@ -11037,10 +11066,10 @@
       <c r="C218">
         <v>12</v>
       </c>
-      <c r="D218">
-        <v>17</v>
-      </c>
-      <c r="E218">
+      <c r="D218" s="3">
+        <v>1</v>
+      </c>
+      <c r="E218" s="3">
         <v>9</v>
       </c>
       <c r="F218">
@@ -15494,7 +15523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/resources/terkep_adatok_2.xlsx
+++ b/resources/terkep_adatok_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="8690" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21580" windowHeight="8690"/>
   </bookViews>
   <sheets>
     <sheet name="adatok" sheetId="1" r:id="rId1"/>
@@ -1111,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q218"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6519,7 +6519,7 @@
         <v>10</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -6563,7 +6563,7 @@
         <v>10</v>
       </c>
       <c r="E120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -6609,7 +6609,7 @@
         <v>10</v>
       </c>
       <c r="E121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -6655,7 +6655,7 @@
         <v>10</v>
       </c>
       <c r="E122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6701,7 +6701,7 @@
         <v>10</v>
       </c>
       <c r="E123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F123">
         <v>5</v>
@@ -6747,7 +6747,7 @@
         <v>10</v>
       </c>
       <c r="E124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F124">
         <v>6</v>
@@ -6793,7 +6793,7 @@
         <v>10</v>
       </c>
       <c r="E125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F125">
         <v>7</v>
@@ -6839,7 +6839,7 @@
         <v>10</v>
       </c>
       <c r="E126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F126">
         <v>8</v>
@@ -6885,7 +6885,7 @@
         <v>10</v>
       </c>
       <c r="E127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F127">
         <v>8</v>
@@ -6931,7 +6931,7 @@
         <v>10</v>
       </c>
       <c r="E128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128">
         <v>7</v>
@@ -6977,7 +6977,7 @@
         <v>10</v>
       </c>
       <c r="E129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -7023,7 +7023,7 @@
         <v>10</v>
       </c>
       <c r="E130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F130">
         <v>5</v>
@@ -7069,7 +7069,7 @@
         <v>10</v>
       </c>
       <c r="E131">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F131">
         <v>4</v>
@@ -7115,7 +7115,7 @@
         <v>10</v>
       </c>
       <c r="E132">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F132">
         <v>3</v>
@@ -7161,7 +7161,7 @@
         <v>10</v>
       </c>
       <c r="E133">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -7207,7 +7207,7 @@
         <v>10</v>
       </c>
       <c r="E134">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -7251,7 +7251,7 @@
         <v>11</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>11</v>
       </c>
       <c r="E136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -7343,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="E137">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F137">
         <v>3</v>
@@ -7389,7 +7389,7 @@
         <v>11</v>
       </c>
       <c r="E138">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F138">
         <v>4</v>
@@ -7435,7 +7435,7 @@
         <v>11</v>
       </c>
       <c r="E139">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F139">
         <v>5</v>
@@ -7481,7 +7481,7 @@
         <v>11</v>
       </c>
       <c r="E140">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F140">
         <v>6</v>
@@ -7527,7 +7527,7 @@
         <v>11</v>
       </c>
       <c r="E141">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F141">
         <v>7</v>
@@ -7573,7 +7573,7 @@
         <v>11</v>
       </c>
       <c r="E142">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F142">
         <v>7</v>
@@ -7619,7 +7619,7 @@
         <v>11</v>
       </c>
       <c r="E143">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F143">
         <v>7</v>
@@ -7665,7 +7665,7 @@
         <v>11</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F144">
         <v>6</v>
@@ -7711,7 +7711,7 @@
         <v>11</v>
       </c>
       <c r="E145">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F145">
         <v>5</v>
@@ -7757,7 +7757,7 @@
         <v>11</v>
       </c>
       <c r="E146">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F146">
         <v>4</v>
@@ -7803,7 +7803,7 @@
         <v>11</v>
       </c>
       <c r="E147">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -7849,7 +7849,7 @@
         <v>11</v>
       </c>
       <c r="E148">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -7895,7 +7895,7 @@
         <v>11</v>
       </c>
       <c r="E149">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -7941,7 +7941,7 @@
         <v>12</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>12</v>
       </c>
       <c r="E151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -8031,7 +8031,7 @@
         <v>12</v>
       </c>
       <c r="E152">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -8077,7 +8077,7 @@
         <v>12</v>
       </c>
       <c r="E153">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -8123,7 +8123,7 @@
         <v>12</v>
       </c>
       <c r="E154">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F154">
         <v>5</v>
@@ -8169,7 +8169,7 @@
         <v>12</v>
       </c>
       <c r="E155">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F155">
         <v>6</v>
@@ -8215,7 +8215,7 @@
         <v>12</v>
       </c>
       <c r="E156">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F156">
         <v>6</v>
@@ -8261,7 +8261,7 @@
         <v>12</v>
       </c>
       <c r="E157">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F157">
         <v>6</v>
@@ -8307,7 +8307,7 @@
         <v>12</v>
       </c>
       <c r="E158">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F158">
         <v>6</v>
@@ -8353,7 +8353,7 @@
         <v>12</v>
       </c>
       <c r="E159">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F159">
         <v>5</v>
@@ -8399,7 +8399,7 @@
         <v>12</v>
       </c>
       <c r="E160">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F160">
         <v>4</v>
@@ -8445,7 +8445,7 @@
         <v>12</v>
       </c>
       <c r="E161">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F161">
         <v>3</v>
@@ -8491,7 +8491,7 @@
         <v>12</v>
       </c>
       <c r="E162">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -8537,7 +8537,7 @@
         <v>12</v>
       </c>
       <c r="E163">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -8581,7 +8581,7 @@
         <v>13</v>
       </c>
       <c r="E164">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -8625,7 +8625,7 @@
         <v>13</v>
       </c>
       <c r="E165">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -8671,7 +8671,7 @@
         <v>13</v>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F166">
         <v>3</v>
@@ -8717,7 +8717,7 @@
         <v>13</v>
       </c>
       <c r="E167">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F167">
         <v>4</v>
@@ -8763,7 +8763,7 @@
         <v>13</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F168">
         <v>5</v>
@@ -8809,7 +8809,7 @@
         <v>13</v>
       </c>
       <c r="E169">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F169">
         <v>5</v>
@@ -8855,7 +8855,7 @@
         <v>13</v>
       </c>
       <c r="E170">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F170">
         <v>5</v>
@@ -8901,7 +8901,7 @@
         <v>13</v>
       </c>
       <c r="E171">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -8947,7 +8947,7 @@
         <v>13</v>
       </c>
       <c r="E172">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F172">
         <v>5</v>
@@ -8993,7 +8993,7 @@
         <v>13</v>
       </c>
       <c r="E173">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F173">
         <v>4</v>
@@ -9039,7 +9039,7 @@
         <v>13</v>
       </c>
       <c r="E174">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F174">
         <v>3</v>
@@ -9085,7 +9085,7 @@
         <v>13</v>
       </c>
       <c r="E175">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -9131,7 +9131,7 @@
         <v>13</v>
       </c>
       <c r="E176">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -9175,7 +9175,7 @@
         <v>14</v>
       </c>
       <c r="E177">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -9219,7 +9219,7 @@
         <v>14</v>
       </c>
       <c r="E178">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -9265,7 +9265,7 @@
         <v>14</v>
       </c>
       <c r="E179">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F179">
         <v>3</v>
@@ -9311,7 +9311,7 @@
         <v>14</v>
       </c>
       <c r="E180">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F180">
         <v>4</v>
@@ -9357,7 +9357,7 @@
         <v>14</v>
       </c>
       <c r="E181">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F181">
         <v>4</v>
@@ -9403,7 +9403,7 @@
         <v>14</v>
       </c>
       <c r="E182">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F182">
         <v>4</v>
@@ -9449,7 +9449,7 @@
         <v>14</v>
       </c>
       <c r="E183">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F183">
         <v>4</v>
@@ -9495,7 +9495,7 @@
         <v>14</v>
       </c>
       <c r="E184">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -9541,7 +9541,7 @@
         <v>14</v>
       </c>
       <c r="E185">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -9587,7 +9587,7 @@
         <v>14</v>
       </c>
       <c r="E186">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F186">
         <v>3</v>
@@ -9633,7 +9633,7 @@
         <v>14</v>
       </c>
       <c r="E187">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -9679,7 +9679,7 @@
         <v>14</v>
       </c>
       <c r="E188">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -9723,7 +9723,7 @@
         <v>15</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -9769,7 +9769,7 @@
         <v>15</v>
       </c>
       <c r="E190">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -9815,7 +9815,7 @@
         <v>15</v>
       </c>
       <c r="E191">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F191">
         <v>3</v>
@@ -9861,7 +9861,7 @@
         <v>15</v>
       </c>
       <c r="E192">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F192">
         <v>3</v>
@@ -9907,7 +9907,7 @@
         <v>15</v>
       </c>
       <c r="E193">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F193">
         <v>3</v>
@@ -9953,7 +9953,7 @@
         <v>15</v>
       </c>
       <c r="E194">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F194">
         <v>3</v>
@@ -9999,7 +9999,7 @@
         <v>15</v>
       </c>
       <c r="E195">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="F195">
         <v>3</v>
@@ -10045,7 +10045,7 @@
         <v>15</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F196">
         <v>3</v>
@@ -10091,7 +10091,7 @@
         <v>15</v>
       </c>
       <c r="E197">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F197">
         <v>3</v>
@@ -10137,7 +10137,7 @@
         <v>15</v>
       </c>
       <c r="E198">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F198">
         <v>2</v>
@@ -10183,7 +10183,7 @@
         <v>15</v>
       </c>
       <c r="E199">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -10229,7 +10229,7 @@
         <v>16</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -10273,7 +10273,7 @@
         <v>16</v>
       </c>
       <c r="E201">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F201">
         <v>2</v>
@@ -10319,7 +10319,7 @@
         <v>16</v>
       </c>
       <c r="E202">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F202">
         <v>2</v>
@@ -10365,7 +10365,7 @@
         <v>16</v>
       </c>
       <c r="E203">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F203">
         <v>2</v>
@@ -10411,7 +10411,7 @@
         <v>16</v>
       </c>
       <c r="E204">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F204">
         <v>2</v>
@@ -10457,7 +10457,7 @@
         <v>16</v>
       </c>
       <c r="E205">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -10503,7 +10503,7 @@
         <v>16</v>
       </c>
       <c r="E206">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F206">
         <v>2</v>
@@ -10549,7 +10549,7 @@
         <v>16</v>
       </c>
       <c r="E207">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -10595,7 +10595,7 @@
         <v>16</v>
       </c>
       <c r="E208">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -10641,7 +10641,7 @@
         <v>16</v>
       </c>
       <c r="E209">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -10685,7 +10685,7 @@
         <v>17</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>17</v>
       </c>
       <c r="E211">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -10773,7 +10773,7 @@
         <v>17</v>
       </c>
       <c r="E212">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -10819,7 +10819,7 @@
         <v>17</v>
       </c>
       <c r="E213">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -10863,7 +10863,7 @@
         <v>17</v>
       </c>
       <c r="E214">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -10907,7 +10907,7 @@
         <v>17</v>
       </c>
       <c r="E215">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -10951,7 +10951,7 @@
         <v>17</v>
       </c>
       <c r="E216">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -10997,7 +10997,7 @@
         <v>17</v>
       </c>
       <c r="E217">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -11041,7 +11041,7 @@
         <v>17</v>
       </c>
       <c r="E218">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -15494,7 +15494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/resources/terkep_adatok_2.xlsx
+++ b/resources/terkep_adatok_2.xlsx
@@ -790,20 +790,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,7 +814,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -830,34 +822,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1141,7 +1112,7 @@
   <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1149,7 +1120,7 @@
     <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1159,10 +1130,10 @@
       <c r="C1" t="s">
         <v>233</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -1190,7 +1161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1200,10 +1171,10 @@
       <c r="C2">
         <v>4</v>
       </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
@@ -1234,7 +1205,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1244,10 +1215,10 @@
       <c r="C3">
         <v>5</v>
       </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
@@ -1278,7 +1249,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1288,10 +1259,10 @@
       <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
@@ -1324,7 +1295,7 @@
       </c>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1334,10 +1305,10 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
@@ -1368,7 +1339,7 @@
       </c>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1378,10 +1349,10 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
@@ -1412,7 +1383,7 @@
       </c>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1422,10 +1393,10 @@
       <c r="C7">
         <v>9</v>
       </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
@@ -1456,7 +1427,7 @@
       </c>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1466,10 +1437,10 @@
       <c r="C8">
         <v>10</v>
       </c>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
@@ -1502,7 +1473,7 @@
       </c>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1512,10 +1483,10 @@
       <c r="C9">
         <v>11</v>
       </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
       <c r="F9">
@@ -1546,7 +1517,7 @@
       </c>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1556,10 +1527,10 @@
       <c r="C10">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
@@ -1590,7 +1561,7 @@
       </c>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1600,10 +1571,10 @@
       <c r="C11">
         <v>3.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
@@ -1634,7 +1605,7 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1644,10 +1615,10 @@
       <c r="C12">
         <v>4.5</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
@@ -1680,7 +1651,7 @@
       </c>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -1690,10 +1661,10 @@
       <c r="C13">
         <v>5.5</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13">
         <v>3</v>
       </c>
       <c r="F13">
@@ -1726,7 +1697,7 @@
       </c>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1736,10 +1707,10 @@
       <c r="C14">
         <v>6.5</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>4</v>
       </c>
       <c r="F14">
@@ -1772,7 +1743,7 @@
       </c>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1782,10 +1753,10 @@
       <c r="C15">
         <v>7.5</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15">
         <v>5</v>
       </c>
       <c r="F15">
@@ -1818,7 +1789,7 @@
       </c>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1828,10 +1799,10 @@
       <c r="C16">
         <v>8.5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>6</v>
       </c>
       <c r="F16">
@@ -1864,7 +1835,7 @@
       </c>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1874,10 +1845,10 @@
       <c r="C17">
         <v>9.5</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17">
         <v>7</v>
       </c>
       <c r="F17">
@@ -1910,7 +1881,7 @@
       </c>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1920,10 +1891,10 @@
       <c r="C18">
         <v>10.5</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>8</v>
       </c>
       <c r="F18">
@@ -1956,7 +1927,7 @@
       </c>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1966,10 +1937,10 @@
       <c r="C19">
         <v>11.5</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19">
         <v>9</v>
       </c>
       <c r="F19">
@@ -2002,7 +1973,7 @@
       </c>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -2012,10 +1983,10 @@
       <c r="C20">
         <v>12.5</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>10</v>
       </c>
       <c r="F20">
@@ -2046,7 +2017,7 @@
       </c>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2056,10 +2027,10 @@
       <c r="C21">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
@@ -2092,7 +2063,7 @@
       </c>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2102,10 +2073,10 @@
       <c r="C22">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
@@ -2138,7 +2109,7 @@
       </c>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2148,10 +2119,10 @@
       <c r="C23">
         <v>5</v>
       </c>
-      <c r="D23" s="3">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>3</v>
       </c>
       <c r="F23">
@@ -2184,7 +2155,7 @@
       </c>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2194,10 +2165,10 @@
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24" s="3">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>4</v>
       </c>
       <c r="F24">
@@ -2230,7 +2201,7 @@
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2240,10 +2211,10 @@
       <c r="C25">
         <v>7</v>
       </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <v>5</v>
       </c>
       <c r="F25">
@@ -2276,7 +2247,7 @@
       </c>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2286,10 +2257,10 @@
       <c r="C26">
         <v>8</v>
       </c>
-      <c r="D26" s="3">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26">
         <v>6</v>
       </c>
       <c r="F26">
@@ -2322,7 +2293,7 @@
       </c>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -2332,10 +2303,10 @@
       <c r="C27">
         <v>9</v>
       </c>
-      <c r="D27" s="3">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
         <v>7</v>
       </c>
       <c r="F27">
@@ -2368,7 +2339,7 @@
       </c>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -2378,10 +2349,10 @@
       <c r="C28">
         <v>10</v>
       </c>
-      <c r="D28" s="3">
-        <v>3</v>
-      </c>
-      <c r="E28" s="3">
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
         <v>8</v>
       </c>
       <c r="F28">
@@ -2414,7 +2385,7 @@
       </c>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2424,10 +2395,10 @@
       <c r="C29">
         <v>11</v>
       </c>
-      <c r="D29" s="3">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
         <v>9</v>
       </c>
       <c r="F29">
@@ -2460,7 +2431,7 @@
       </c>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -2470,10 +2441,10 @@
       <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
         <v>10</v>
       </c>
       <c r="F30">
@@ -2506,7 +2477,7 @@
       </c>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2516,10 +2487,10 @@
       <c r="C31">
         <v>13</v>
       </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
         <v>11</v>
       </c>
       <c r="F31">
@@ -2552,7 +2523,7 @@
       </c>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2562,10 +2533,10 @@
       <c r="C32">
         <v>2.5</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
@@ -2596,7 +2567,7 @@
       </c>
       <c r="Q32" s="1"/>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2606,10 +2577,10 @@
       <c r="C33">
         <v>3.5</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33">
         <v>2</v>
       </c>
       <c r="F33">
@@ -2642,7 +2613,7 @@
       </c>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2652,10 +2623,10 @@
       <c r="C34">
         <v>4.5</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>4</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34">
         <v>3</v>
       </c>
       <c r="F34">
@@ -2688,7 +2659,7 @@
       </c>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -2698,10 +2669,10 @@
       <c r="C35">
         <v>5.5</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35">
         <v>4</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35">
         <v>4</v>
       </c>
       <c r="F35">
@@ -2734,7 +2705,7 @@
       </c>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -2744,10 +2715,10 @@
       <c r="C36">
         <v>6.5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>4</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>5</v>
       </c>
       <c r="F36">
@@ -2780,7 +2751,7 @@
       </c>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -2790,10 +2761,10 @@
       <c r="C37">
         <v>7.5</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37">
         <v>4</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
@@ -2826,7 +2797,7 @@
       </c>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -2836,10 +2807,10 @@
       <c r="C38">
         <v>8.5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38">
         <v>4</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38">
         <v>7</v>
       </c>
       <c r="F38">
@@ -2872,7 +2843,7 @@
       </c>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -2882,10 +2853,10 @@
       <c r="C39">
         <v>9.5</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39">
         <v>8</v>
       </c>
       <c r="F39">
@@ -2918,7 +2889,7 @@
       </c>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -2928,10 +2899,10 @@
       <c r="C40">
         <v>10.5</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40">
         <v>9</v>
       </c>
       <c r="F40">
@@ -2964,7 +2935,7 @@
       </c>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -2974,10 +2945,10 @@
       <c r="C41">
         <v>11.5</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41">
         <v>10</v>
       </c>
       <c r="F41">
@@ -3010,7 +2981,7 @@
       </c>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3020,10 +2991,10 @@
       <c r="C42">
         <v>12.5</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42">
         <v>4</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42">
         <v>11</v>
       </c>
       <c r="F42">
@@ -3056,7 +3027,7 @@
       </c>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3066,10 +3037,10 @@
       <c r="C43">
         <v>13.5</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43">
         <v>12</v>
       </c>
       <c r="F43">
@@ -3100,7 +3071,7 @@
       </c>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3110,10 +3081,10 @@
       <c r="C44">
         <v>2</v>
       </c>
-      <c r="D44" s="3">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
@@ -3144,7 +3115,7 @@
       </c>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3154,10 +3125,10 @@
       <c r="C45">
         <v>3</v>
       </c>
-      <c r="D45" s="3">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
         <v>2</v>
       </c>
       <c r="F45">
@@ -3190,7 +3161,7 @@
       </c>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3200,10 +3171,10 @@
       <c r="C46">
         <v>4</v>
       </c>
-      <c r="D46" s="3">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
         <v>3</v>
       </c>
       <c r="F46">
@@ -3236,7 +3207,7 @@
       </c>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3246,10 +3217,10 @@
       <c r="C47">
         <v>5</v>
       </c>
-      <c r="D47" s="3">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
         <v>4</v>
       </c>
       <c r="F47">
@@ -3282,7 +3253,7 @@
       </c>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3292,10 +3263,10 @@
       <c r="C48">
         <v>6</v>
       </c>
-      <c r="D48" s="3">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
         <v>5</v>
       </c>
       <c r="F48">
@@ -3328,7 +3299,7 @@
       </c>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3338,10 +3309,10 @@
       <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49" s="3">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
         <v>6</v>
       </c>
       <c r="F49">
@@ -3374,7 +3345,7 @@
       </c>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3384,10 +3355,10 @@
       <c r="C50">
         <v>8</v>
       </c>
-      <c r="D50" s="3">
-        <v>5</v>
-      </c>
-      <c r="E50" s="3">
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
         <v>7</v>
       </c>
       <c r="F50">
@@ -3420,7 +3391,7 @@
       </c>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3430,10 +3401,10 @@
       <c r="C51">
         <v>9</v>
       </c>
-      <c r="D51" s="3">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3">
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
         <v>8</v>
       </c>
       <c r="F51">
@@ -3466,7 +3437,7 @@
       </c>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3476,10 +3447,10 @@
       <c r="C52">
         <v>10</v>
       </c>
-      <c r="D52" s="3">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52">
         <v>9</v>
       </c>
       <c r="F52">
@@ -3512,7 +3483,7 @@
       </c>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3522,10 +3493,10 @@
       <c r="C53">
         <v>11</v>
       </c>
-      <c r="D53" s="3">
-        <v>5</v>
-      </c>
-      <c r="E53" s="3">
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
         <v>10</v>
       </c>
       <c r="F53">
@@ -3558,7 +3529,7 @@
       </c>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3568,10 +3539,10 @@
       <c r="C54">
         <v>12</v>
       </c>
-      <c r="D54" s="3">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
         <v>11</v>
       </c>
       <c r="F54">
@@ -3604,7 +3575,7 @@
       </c>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3614,10 +3585,10 @@
       <c r="C55">
         <v>13</v>
       </c>
-      <c r="D55" s="3">
-        <v>5</v>
-      </c>
-      <c r="E55" s="3">
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
         <v>12</v>
       </c>
       <c r="F55">
@@ -3650,7 +3621,7 @@
       </c>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3660,10 +3631,10 @@
       <c r="C56">
         <v>14</v>
       </c>
-      <c r="D56" s="3">
-        <v>5</v>
-      </c>
-      <c r="E56" s="3">
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
         <v>13</v>
       </c>
       <c r="F56">
@@ -3694,7 +3665,7 @@
       </c>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -3704,10 +3675,10 @@
       <c r="C57">
         <v>1.5</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57">
         <v>6</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
@@ -3738,7 +3709,7 @@
       </c>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -3748,10 +3719,10 @@
       <c r="C58">
         <v>2.5</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58">
         <v>2</v>
       </c>
       <c r="F58">
@@ -3784,7 +3755,7 @@
       </c>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -3794,10 +3765,10 @@
       <c r="C59">
         <v>3.5</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59">
         <v>6</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59">
         <v>3</v>
       </c>
       <c r="F59">
@@ -3830,7 +3801,7 @@
       </c>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -3840,10 +3811,10 @@
       <c r="C60">
         <v>4.5</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60">
         <v>6</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60">
         <v>4</v>
       </c>
       <c r="F60">
@@ -3876,7 +3847,7 @@
       </c>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -3886,10 +3857,10 @@
       <c r="C61">
         <v>5.5</v>
       </c>
-      <c r="D61" s="3">
+      <c r="D61">
         <v>6</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61">
         <v>5</v>
       </c>
       <c r="F61">
@@ -3922,7 +3893,7 @@
       </c>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -3932,10 +3903,10 @@
       <c r="C62">
         <v>6.5</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62">
         <v>6</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62">
         <v>6</v>
       </c>
       <c r="F62">
@@ -3968,7 +3939,7 @@
       </c>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -3978,10 +3949,10 @@
       <c r="C63">
         <v>7.5</v>
       </c>
-      <c r="D63" s="3">
+      <c r="D63">
         <v>6</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63">
         <v>7</v>
       </c>
       <c r="F63">
@@ -4014,7 +3985,7 @@
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4024,10 +3995,10 @@
       <c r="C64">
         <v>8.5</v>
       </c>
-      <c r="D64" s="3">
+      <c r="D64">
         <v>6</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64">
         <v>8</v>
       </c>
       <c r="F64">
@@ -4060,7 +4031,7 @@
       </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4070,10 +4041,10 @@
       <c r="C65">
         <v>9.5</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D65">
         <v>6</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65">
         <v>9</v>
       </c>
       <c r="F65">
@@ -4106,7 +4077,7 @@
       </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4116,10 +4087,10 @@
       <c r="C66">
         <v>10.5</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D66">
         <v>6</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66">
         <v>10</v>
       </c>
       <c r="F66">
@@ -4152,7 +4123,7 @@
       </c>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4162,10 +4133,10 @@
       <c r="C67">
         <v>11.5</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D67">
         <v>6</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E67">
         <v>11</v>
       </c>
       <c r="F67">
@@ -4198,7 +4169,7 @@
       </c>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4208,10 +4179,10 @@
       <c r="C68">
         <v>12.5</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D68">
         <v>6</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68">
         <v>12</v>
       </c>
       <c r="F68">
@@ -4244,7 +4215,7 @@
       </c>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4254,10 +4225,10 @@
       <c r="C69">
         <v>13.5</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D69">
         <v>6</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E69">
         <v>13</v>
       </c>
       <c r="F69">
@@ -4290,7 +4261,7 @@
       </c>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4300,10 +4271,10 @@
       <c r="C70">
         <v>14.5</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D70">
         <v>6</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70">
         <v>14</v>
       </c>
       <c r="F70">
@@ -4334,7 +4305,7 @@
       </c>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4344,10 +4315,10 @@
       <c r="C71">
         <v>1</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D71">
         <v>7</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
@@ -4380,7 +4351,7 @@
       </c>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4390,10 +4361,10 @@
       <c r="C72">
         <v>2</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72">
         <v>7</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72">
         <v>2</v>
       </c>
       <c r="F72">
@@ -4426,7 +4397,7 @@
       </c>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4436,10 +4407,10 @@
       <c r="C73">
         <v>3</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D73">
         <v>7</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73">
         <v>3</v>
       </c>
       <c r="F73">
@@ -4472,7 +4443,7 @@
       </c>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4482,10 +4453,10 @@
       <c r="C74">
         <v>4</v>
       </c>
-      <c r="D74" s="3">
+      <c r="D74">
         <v>7</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74">
         <v>4</v>
       </c>
       <c r="F74">
@@ -4518,7 +4489,7 @@
       </c>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4528,10 +4499,10 @@
       <c r="C75">
         <v>5</v>
       </c>
-      <c r="D75" s="3">
+      <c r="D75">
         <v>7</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75">
         <v>5</v>
       </c>
       <c r="F75">
@@ -4564,7 +4535,7 @@
       </c>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4574,10 +4545,10 @@
       <c r="C76">
         <v>6</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76">
         <v>7</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76">
         <v>6</v>
       </c>
       <c r="F76">
@@ -4610,7 +4581,7 @@
       </c>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4620,10 +4591,10 @@
       <c r="C77">
         <v>7</v>
       </c>
-      <c r="D77" s="3">
+      <c r="D77">
         <v>7</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77">
         <v>7</v>
       </c>
       <c r="F77">
@@ -4656,7 +4627,7 @@
       </c>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4666,10 +4637,10 @@
       <c r="C78">
         <v>8</v>
       </c>
-      <c r="D78" s="3">
+      <c r="D78">
         <v>7</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78">
         <v>8</v>
       </c>
       <c r="F78">
@@ -4702,7 +4673,7 @@
       </c>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4712,10 +4683,10 @@
       <c r="C79">
         <v>9</v>
       </c>
-      <c r="D79" s="3">
+      <c r="D79">
         <v>7</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79">
         <v>9</v>
       </c>
       <c r="F79">
@@ -4748,7 +4719,7 @@
       </c>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4758,10 +4729,10 @@
       <c r="C80">
         <v>10</v>
       </c>
-      <c r="D80" s="3">
+      <c r="D80">
         <v>7</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80">
         <v>10</v>
       </c>
       <c r="F80">
@@ -4794,7 +4765,7 @@
       </c>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4804,10 +4775,10 @@
       <c r="C81">
         <v>11</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>7</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81">
         <v>11</v>
       </c>
       <c r="F81">
@@ -4840,7 +4811,7 @@
       </c>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4850,10 +4821,10 @@
       <c r="C82">
         <v>12</v>
       </c>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>7</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82">
         <v>12</v>
       </c>
       <c r="F82">
@@ -4886,7 +4857,7 @@
       </c>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4896,10 +4867,10 @@
       <c r="C83">
         <v>13</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>7</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83">
         <v>13</v>
       </c>
       <c r="F83">
@@ -4932,7 +4903,7 @@
       </c>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4942,10 +4913,10 @@
       <c r="C84">
         <v>14</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>7</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84">
         <v>14</v>
       </c>
       <c r="F84">
@@ -4978,7 +4949,7 @@
       </c>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4988,10 +4959,10 @@
       <c r="C85">
         <v>15</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>7</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85">
         <v>15</v>
       </c>
       <c r="F85">
@@ -5024,7 +4995,7 @@
       </c>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -5034,10 +5005,10 @@
       <c r="C86">
         <v>0.5</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D86">
         <v>8</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
@@ -5068,7 +5039,7 @@
       </c>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -5078,10 +5049,10 @@
       <c r="C87">
         <v>1.5</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87">
         <v>8</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87">
         <v>2</v>
       </c>
       <c r="F87">
@@ -5114,7 +5085,7 @@
       </c>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -5124,10 +5095,10 @@
       <c r="C88">
         <v>2.5</v>
       </c>
-      <c r="D88" s="3">
+      <c r="D88">
         <v>8</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88">
         <v>3</v>
       </c>
       <c r="F88">
@@ -5160,7 +5131,7 @@
       </c>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -5170,10 +5141,10 @@
       <c r="C89">
         <v>3.5</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>8</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89">
         <v>4</v>
       </c>
       <c r="F89">
@@ -5206,7 +5177,7 @@
       </c>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -5216,10 +5187,10 @@
       <c r="C90">
         <v>4.5</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>8</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90">
         <v>5</v>
       </c>
       <c r="F90">
@@ -5252,7 +5223,7 @@
       </c>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -5262,10 +5233,10 @@
       <c r="C91">
         <v>5.5</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>8</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91">
         <v>6</v>
       </c>
       <c r="F91">
@@ -5298,7 +5269,7 @@
       </c>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -5308,10 +5279,10 @@
       <c r="C92">
         <v>6.5</v>
       </c>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>8</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92">
         <v>7</v>
       </c>
       <c r="F92">
@@ -5344,7 +5315,7 @@
       </c>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -5354,10 +5325,10 @@
       <c r="C93">
         <v>7.5</v>
       </c>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>8</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93">
         <v>8</v>
       </c>
       <c r="F93">
@@ -5390,7 +5361,7 @@
       </c>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -5400,10 +5371,10 @@
       <c r="C94">
         <v>8.5</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>8</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94">
         <v>9</v>
       </c>
       <c r="F94">
@@ -5436,7 +5407,7 @@
       </c>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -5446,10 +5417,10 @@
       <c r="C95">
         <v>9.5</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>8</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95">
         <v>10</v>
       </c>
       <c r="F95">
@@ -5482,7 +5453,7 @@
       </c>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -5492,10 +5463,10 @@
       <c r="C96">
         <v>10.5</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D96">
         <v>8</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96">
         <v>11</v>
       </c>
       <c r="F96">
@@ -5528,7 +5499,7 @@
       </c>
       <c r="Q96" s="1"/>
     </row>
-    <row r="97" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -5538,10 +5509,10 @@
       <c r="C97">
         <v>11.5</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>8</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E97">
         <v>12</v>
       </c>
       <c r="F97">
@@ -5574,7 +5545,7 @@
       </c>
       <c r="Q97" s="1"/>
     </row>
-    <row r="98" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -5584,10 +5555,10 @@
       <c r="C98">
         <v>12.5</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>8</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E98">
         <v>13</v>
       </c>
       <c r="F98">
@@ -5620,7 +5591,7 @@
       </c>
       <c r="Q98" s="1"/>
     </row>
-    <row r="99" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -5630,10 +5601,10 @@
       <c r="C99">
         <v>13.5</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>8</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E99">
         <v>14</v>
       </c>
       <c r="F99">
@@ -5666,7 +5637,7 @@
       </c>
       <c r="Q99" s="1"/>
     </row>
-    <row r="100" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -5676,10 +5647,10 @@
       <c r="C100">
         <v>14.5</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>8</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E100">
         <v>15</v>
       </c>
       <c r="F100">
@@ -5712,7 +5683,7 @@
       </c>
       <c r="Q100" s="1"/>
     </row>
-    <row r="101" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -5722,10 +5693,10 @@
       <c r="C101">
         <v>15.5</v>
       </c>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>8</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101">
         <v>16</v>
       </c>
       <c r="F101">
@@ -5756,7 +5727,7 @@
       </c>
       <c r="Q101" s="1"/>
     </row>
-    <row r="102" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -5766,10 +5737,10 @@
       <c r="C102">
         <v>0</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>9</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102">
         <v>1</v>
       </c>
       <c r="F102">
@@ -5800,7 +5771,7 @@
       </c>
       <c r="Q102" s="1"/>
     </row>
-    <row r="103" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -5810,10 +5781,10 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>9</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E103">
         <v>2</v>
       </c>
       <c r="F103">
@@ -5846,7 +5817,7 @@
       </c>
       <c r="Q103" s="1"/>
     </row>
-    <row r="104" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -5856,10 +5827,10 @@
       <c r="C104">
         <v>2</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D104">
         <v>9</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E104">
         <v>3</v>
       </c>
       <c r="F104">
@@ -5892,7 +5863,7 @@
       </c>
       <c r="Q104" s="1"/>
     </row>
-    <row r="105" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -5902,10 +5873,10 @@
       <c r="C105">
         <v>3</v>
       </c>
-      <c r="D105" s="3">
+      <c r="D105">
         <v>9</v>
       </c>
-      <c r="E105" s="3">
+      <c r="E105">
         <v>4</v>
       </c>
       <c r="F105">
@@ -5938,7 +5909,7 @@
       </c>
       <c r="Q105" s="1"/>
     </row>
-    <row r="106" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -5948,10 +5919,10 @@
       <c r="C106">
         <v>4</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D106">
         <v>9</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106">
         <v>5</v>
       </c>
       <c r="F106">
@@ -5984,7 +5955,7 @@
       </c>
       <c r="Q106" s="1"/>
     </row>
-    <row r="107" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -5994,10 +5965,10 @@
       <c r="C107">
         <v>5</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D107">
         <v>9</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107">
         <v>6</v>
       </c>
       <c r="F107">
@@ -6030,7 +6001,7 @@
       </c>
       <c r="Q107" s="1"/>
     </row>
-    <row r="108" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -6040,10 +6011,10 @@
       <c r="C108">
         <v>6</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D108">
         <v>9</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108">
         <v>7</v>
       </c>
       <c r="F108">
@@ -6076,7 +6047,7 @@
       </c>
       <c r="Q108" s="1"/>
     </row>
-    <row r="109" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -6086,10 +6057,10 @@
       <c r="C109">
         <v>7</v>
       </c>
-      <c r="D109" s="3">
+      <c r="D109">
         <v>9</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109">
         <v>8</v>
       </c>
       <c r="F109">
@@ -6122,7 +6093,7 @@
       </c>
       <c r="Q109" s="1"/>
     </row>
-    <row r="110" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -6132,10 +6103,10 @@
       <c r="C110">
         <v>8</v>
       </c>
-      <c r="D110" s="3">
+      <c r="D110">
         <v>9</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110">
         <v>9</v>
       </c>
       <c r="F110">
@@ -6168,7 +6139,7 @@
       </c>
       <c r="Q110" s="1"/>
     </row>
-    <row r="111" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -6178,10 +6149,10 @@
       <c r="C111">
         <v>9</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D111">
         <v>9</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111">
         <v>10</v>
       </c>
       <c r="F111">
@@ -6214,7 +6185,7 @@
       </c>
       <c r="Q111" s="1"/>
     </row>
-    <row r="112" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -6224,10 +6195,10 @@
       <c r="C112">
         <v>10</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D112">
         <v>9</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E112">
         <v>11</v>
       </c>
       <c r="F112">
@@ -6260,7 +6231,7 @@
       </c>
       <c r="Q112" s="1"/>
     </row>
-    <row r="113" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -6270,10 +6241,10 @@
       <c r="C113">
         <v>11</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D113">
         <v>9</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E113">
         <v>12</v>
       </c>
       <c r="F113">
@@ -6306,7 +6277,7 @@
       </c>
       <c r="Q113" s="1"/>
     </row>
-    <row r="114" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -6316,10 +6287,10 @@
       <c r="C114">
         <v>12</v>
       </c>
-      <c r="D114" s="3">
+      <c r="D114">
         <v>9</v>
       </c>
-      <c r="E114" s="3">
+      <c r="E114">
         <v>13</v>
       </c>
       <c r="F114">
@@ -6352,7 +6323,7 @@
       </c>
       <c r="Q114" s="1"/>
     </row>
-    <row r="115" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -6362,10 +6333,10 @@
       <c r="C115">
         <v>13</v>
       </c>
-      <c r="D115" s="3">
+      <c r="D115">
         <v>9</v>
       </c>
-      <c r="E115" s="3">
+      <c r="E115">
         <v>14</v>
       </c>
       <c r="F115">
@@ -6398,7 +6369,7 @@
       </c>
       <c r="Q115" s="1"/>
     </row>
-    <row r="116" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -6408,10 +6379,10 @@
       <c r="C116">
         <v>14</v>
       </c>
-      <c r="D116" s="3">
+      <c r="D116">
         <v>9</v>
       </c>
-      <c r="E116" s="3">
+      <c r="E116">
         <v>15</v>
       </c>
       <c r="F116">
@@ -6444,7 +6415,7 @@
       </c>
       <c r="Q116" s="1"/>
     </row>
-    <row r="117" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -6454,10 +6425,10 @@
       <c r="C117">
         <v>15</v>
       </c>
-      <c r="D117" s="3">
+      <c r="D117">
         <v>9</v>
       </c>
-      <c r="E117" s="3">
+      <c r="E117">
         <v>16</v>
       </c>
       <c r="F117">
@@ -6490,7 +6461,7 @@
       </c>
       <c r="Q117" s="1"/>
     </row>
-    <row r="118" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -6500,10 +6471,10 @@
       <c r="C118">
         <v>16</v>
       </c>
-      <c r="D118" s="3">
+      <c r="D118">
         <v>9</v>
       </c>
-      <c r="E118" s="3">
+      <c r="E118">
         <v>17</v>
       </c>
       <c r="F118">
@@ -6534,7 +6505,7 @@
       </c>
       <c r="Q118" s="1"/>
     </row>
-    <row r="119" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -6544,11 +6515,11 @@
       <c r="C119">
         <v>0.5</v>
       </c>
-      <c r="D119" s="3">
-        <v>8</v>
-      </c>
-      <c r="E119" s="3">
-        <v>1</v>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>2</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -6578,7 +6549,7 @@
       </c>
       <c r="Q119" s="1"/>
     </row>
-    <row r="120" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -6588,11 +6559,11 @@
       <c r="C120">
         <v>1.5</v>
       </c>
-      <c r="D120" s="3">
-        <v>8</v>
-      </c>
-      <c r="E120" s="3">
-        <v>2</v>
+      <c r="D120">
+        <v>10</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -6624,7 +6595,7 @@
       </c>
       <c r="Q120" s="1"/>
     </row>
-    <row r="121" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -6634,11 +6605,11 @@
       <c r="C121">
         <v>2.5</v>
       </c>
-      <c r="D121" s="3">
-        <v>8</v>
-      </c>
-      <c r="E121" s="3">
-        <v>3</v>
+      <c r="D121">
+        <v>10</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -6670,7 +6641,7 @@
       </c>
       <c r="Q121" s="1"/>
     </row>
-    <row r="122" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -6680,11 +6651,11 @@
       <c r="C122">
         <v>3.5</v>
       </c>
-      <c r="D122" s="3">
-        <v>8</v>
-      </c>
-      <c r="E122" s="3">
-        <v>4</v>
+      <c r="D122">
+        <v>10</v>
+      </c>
+      <c r="E122">
+        <v>5</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -6716,7 +6687,7 @@
       </c>
       <c r="Q122" s="1"/>
     </row>
-    <row r="123" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -6726,11 +6697,11 @@
       <c r="C123">
         <v>4.5</v>
       </c>
-      <c r="D123" s="3">
-        <v>8</v>
-      </c>
-      <c r="E123" s="3">
-        <v>5</v>
+      <c r="D123">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>6</v>
       </c>
       <c r="F123">
         <v>5</v>
@@ -6762,7 +6733,7 @@
       </c>
       <c r="Q123" s="1"/>
     </row>
-    <row r="124" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -6772,11 +6743,11 @@
       <c r="C124">
         <v>5.5</v>
       </c>
-      <c r="D124" s="3">
-        <v>8</v>
-      </c>
-      <c r="E124" s="3">
-        <v>6</v>
+      <c r="D124">
+        <v>10</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
       </c>
       <c r="F124">
         <v>6</v>
@@ -6808,7 +6779,7 @@
       </c>
       <c r="Q124" s="1"/>
     </row>
-    <row r="125" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -6818,11 +6789,11 @@
       <c r="C125">
         <v>6.5</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D125">
+        <v>10</v>
+      </c>
+      <c r="E125">
         <v>8</v>
-      </c>
-      <c r="E125" s="3">
-        <v>7</v>
       </c>
       <c r="F125">
         <v>7</v>
@@ -6854,7 +6825,7 @@
       </c>
       <c r="Q125" s="1"/>
     </row>
-    <row r="126" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -6864,11 +6835,11 @@
       <c r="C126">
         <v>7.5</v>
       </c>
-      <c r="D126" s="3">
-        <v>8</v>
-      </c>
-      <c r="E126" s="3">
-        <v>8</v>
+      <c r="D126">
+        <v>10</v>
+      </c>
+      <c r="E126">
+        <v>9</v>
       </c>
       <c r="F126">
         <v>8</v>
@@ -6900,7 +6871,7 @@
       </c>
       <c r="Q126" s="1"/>
     </row>
-    <row r="127" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -6910,11 +6881,11 @@
       <c r="C127">
         <v>8.5</v>
       </c>
-      <c r="D127" s="3">
-        <v>8</v>
-      </c>
-      <c r="E127" s="3">
-        <v>9</v>
+      <c r="D127">
+        <v>10</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
       </c>
       <c r="F127">
         <v>8</v>
@@ -6946,7 +6917,7 @@
       </c>
       <c r="Q127" s="1"/>
     </row>
-    <row r="128" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -6956,11 +6927,11 @@
       <c r="C128">
         <v>9.5</v>
       </c>
-      <c r="D128" s="3">
-        <v>8</v>
-      </c>
-      <c r="E128" s="3">
+      <c r="D128">
         <v>10</v>
+      </c>
+      <c r="E128">
+        <v>11</v>
       </c>
       <c r="F128">
         <v>7</v>
@@ -6992,7 +6963,7 @@
       </c>
       <c r="Q128" s="1"/>
     </row>
-    <row r="129" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -7002,11 +6973,11 @@
       <c r="C129">
         <v>10.5</v>
       </c>
-      <c r="D129" s="3">
-        <v>8</v>
-      </c>
-      <c r="E129" s="3">
-        <v>11</v>
+      <c r="D129">
+        <v>10</v>
+      </c>
+      <c r="E129">
+        <v>12</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -7038,7 +7009,7 @@
       </c>
       <c r="Q129" s="1"/>
     </row>
-    <row r="130" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -7048,11 +7019,11 @@
       <c r="C130">
         <v>11.5</v>
       </c>
-      <c r="D130" s="3">
-        <v>8</v>
-      </c>
-      <c r="E130" s="3">
-        <v>12</v>
+      <c r="D130">
+        <v>10</v>
+      </c>
+      <c r="E130">
+        <v>13</v>
       </c>
       <c r="F130">
         <v>5</v>
@@ -7084,7 +7055,7 @@
       </c>
       <c r="Q130" s="1"/>
     </row>
-    <row r="131" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -7094,11 +7065,11 @@
       <c r="C131">
         <v>12.5</v>
       </c>
-      <c r="D131" s="3">
-        <v>8</v>
-      </c>
-      <c r="E131" s="3">
-        <v>13</v>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131">
+        <v>14</v>
       </c>
       <c r="F131">
         <v>4</v>
@@ -7130,7 +7101,7 @@
       </c>
       <c r="Q131" s="1"/>
     </row>
-    <row r="132" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -7140,11 +7111,11 @@
       <c r="C132">
         <v>13.5</v>
       </c>
-      <c r="D132" s="3">
-        <v>8</v>
-      </c>
-      <c r="E132" s="3">
-        <v>14</v>
+      <c r="D132">
+        <v>10</v>
+      </c>
+      <c r="E132">
+        <v>15</v>
       </c>
       <c r="F132">
         <v>3</v>
@@ -7176,7 +7147,7 @@
       </c>
       <c r="Q132" s="1"/>
     </row>
-    <row r="133" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -7186,11 +7157,11 @@
       <c r="C133">
         <v>14.5</v>
       </c>
-      <c r="D133" s="3">
-        <v>8</v>
-      </c>
-      <c r="E133" s="3">
-        <v>15</v>
+      <c r="D133">
+        <v>10</v>
+      </c>
+      <c r="E133">
+        <v>16</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -7222,7 +7193,7 @@
       </c>
       <c r="Q133" s="1"/>
     </row>
-    <row r="134" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -7232,11 +7203,11 @@
       <c r="C134">
         <v>15.5</v>
       </c>
-      <c r="D134" s="3">
-        <v>8</v>
-      </c>
-      <c r="E134" s="3">
-        <v>16</v>
+      <c r="D134">
+        <v>10</v>
+      </c>
+      <c r="E134">
+        <v>17</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -7266,7 +7237,7 @@
       </c>
       <c r="Q134" s="1"/>
     </row>
-    <row r="135" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -7276,11 +7247,11 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="3">
-        <v>7</v>
-      </c>
-      <c r="E135" s="3">
-        <v>1</v>
+      <c r="D135">
+        <v>11</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -7312,7 +7283,7 @@
       </c>
       <c r="Q135" s="1"/>
     </row>
-    <row r="136" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -7322,11 +7293,11 @@
       <c r="C136">
         <v>2</v>
       </c>
-      <c r="D136" s="3">
-        <v>7</v>
-      </c>
-      <c r="E136" s="3">
-        <v>2</v>
+      <c r="D136">
+        <v>11</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
       </c>
       <c r="F136">
         <v>2</v>
@@ -7358,7 +7329,7 @@
       </c>
       <c r="Q136" s="1"/>
     </row>
-    <row r="137" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -7368,11 +7339,11 @@
       <c r="C137">
         <v>3</v>
       </c>
-      <c r="D137" s="3">
-        <v>7</v>
-      </c>
-      <c r="E137" s="3">
-        <v>3</v>
+      <c r="D137">
+        <v>11</v>
+      </c>
+      <c r="E137">
+        <v>5</v>
       </c>
       <c r="F137">
         <v>3</v>
@@ -7404,7 +7375,7 @@
       </c>
       <c r="Q137" s="1"/>
     </row>
-    <row r="138" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -7414,11 +7385,11 @@
       <c r="C138">
         <v>4</v>
       </c>
-      <c r="D138" s="3">
-        <v>7</v>
-      </c>
-      <c r="E138" s="3">
-        <v>4</v>
+      <c r="D138">
+        <v>11</v>
+      </c>
+      <c r="E138">
+        <v>6</v>
       </c>
       <c r="F138">
         <v>4</v>
@@ -7450,7 +7421,7 @@
       </c>
       <c r="Q138" s="1"/>
     </row>
-    <row r="139" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -7460,11 +7431,11 @@
       <c r="C139">
         <v>5</v>
       </c>
-      <c r="D139" s="3">
+      <c r="D139">
+        <v>11</v>
+      </c>
+      <c r="E139">
         <v>7</v>
-      </c>
-      <c r="E139" s="3">
-        <v>5</v>
       </c>
       <c r="F139">
         <v>5</v>
@@ -7496,7 +7467,7 @@
       </c>
       <c r="Q139" s="1"/>
     </row>
-    <row r="140" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -7506,11 +7477,11 @@
       <c r="C140">
         <v>6</v>
       </c>
-      <c r="D140" s="3">
-        <v>7</v>
-      </c>
-      <c r="E140" s="3">
-        <v>6</v>
+      <c r="D140">
+        <v>11</v>
+      </c>
+      <c r="E140">
+        <v>8</v>
       </c>
       <c r="F140">
         <v>6</v>
@@ -7542,7 +7513,7 @@
       </c>
       <c r="Q140" s="1"/>
     </row>
-    <row r="141" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -7552,11 +7523,11 @@
       <c r="C141">
         <v>7</v>
       </c>
-      <c r="D141" s="3">
-        <v>7</v>
-      </c>
-      <c r="E141" s="3">
-        <v>7</v>
+      <c r="D141">
+        <v>11</v>
+      </c>
+      <c r="E141">
+        <v>9</v>
       </c>
       <c r="F141">
         <v>7</v>
@@ -7588,7 +7559,7 @@
       </c>
       <c r="Q141" s="1"/>
     </row>
-    <row r="142" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -7598,11 +7569,11 @@
       <c r="C142">
         <v>8</v>
       </c>
-      <c r="D142" s="3">
-        <v>7</v>
-      </c>
-      <c r="E142" s="3">
-        <v>8</v>
+      <c r="D142">
+        <v>11</v>
+      </c>
+      <c r="E142">
+        <v>10</v>
       </c>
       <c r="F142">
         <v>7</v>
@@ -7634,7 +7605,7 @@
       </c>
       <c r="Q142" s="1"/>
     </row>
-    <row r="143" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -7644,11 +7615,11 @@
       <c r="C143">
         <v>9</v>
       </c>
-      <c r="D143" s="3">
-        <v>7</v>
-      </c>
-      <c r="E143" s="3">
-        <v>9</v>
+      <c r="D143">
+        <v>11</v>
+      </c>
+      <c r="E143">
+        <v>11</v>
       </c>
       <c r="F143">
         <v>7</v>
@@ -7680,7 +7651,7 @@
       </c>
       <c r="Q143" s="1"/>
     </row>
-    <row r="144" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -7690,11 +7661,11 @@
       <c r="C144">
         <v>10</v>
       </c>
-      <c r="D144" s="3">
-        <v>7</v>
-      </c>
-      <c r="E144" s="3">
-        <v>10</v>
+      <c r="D144">
+        <v>11</v>
+      </c>
+      <c r="E144">
+        <v>12</v>
       </c>
       <c r="F144">
         <v>6</v>
@@ -7726,7 +7697,7 @@
       </c>
       <c r="Q144" s="1"/>
     </row>
-    <row r="145" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -7736,11 +7707,11 @@
       <c r="C145">
         <v>11</v>
       </c>
-      <c r="D145" s="3">
-        <v>7</v>
-      </c>
-      <c r="E145" s="3">
+      <c r="D145">
         <v>11</v>
+      </c>
+      <c r="E145">
+        <v>13</v>
       </c>
       <c r="F145">
         <v>5</v>
@@ -7772,7 +7743,7 @@
       </c>
       <c r="Q145" s="1"/>
     </row>
-    <row r="146" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -7782,11 +7753,11 @@
       <c r="C146">
         <v>12</v>
       </c>
-      <c r="D146" s="3">
-        <v>7</v>
-      </c>
-      <c r="E146" s="3">
-        <v>12</v>
+      <c r="D146">
+        <v>11</v>
+      </c>
+      <c r="E146">
+        <v>14</v>
       </c>
       <c r="F146">
         <v>4</v>
@@ -7818,7 +7789,7 @@
       </c>
       <c r="Q146" s="1"/>
     </row>
-    <row r="147" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -7828,11 +7799,11 @@
       <c r="C147">
         <v>13</v>
       </c>
-      <c r="D147" s="3">
-        <v>7</v>
-      </c>
-      <c r="E147" s="3">
-        <v>13</v>
+      <c r="D147">
+        <v>11</v>
+      </c>
+      <c r="E147">
+        <v>15</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -7864,7 +7835,7 @@
       </c>
       <c r="Q147" s="1"/>
     </row>
-    <row r="148" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -7874,11 +7845,11 @@
       <c r="C148">
         <v>14</v>
       </c>
-      <c r="D148" s="3">
-        <v>7</v>
-      </c>
-      <c r="E148" s="3">
-        <v>14</v>
+      <c r="D148">
+        <v>11</v>
+      </c>
+      <c r="E148">
+        <v>16</v>
       </c>
       <c r="F148">
         <v>2</v>
@@ -7910,7 +7881,7 @@
       </c>
       <c r="Q148" s="1"/>
     </row>
-    <row r="149" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -7920,11 +7891,11 @@
       <c r="C149">
         <v>15</v>
       </c>
-      <c r="D149" s="3">
-        <v>7</v>
-      </c>
-      <c r="E149" s="3">
-        <v>15</v>
+      <c r="D149">
+        <v>11</v>
+      </c>
+      <c r="E149">
+        <v>17</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -7956,7 +7927,7 @@
       </c>
       <c r="Q149" s="1"/>
     </row>
-    <row r="150" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -7966,11 +7937,11 @@
       <c r="C150">
         <v>1.5</v>
       </c>
-      <c r="D150" s="3">
-        <v>6</v>
-      </c>
-      <c r="E150" s="3">
-        <v>1</v>
+      <c r="D150">
+        <v>12</v>
+      </c>
+      <c r="E150">
+        <v>4</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -8000,7 +7971,7 @@
       </c>
       <c r="Q150" s="1"/>
     </row>
-    <row r="151" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -8010,11 +7981,11 @@
       <c r="C151">
         <v>2.5</v>
       </c>
-      <c r="D151" s="3">
-        <v>6</v>
-      </c>
-      <c r="E151" s="3">
-        <v>2</v>
+      <c r="D151">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>5</v>
       </c>
       <c r="F151">
         <v>2</v>
@@ -8046,7 +8017,7 @@
       </c>
       <c r="Q151" s="1"/>
     </row>
-    <row r="152" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -8056,11 +8027,11 @@
       <c r="C152">
         <v>3.5</v>
       </c>
-      <c r="D152" s="3">
+      <c r="D152">
+        <v>12</v>
+      </c>
+      <c r="E152">
         <v>6</v>
-      </c>
-      <c r="E152" s="3">
-        <v>3</v>
       </c>
       <c r="F152">
         <v>3</v>
@@ -8092,7 +8063,7 @@
       </c>
       <c r="Q152" s="1"/>
     </row>
-    <row r="153" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -8102,11 +8073,11 @@
       <c r="C153">
         <v>4.5</v>
       </c>
-      <c r="D153" s="3">
-        <v>6</v>
-      </c>
-      <c r="E153" s="3">
-        <v>4</v>
+      <c r="D153">
+        <v>12</v>
+      </c>
+      <c r="E153">
+        <v>7</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -8138,7 +8109,7 @@
       </c>
       <c r="Q153" s="1"/>
     </row>
-    <row r="154" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -8148,11 +8119,11 @@
       <c r="C154">
         <v>5.5</v>
       </c>
-      <c r="D154" s="3">
-        <v>6</v>
-      </c>
-      <c r="E154" s="3">
-        <v>5</v>
+      <c r="D154">
+        <v>12</v>
+      </c>
+      <c r="E154">
+        <v>8</v>
       </c>
       <c r="F154">
         <v>5</v>
@@ -8184,7 +8155,7 @@
       </c>
       <c r="Q154" s="1"/>
     </row>
-    <row r="155" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -8194,11 +8165,11 @@
       <c r="C155">
         <v>6.5</v>
       </c>
-      <c r="D155" s="3">
-        <v>6</v>
-      </c>
-      <c r="E155" s="3">
-        <v>6</v>
+      <c r="D155">
+        <v>12</v>
+      </c>
+      <c r="E155">
+        <v>9</v>
       </c>
       <c r="F155">
         <v>6</v>
@@ -8230,7 +8201,7 @@
       </c>
       <c r="Q155" s="1"/>
     </row>
-    <row r="156" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -8240,11 +8211,11 @@
       <c r="C156">
         <v>7.5</v>
       </c>
-      <c r="D156" s="3">
-        <v>6</v>
-      </c>
-      <c r="E156" s="3">
-        <v>7</v>
+      <c r="D156">
+        <v>12</v>
+      </c>
+      <c r="E156">
+        <v>10</v>
       </c>
       <c r="F156">
         <v>6</v>
@@ -8276,7 +8247,7 @@
       </c>
       <c r="Q156" s="1"/>
     </row>
-    <row r="157" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -8286,11 +8257,11 @@
       <c r="C157">
         <v>8.5</v>
       </c>
-      <c r="D157" s="3">
-        <v>6</v>
-      </c>
-      <c r="E157" s="3">
-        <v>8</v>
+      <c r="D157">
+        <v>12</v>
+      </c>
+      <c r="E157">
+        <v>11</v>
       </c>
       <c r="F157">
         <v>6</v>
@@ -8322,7 +8293,7 @@
       </c>
       <c r="Q157" s="1"/>
     </row>
-    <row r="158" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -8332,11 +8303,11 @@
       <c r="C158">
         <v>9.5</v>
       </c>
-      <c r="D158" s="3">
-        <v>6</v>
-      </c>
-      <c r="E158" s="3">
-        <v>9</v>
+      <c r="D158">
+        <v>12</v>
+      </c>
+      <c r="E158">
+        <v>12</v>
       </c>
       <c r="F158">
         <v>6</v>
@@ -8368,7 +8339,7 @@
       </c>
       <c r="Q158" s="1"/>
     </row>
-    <row r="159" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -8378,11 +8349,11 @@
       <c r="C159">
         <v>10.5</v>
       </c>
-      <c r="D159" s="3">
-        <v>6</v>
-      </c>
-      <c r="E159" s="3">
-        <v>10</v>
+      <c r="D159">
+        <v>12</v>
+      </c>
+      <c r="E159">
+        <v>13</v>
       </c>
       <c r="F159">
         <v>5</v>
@@ -8414,7 +8385,7 @@
       </c>
       <c r="Q159" s="1"/>
     </row>
-    <row r="160" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -8424,11 +8395,11 @@
       <c r="C160">
         <v>11.5</v>
       </c>
-      <c r="D160" s="3">
-        <v>6</v>
-      </c>
-      <c r="E160" s="3">
-        <v>11</v>
+      <c r="D160">
+        <v>12</v>
+      </c>
+      <c r="E160">
+        <v>14</v>
       </c>
       <c r="F160">
         <v>4</v>
@@ -8460,7 +8431,7 @@
       </c>
       <c r="Q160" s="1"/>
     </row>
-    <row r="161" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -8470,11 +8441,11 @@
       <c r="C161">
         <v>12.5</v>
       </c>
-      <c r="D161" s="3">
-        <v>6</v>
-      </c>
-      <c r="E161" s="3">
+      <c r="D161">
         <v>12</v>
+      </c>
+      <c r="E161">
+        <v>15</v>
       </c>
       <c r="F161">
         <v>3</v>
@@ -8506,7 +8477,7 @@
       </c>
       <c r="Q161" s="1"/>
     </row>
-    <row r="162" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -8516,11 +8487,11 @@
       <c r="C162">
         <v>13.5</v>
       </c>
-      <c r="D162" s="3">
-        <v>6</v>
-      </c>
-      <c r="E162" s="3">
-        <v>13</v>
+      <c r="D162">
+        <v>12</v>
+      </c>
+      <c r="E162">
+        <v>16</v>
       </c>
       <c r="F162">
         <v>2</v>
@@ -8552,7 +8523,7 @@
       </c>
       <c r="Q162" s="1"/>
     </row>
-    <row r="163" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -8562,11 +8533,11 @@
       <c r="C163">
         <v>14.5</v>
       </c>
-      <c r="D163" s="3">
-        <v>6</v>
-      </c>
-      <c r="E163" s="3">
-        <v>14</v>
+      <c r="D163">
+        <v>12</v>
+      </c>
+      <c r="E163">
+        <v>17</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -8596,7 +8567,7 @@
       </c>
       <c r="Q163" s="1"/>
     </row>
-    <row r="164" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -8606,11 +8577,11 @@
       <c r="C164">
         <v>2</v>
       </c>
-      <c r="D164" s="3">
-        <v>5</v>
-      </c>
-      <c r="E164" s="3">
-        <v>1</v>
+      <c r="D164">
+        <v>13</v>
+      </c>
+      <c r="E164">
+        <v>5</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -8640,7 +8611,7 @@
       </c>
       <c r="Q164" s="1"/>
     </row>
-    <row r="165" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -8650,11 +8621,11 @@
       <c r="C165">
         <v>3</v>
       </c>
-      <c r="D165" s="3">
-        <v>5</v>
-      </c>
-      <c r="E165" s="3">
-        <v>2</v>
+      <c r="D165">
+        <v>13</v>
+      </c>
+      <c r="E165">
+        <v>6</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -8686,7 +8657,7 @@
       </c>
       <c r="Q165" s="1"/>
     </row>
-    <row r="166" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -8696,11 +8667,11 @@
       <c r="C166">
         <v>4</v>
       </c>
-      <c r="D166" s="3">
-        <v>5</v>
-      </c>
-      <c r="E166" s="3">
-        <v>3</v>
+      <c r="D166">
+        <v>13</v>
+      </c>
+      <c r="E166">
+        <v>7</v>
       </c>
       <c r="F166">
         <v>3</v>
@@ -8732,7 +8703,7 @@
       </c>
       <c r="Q166" s="1"/>
     </row>
-    <row r="167" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -8742,11 +8713,11 @@
       <c r="C167">
         <v>5</v>
       </c>
-      <c r="D167" s="3">
-        <v>5</v>
-      </c>
-      <c r="E167" s="3">
-        <v>4</v>
+      <c r="D167">
+        <v>13</v>
+      </c>
+      <c r="E167">
+        <v>8</v>
       </c>
       <c r="F167">
         <v>4</v>
@@ -8778,7 +8749,7 @@
       </c>
       <c r="Q167" s="1"/>
     </row>
-    <row r="168" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -8788,11 +8759,11 @@
       <c r="C168">
         <v>6</v>
       </c>
-      <c r="D168" s="3">
-        <v>5</v>
-      </c>
-      <c r="E168" s="3">
-        <v>5</v>
+      <c r="D168">
+        <v>13</v>
+      </c>
+      <c r="E168">
+        <v>9</v>
       </c>
       <c r="F168">
         <v>5</v>
@@ -8824,7 +8795,7 @@
       </c>
       <c r="Q168" s="1"/>
     </row>
-    <row r="169" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -8834,11 +8805,11 @@
       <c r="C169">
         <v>7</v>
       </c>
-      <c r="D169" s="3">
-        <v>5</v>
-      </c>
-      <c r="E169" s="3">
-        <v>6</v>
+      <c r="D169">
+        <v>13</v>
+      </c>
+      <c r="E169">
+        <v>10</v>
       </c>
       <c r="F169">
         <v>5</v>
@@ -8870,7 +8841,7 @@
       </c>
       <c r="Q169" s="1"/>
     </row>
-    <row r="170" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -8880,11 +8851,11 @@
       <c r="C170">
         <v>8</v>
       </c>
-      <c r="D170" s="3">
-        <v>5</v>
-      </c>
-      <c r="E170" s="3">
-        <v>7</v>
+      <c r="D170">
+        <v>13</v>
+      </c>
+      <c r="E170">
+        <v>11</v>
       </c>
       <c r="F170">
         <v>5</v>
@@ -8916,7 +8887,7 @@
       </c>
       <c r="Q170" s="1"/>
     </row>
-    <row r="171" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -8926,11 +8897,11 @@
       <c r="C171">
         <v>9</v>
       </c>
-      <c r="D171" s="3">
-        <v>5</v>
-      </c>
-      <c r="E171" s="3">
-        <v>8</v>
+      <c r="D171">
+        <v>13</v>
+      </c>
+      <c r="E171">
+        <v>12</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -8962,7 +8933,7 @@
       </c>
       <c r="Q171" s="1"/>
     </row>
-    <row r="172" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -8972,11 +8943,11 @@
       <c r="C172">
         <v>10</v>
       </c>
-      <c r="D172" s="3">
-        <v>5</v>
-      </c>
-      <c r="E172" s="3">
-        <v>9</v>
+      <c r="D172">
+        <v>13</v>
+      </c>
+      <c r="E172">
+        <v>13</v>
       </c>
       <c r="F172">
         <v>5</v>
@@ -9008,7 +8979,7 @@
       </c>
       <c r="Q172" s="1"/>
     </row>
-    <row r="173" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -9018,11 +8989,11 @@
       <c r="C173">
         <v>11</v>
       </c>
-      <c r="D173" s="3">
-        <v>5</v>
-      </c>
-      <c r="E173" s="3">
-        <v>10</v>
+      <c r="D173">
+        <v>13</v>
+      </c>
+      <c r="E173">
+        <v>14</v>
       </c>
       <c r="F173">
         <v>4</v>
@@ -9054,7 +9025,7 @@
       </c>
       <c r="Q173" s="1"/>
     </row>
-    <row r="174" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -9064,11 +9035,11 @@
       <c r="C174">
         <v>12</v>
       </c>
-      <c r="D174" s="3">
-        <v>5</v>
-      </c>
-      <c r="E174" s="3">
-        <v>11</v>
+      <c r="D174">
+        <v>13</v>
+      </c>
+      <c r="E174">
+        <v>15</v>
       </c>
       <c r="F174">
         <v>3</v>
@@ -9100,7 +9071,7 @@
       </c>
       <c r="Q174" s="1"/>
     </row>
-    <row r="175" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -9110,11 +9081,11 @@
       <c r="C175">
         <v>13</v>
       </c>
-      <c r="D175" s="3">
-        <v>5</v>
-      </c>
-      <c r="E175" s="3">
-        <v>12</v>
+      <c r="D175">
+        <v>13</v>
+      </c>
+      <c r="E175">
+        <v>16</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -9146,7 +9117,7 @@
       </c>
       <c r="Q175" s="1"/>
     </row>
-    <row r="176" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -9156,11 +9127,11 @@
       <c r="C176">
         <v>14</v>
       </c>
-      <c r="D176" s="3">
-        <v>5</v>
-      </c>
-      <c r="E176" s="3">
+      <c r="D176">
         <v>13</v>
+      </c>
+      <c r="E176">
+        <v>17</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -9190,7 +9161,7 @@
       </c>
       <c r="Q176" s="1"/>
     </row>
-    <row r="177" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -9200,11 +9171,11 @@
       <c r="C177">
         <v>2.5</v>
       </c>
-      <c r="D177" s="3">
-        <v>4</v>
-      </c>
-      <c r="E177" s="3">
-        <v>1</v>
+      <c r="D177">
+        <v>14</v>
+      </c>
+      <c r="E177">
+        <v>6</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -9234,7 +9205,7 @@
       </c>
       <c r="Q177" s="1"/>
     </row>
-    <row r="178" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -9244,11 +9215,11 @@
       <c r="C178">
         <v>3.5</v>
       </c>
-      <c r="D178" s="3">
-        <v>4</v>
-      </c>
-      <c r="E178" s="3">
-        <v>2</v>
+      <c r="D178">
+        <v>14</v>
+      </c>
+      <c r="E178">
+        <v>7</v>
       </c>
       <c r="F178">
         <v>2</v>
@@ -9280,7 +9251,7 @@
       </c>
       <c r="Q178" s="1"/>
     </row>
-    <row r="179" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>192</v>
       </c>
@@ -9290,11 +9261,11 @@
       <c r="C179">
         <v>4.5</v>
       </c>
-      <c r="D179" s="3">
-        <v>4</v>
-      </c>
-      <c r="E179" s="3">
-        <v>3</v>
+      <c r="D179">
+        <v>14</v>
+      </c>
+      <c r="E179">
+        <v>8</v>
       </c>
       <c r="F179">
         <v>3</v>
@@ -9326,7 +9297,7 @@
       </c>
       <c r="Q179" s="1"/>
     </row>
-    <row r="180" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -9336,11 +9307,11 @@
       <c r="C180">
         <v>5.5</v>
       </c>
-      <c r="D180" s="3">
-        <v>4</v>
-      </c>
-      <c r="E180" s="3">
-        <v>4</v>
+      <c r="D180">
+        <v>14</v>
+      </c>
+      <c r="E180">
+        <v>9</v>
       </c>
       <c r="F180">
         <v>4</v>
@@ -9372,7 +9343,7 @@
       </c>
       <c r="Q180" s="1"/>
     </row>
-    <row r="181" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>194</v>
       </c>
@@ -9382,11 +9353,11 @@
       <c r="C181">
         <v>6.5</v>
       </c>
-      <c r="D181" s="3">
-        <v>4</v>
-      </c>
-      <c r="E181" s="3">
-        <v>5</v>
+      <c r="D181">
+        <v>14</v>
+      </c>
+      <c r="E181">
+        <v>10</v>
       </c>
       <c r="F181">
         <v>4</v>
@@ -9418,7 +9389,7 @@
       </c>
       <c r="Q181" s="1"/>
     </row>
-    <row r="182" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>195</v>
       </c>
@@ -9428,11 +9399,11 @@
       <c r="C182">
         <v>7.5</v>
       </c>
-      <c r="D182" s="3">
-        <v>4</v>
-      </c>
-      <c r="E182" s="3">
-        <v>6</v>
+      <c r="D182">
+        <v>14</v>
+      </c>
+      <c r="E182">
+        <v>11</v>
       </c>
       <c r="F182">
         <v>4</v>
@@ -9464,7 +9435,7 @@
       </c>
       <c r="Q182" s="1"/>
     </row>
-    <row r="183" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>196</v>
       </c>
@@ -9474,11 +9445,11 @@
       <c r="C183">
         <v>8.5</v>
       </c>
-      <c r="D183" s="3">
-        <v>4</v>
-      </c>
-      <c r="E183" s="3">
-        <v>7</v>
+      <c r="D183">
+        <v>14</v>
+      </c>
+      <c r="E183">
+        <v>12</v>
       </c>
       <c r="F183">
         <v>4</v>
@@ -9510,7 +9481,7 @@
       </c>
       <c r="Q183" s="1"/>
     </row>
-    <row r="184" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>197</v>
       </c>
@@ -9520,11 +9491,11 @@
       <c r="C184">
         <v>9.5</v>
       </c>
-      <c r="D184" s="3">
-        <v>4</v>
-      </c>
-      <c r="E184" s="3">
-        <v>8</v>
+      <c r="D184">
+        <v>14</v>
+      </c>
+      <c r="E184">
+        <v>13</v>
       </c>
       <c r="F184">
         <v>4</v>
@@ -9556,7 +9527,7 @@
       </c>
       <c r="Q184" s="1"/>
     </row>
-    <row r="185" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -9566,11 +9537,11 @@
       <c r="C185">
         <v>10.5</v>
       </c>
-      <c r="D185" s="3">
-        <v>4</v>
-      </c>
-      <c r="E185" s="3">
-        <v>9</v>
+      <c r="D185">
+        <v>14</v>
+      </c>
+      <c r="E185">
+        <v>14</v>
       </c>
       <c r="F185">
         <v>4</v>
@@ -9602,7 +9573,7 @@
       </c>
       <c r="Q185" s="1"/>
     </row>
-    <row r="186" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>199</v>
       </c>
@@ -9612,11 +9583,11 @@
       <c r="C186">
         <v>11.5</v>
       </c>
-      <c r="D186" s="3">
-        <v>4</v>
-      </c>
-      <c r="E186" s="3">
-        <v>10</v>
+      <c r="D186">
+        <v>14</v>
+      </c>
+      <c r="E186">
+        <v>15</v>
       </c>
       <c r="F186">
         <v>3</v>
@@ -9648,7 +9619,7 @@
       </c>
       <c r="Q186" s="1"/>
     </row>
-    <row r="187" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -9658,11 +9629,11 @@
       <c r="C187">
         <v>12.5</v>
       </c>
-      <c r="D187" s="3">
-        <v>4</v>
-      </c>
-      <c r="E187" s="3">
-        <v>11</v>
+      <c r="D187">
+        <v>14</v>
+      </c>
+      <c r="E187">
+        <v>16</v>
       </c>
       <c r="F187">
         <v>2</v>
@@ -9694,7 +9665,7 @@
       </c>
       <c r="Q187" s="1"/>
     </row>
-    <row r="188" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -9704,11 +9675,11 @@
       <c r="C188">
         <v>13.5</v>
       </c>
-      <c r="D188" s="3">
-        <v>4</v>
-      </c>
-      <c r="E188" s="3">
-        <v>12</v>
+      <c r="D188">
+        <v>14</v>
+      </c>
+      <c r="E188">
+        <v>17</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -9738,7 +9709,7 @@
       </c>
       <c r="Q188" s="1"/>
     </row>
-    <row r="189" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -9748,11 +9719,11 @@
       <c r="C189">
         <v>3</v>
       </c>
-      <c r="D189" s="3">
-        <v>3</v>
-      </c>
-      <c r="E189" s="3">
-        <v>1</v>
+      <c r="D189">
+        <v>15</v>
+      </c>
+      <c r="E189">
+        <v>7</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -9784,7 +9755,7 @@
       </c>
       <c r="Q189" s="1"/>
     </row>
-    <row r="190" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -9794,11 +9765,11 @@
       <c r="C190">
         <v>4</v>
       </c>
-      <c r="D190" s="3">
-        <v>3</v>
-      </c>
-      <c r="E190" s="3">
-        <v>2</v>
+      <c r="D190">
+        <v>15</v>
+      </c>
+      <c r="E190">
+        <v>8</v>
       </c>
       <c r="F190">
         <v>2</v>
@@ -9830,7 +9801,7 @@
       </c>
       <c r="Q190" s="1"/>
     </row>
-    <row r="191" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -9840,11 +9811,11 @@
       <c r="C191">
         <v>5</v>
       </c>
-      <c r="D191" s="3">
-        <v>3</v>
-      </c>
-      <c r="E191" s="3">
-        <v>3</v>
+      <c r="D191">
+        <v>15</v>
+      </c>
+      <c r="E191">
+        <v>9</v>
       </c>
       <c r="F191">
         <v>3</v>
@@ -9876,7 +9847,7 @@
       </c>
       <c r="Q191" s="1"/>
     </row>
-    <row r="192" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>205</v>
       </c>
@@ -9886,11 +9857,11 @@
       <c r="C192">
         <v>6</v>
       </c>
-      <c r="D192" s="3">
-        <v>3</v>
-      </c>
-      <c r="E192" s="3">
-        <v>4</v>
+      <c r="D192">
+        <v>15</v>
+      </c>
+      <c r="E192">
+        <v>10</v>
       </c>
       <c r="F192">
         <v>3</v>
@@ -9922,7 +9893,7 @@
       </c>
       <c r="Q192" s="1"/>
     </row>
-    <row r="193" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>206</v>
       </c>
@@ -9932,11 +9903,11 @@
       <c r="C193">
         <v>7</v>
       </c>
-      <c r="D193" s="3">
-        <v>3</v>
-      </c>
-      <c r="E193" s="3">
-        <v>5</v>
+      <c r="D193">
+        <v>15</v>
+      </c>
+      <c r="E193">
+        <v>11</v>
       </c>
       <c r="F193">
         <v>3</v>
@@ -9968,7 +9939,7 @@
       </c>
       <c r="Q193" s="1"/>
     </row>
-    <row r="194" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -9978,11 +9949,11 @@
       <c r="C194">
         <v>8</v>
       </c>
-      <c r="D194" s="3">
-        <v>3</v>
-      </c>
-      <c r="E194" s="3">
-        <v>6</v>
+      <c r="D194">
+        <v>15</v>
+      </c>
+      <c r="E194">
+        <v>12</v>
       </c>
       <c r="F194">
         <v>3</v>
@@ -10014,7 +9985,7 @@
       </c>
       <c r="Q194" s="1"/>
     </row>
-    <row r="195" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>208</v>
       </c>
@@ -10024,11 +9995,11 @@
       <c r="C195">
         <v>9</v>
       </c>
-      <c r="D195" s="3">
-        <v>3</v>
-      </c>
-      <c r="E195" s="3">
-        <v>7</v>
+      <c r="D195">
+        <v>15</v>
+      </c>
+      <c r="E195">
+        <v>13</v>
       </c>
       <c r="F195">
         <v>3</v>
@@ -10060,7 +10031,7 @@
       </c>
       <c r="Q195" s="1"/>
     </row>
-    <row r="196" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -10070,11 +10041,11 @@
       <c r="C196">
         <v>10</v>
       </c>
-      <c r="D196" s="3">
-        <v>3</v>
-      </c>
-      <c r="E196" s="3">
-        <v>8</v>
+      <c r="D196">
+        <v>15</v>
+      </c>
+      <c r="E196">
+        <v>14</v>
       </c>
       <c r="F196">
         <v>3</v>
@@ -10106,7 +10077,7 @@
       </c>
       <c r="Q196" s="1"/>
     </row>
-    <row r="197" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>210</v>
       </c>
@@ -10116,11 +10087,11 @@
       <c r="C197">
         <v>11</v>
       </c>
-      <c r="D197" s="3">
-        <v>3</v>
-      </c>
-      <c r="E197" s="3">
-        <v>9</v>
+      <c r="D197">
+        <v>15</v>
+      </c>
+      <c r="E197">
+        <v>15</v>
       </c>
       <c r="F197">
         <v>3</v>
@@ -10152,7 +10123,7 @@
       </c>
       <c r="Q197" s="1"/>
     </row>
-    <row r="198" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>211</v>
       </c>
@@ -10162,11 +10133,11 @@
       <c r="C198">
         <v>12</v>
       </c>
-      <c r="D198" s="3">
-        <v>3</v>
-      </c>
-      <c r="E198" s="3">
-        <v>10</v>
+      <c r="D198">
+        <v>15</v>
+      </c>
+      <c r="E198">
+        <v>16</v>
       </c>
       <c r="F198">
         <v>2</v>
@@ -10198,7 +10169,7 @@
       </c>
       <c r="Q198" s="1"/>
     </row>
-    <row r="199" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -10208,11 +10179,11 @@
       <c r="C199">
         <v>13</v>
       </c>
-      <c r="D199" s="3">
-        <v>3</v>
-      </c>
-      <c r="E199" s="3">
-        <v>11</v>
+      <c r="D199">
+        <v>15</v>
+      </c>
+      <c r="E199">
+        <v>17</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -10244,7 +10215,7 @@
       </c>
       <c r="Q199" s="1"/>
     </row>
-    <row r="200" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -10254,11 +10225,11 @@
       <c r="C200">
         <v>3.5</v>
       </c>
-      <c r="D200" s="3">
-        <v>2</v>
-      </c>
-      <c r="E200" s="3">
-        <v>1</v>
+      <c r="D200">
+        <v>16</v>
+      </c>
+      <c r="E200">
+        <v>8</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -10288,7 +10259,7 @@
       </c>
       <c r="Q200" s="1"/>
     </row>
-    <row r="201" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>214</v>
       </c>
@@ -10298,11 +10269,11 @@
       <c r="C201">
         <v>4.5</v>
       </c>
-      <c r="D201" s="3">
-        <v>2</v>
-      </c>
-      <c r="E201" s="3">
-        <v>2</v>
+      <c r="D201">
+        <v>16</v>
+      </c>
+      <c r="E201">
+        <v>9</v>
       </c>
       <c r="F201">
         <v>2</v>
@@ -10334,7 +10305,7 @@
       </c>
       <c r="Q201" s="1"/>
     </row>
-    <row r="202" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>215</v>
       </c>
@@ -10344,11 +10315,11 @@
       <c r="C202">
         <v>5.5</v>
       </c>
-      <c r="D202" s="3">
-        <v>2</v>
-      </c>
-      <c r="E202" s="3">
-        <v>3</v>
+      <c r="D202">
+        <v>16</v>
+      </c>
+      <c r="E202">
+        <v>10</v>
       </c>
       <c r="F202">
         <v>2</v>
@@ -10380,7 +10351,7 @@
       </c>
       <c r="Q202" s="1"/>
     </row>
-    <row r="203" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -10390,11 +10361,11 @@
       <c r="C203">
         <v>6.5</v>
       </c>
-      <c r="D203" s="3">
-        <v>2</v>
-      </c>
-      <c r="E203" s="3">
-        <v>4</v>
+      <c r="D203">
+        <v>16</v>
+      </c>
+      <c r="E203">
+        <v>11</v>
       </c>
       <c r="F203">
         <v>2</v>
@@ -10426,7 +10397,7 @@
       </c>
       <c r="Q203" s="1"/>
     </row>
-    <row r="204" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>217</v>
       </c>
@@ -10436,11 +10407,11 @@
       <c r="C204">
         <v>7.5</v>
       </c>
-      <c r="D204" s="3">
-        <v>2</v>
-      </c>
-      <c r="E204" s="3">
-        <v>5</v>
+      <c r="D204">
+        <v>16</v>
+      </c>
+      <c r="E204">
+        <v>12</v>
       </c>
       <c r="F204">
         <v>2</v>
@@ -10472,7 +10443,7 @@
       </c>
       <c r="Q204" s="1"/>
     </row>
-    <row r="205" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>218</v>
       </c>
@@ -10482,11 +10453,11 @@
       <c r="C205">
         <v>8.5</v>
       </c>
-      <c r="D205" s="3">
-        <v>2</v>
-      </c>
-      <c r="E205" s="3">
-        <v>6</v>
+      <c r="D205">
+        <v>16</v>
+      </c>
+      <c r="E205">
+        <v>13</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -10518,7 +10489,7 @@
       </c>
       <c r="Q205" s="1"/>
     </row>
-    <row r="206" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>219</v>
       </c>
@@ -10528,11 +10499,11 @@
       <c r="C206">
         <v>9.5</v>
       </c>
-      <c r="D206" s="3">
-        <v>2</v>
-      </c>
-      <c r="E206" s="3">
-        <v>7</v>
+      <c r="D206">
+        <v>16</v>
+      </c>
+      <c r="E206">
+        <v>14</v>
       </c>
       <c r="F206">
         <v>2</v>
@@ -10564,7 +10535,7 @@
       </c>
       <c r="Q206" s="1"/>
     </row>
-    <row r="207" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>220</v>
       </c>
@@ -10574,11 +10545,11 @@
       <c r="C207">
         <v>10.5</v>
       </c>
-      <c r="D207" s="3">
-        <v>2</v>
-      </c>
-      <c r="E207" s="3">
-        <v>8</v>
+      <c r="D207">
+        <v>16</v>
+      </c>
+      <c r="E207">
+        <v>15</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -10610,7 +10581,7 @@
       </c>
       <c r="Q207" s="1"/>
     </row>
-    <row r="208" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>221</v>
       </c>
@@ -10620,11 +10591,11 @@
       <c r="C208">
         <v>11.5</v>
       </c>
-      <c r="D208" s="3">
-        <v>2</v>
-      </c>
-      <c r="E208" s="3">
-        <v>9</v>
+      <c r="D208">
+        <v>16</v>
+      </c>
+      <c r="E208">
+        <v>16</v>
       </c>
       <c r="F208">
         <v>2</v>
@@ -10656,7 +10627,7 @@
       </c>
       <c r="Q208" s="1"/>
     </row>
-    <row r="209" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>222</v>
       </c>
@@ -10666,11 +10637,11 @@
       <c r="C209">
         <v>12.5</v>
       </c>
-      <c r="D209" s="3">
-        <v>2</v>
-      </c>
-      <c r="E209" s="3">
-        <v>10</v>
+      <c r="D209">
+        <v>16</v>
+      </c>
+      <c r="E209">
+        <v>17</v>
       </c>
       <c r="F209">
         <v>1</v>
@@ -10700,7 +10671,7 @@
       </c>
       <c r="Q209" s="1"/>
     </row>
-    <row r="210" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>223</v>
       </c>
@@ -10710,11 +10681,11 @@
       <c r="C210">
         <v>4</v>
       </c>
-      <c r="D210" s="3">
-        <v>1</v>
-      </c>
-      <c r="E210" s="3">
-        <v>1</v>
+      <c r="D210">
+        <v>17</v>
+      </c>
+      <c r="E210">
+        <v>9</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -10744,7 +10715,7 @@
       </c>
       <c r="Q210" s="1"/>
     </row>
-    <row r="211" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>224</v>
       </c>
@@ -10754,11 +10725,11 @@
       <c r="C211">
         <v>5</v>
       </c>
-      <c r="D211" s="3">
-        <v>1</v>
-      </c>
-      <c r="E211" s="3">
-        <v>2</v>
+      <c r="D211">
+        <v>17</v>
+      </c>
+      <c r="E211">
+        <v>10</v>
       </c>
       <c r="F211">
         <v>1</v>
@@ -10788,7 +10759,7 @@
       </c>
       <c r="Q211" s="1"/>
     </row>
-    <row r="212" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>225</v>
       </c>
@@ -10798,11 +10769,11 @@
       <c r="C212">
         <v>6</v>
       </c>
-      <c r="D212" s="3">
-        <v>1</v>
-      </c>
-      <c r="E212" s="3">
-        <v>3</v>
+      <c r="D212">
+        <v>17</v>
+      </c>
+      <c r="E212">
+        <v>11</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -10834,7 +10805,7 @@
       </c>
       <c r="Q212" s="1"/>
     </row>
-    <row r="213" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -10844,11 +10815,11 @@
       <c r="C213">
         <v>7</v>
       </c>
-      <c r="D213" s="3">
-        <v>1</v>
-      </c>
-      <c r="E213" s="3">
-        <v>4</v>
+      <c r="D213">
+        <v>17</v>
+      </c>
+      <c r="E213">
+        <v>12</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -10878,7 +10849,7 @@
       </c>
       <c r="Q213" s="1"/>
     </row>
-    <row r="214" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>227</v>
       </c>
@@ -10888,11 +10859,11 @@
       <c r="C214">
         <v>8</v>
       </c>
-      <c r="D214" s="3">
-        <v>1</v>
-      </c>
-      <c r="E214" s="3">
-        <v>5</v>
+      <c r="D214">
+        <v>17</v>
+      </c>
+      <c r="E214">
+        <v>13</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -10922,7 +10893,7 @@
       </c>
       <c r="Q214" s="1"/>
     </row>
-    <row r="215" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>228</v>
       </c>
@@ -10932,11 +10903,11 @@
       <c r="C215">
         <v>9</v>
       </c>
-      <c r="D215" s="3">
-        <v>1</v>
-      </c>
-      <c r="E215" s="3">
-        <v>6</v>
+      <c r="D215">
+        <v>17</v>
+      </c>
+      <c r="E215">
+        <v>14</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -10966,7 +10937,7 @@
       </c>
       <c r="Q215" s="1"/>
     </row>
-    <row r="216" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>229</v>
       </c>
@@ -10976,11 +10947,11 @@
       <c r="C216">
         <v>10</v>
       </c>
-      <c r="D216" s="3">
-        <v>1</v>
-      </c>
-      <c r="E216" s="3">
-        <v>7</v>
+      <c r="D216">
+        <v>17</v>
+      </c>
+      <c r="E216">
+        <v>15</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -11012,7 +10983,7 @@
       </c>
       <c r="Q216" s="1"/>
     </row>
-    <row r="217" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>230</v>
       </c>
@@ -11022,11 +10993,11 @@
       <c r="C217">
         <v>11</v>
       </c>
-      <c r="D217" s="3">
-        <v>1</v>
-      </c>
-      <c r="E217" s="3">
-        <v>8</v>
+      <c r="D217">
+        <v>17</v>
+      </c>
+      <c r="E217">
+        <v>16</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -11056,7 +11027,7 @@
       </c>
       <c r="Q217" s="1"/>
     </row>
-    <row r="218" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>231</v>
       </c>
@@ -11066,11 +11037,11 @@
       <c r="C218">
         <v>12</v>
       </c>
-      <c r="D218" s="3">
-        <v>1</v>
-      </c>
-      <c r="E218" s="3">
-        <v>9</v>
+      <c r="D218">
+        <v>17</v>
+      </c>
+      <c r="E218">
+        <v>17</v>
       </c>
       <c r="F218">
         <v>1</v>

--- a/resources/terkep_adatok_2.xlsx
+++ b/resources/terkep_adatok_2.xlsx
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:Q218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
         <v>0</v>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="O4">
         <f>(F4-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L4,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1"/>
     </row>
@@ -1447,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O8">
         <f>(F8-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L8,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q8" s="1"/>
     </row>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
         <v>0</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="O21">
         <f>(F21-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L21,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="G31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="O31">
         <f>(F31-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L31,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q31" s="1"/>
     </row>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H71" s="1">
         <v>0</v>
@@ -4347,7 +4347,7 @@
       </c>
       <c r="O71">
         <f>(F71-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L71,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q71" s="1"/>
     </row>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="O85">
         <f>(F85-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L85,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q85" s="1"/>
     </row>
@@ -7257,7 +7257,7 @@
         <v>1</v>
       </c>
       <c r="G135" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H135" s="1">
         <v>0</v>
@@ -7279,7 +7279,7 @@
       </c>
       <c r="O135">
         <f>(F135-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L135,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q135" s="1"/>
     </row>
@@ -7901,7 +7901,7 @@
         <v>1</v>
       </c>
       <c r="G149" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H149" s="1">
         <v>0</v>
@@ -7923,7 +7923,7 @@
       </c>
       <c r="O149">
         <f>(F149-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L149,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q149" s="1"/>
     </row>
@@ -9729,7 +9729,7 @@
         <v>1</v>
       </c>
       <c r="G189" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H189" s="1">
         <v>0</v>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="O189">
         <f>(F189-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L189,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q189" s="1"/>
     </row>
@@ -10189,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="G199" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H199" s="1">
         <v>0</v>
@@ -10211,7 +10211,7 @@
       </c>
       <c r="O199">
         <f>(F199-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L199,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q199" s="1"/>
     </row>
@@ -10779,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="G212" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H212" s="1">
         <v>0</v>
@@ -10801,7 +10801,7 @@
       </c>
       <c r="O212">
         <f>(F212-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L212,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q212" s="1"/>
     </row>
@@ -10957,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="G216" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H216" s="1">
         <v>0</v>
@@ -10979,7 +10979,7 @@
       </c>
       <c r="O216">
         <f>(F216-1)*segédtbl!F$2+segédtbl!F$3+VLOOKUP(adatok!L216,segédtbl!B$2:C$5,2,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q216" s="1"/>
     </row>
@@ -11081,7 +11081,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11105,7 +11105,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
         <v>238</v>
